--- a/ORIGENAL TEA INPUT & BLEND OUTPUT SYESTEM- 2021-22.xlsx
+++ b/ORIGENAL TEA INPUT & BLEND OUTPUT SYESTEM- 2021-22.xlsx
@@ -16,7 +16,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ARRIVEL-2020-21'!$A$4:$J$123</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'BLEND PAPER USED-2020-21'!$A$4:$U$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'BLEND PAPER USED-2020-21'!$A$4:$U$69</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'VARGIN TEA AC-2020-21'!$A$3:$AB$1087</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8008" uniqueCount="1402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8069" uniqueCount="1405">
   <si>
     <t>PLACE</t>
   </si>
@@ -4238,6 +4238,15 @@
   </si>
   <si>
     <t>09.06.2021</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>15.06.2021</t>
+  </si>
+  <si>
+    <t>26.06.2021</t>
   </si>
 </sst>
 </file>
@@ -6632,7 +6641,7 @@
       <sheetData sheetId="2">
         <row r="6">
           <cell r="K6">
-            <v>363609.8</v>
+            <v>326076.09999999998</v>
           </cell>
         </row>
       </sheetData>
@@ -6929,9 +6938,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AB1204"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1089" sqref="H1089"/>
+      <selection pane="bottomLeft" activeCell="A276" sqref="A276:K798"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23215,47 +23224,53 @@
       <c r="Y275" s="52"/>
       <c r="Z275" s="3"/>
     </row>
-    <row r="276" spans="1:26" hidden="1">
-      <c r="A276" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B276" s="352" t="s">
+    <row r="276" spans="1:26">
+      <c r="A276" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B276" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="C276" s="352">
+      <c r="C276" s="399">
         <v>40</v>
       </c>
-      <c r="D276" s="352" t="s">
+      <c r="D276" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="E276" s="361">
+      <c r="E276" s="399">
         <v>124</v>
       </c>
-      <c r="F276" s="352" t="s">
+      <c r="F276" s="399" t="s">
         <v>971</v>
       </c>
-      <c r="G276" s="352" t="s">
+      <c r="G276" s="399" t="s">
         <v>711</v>
       </c>
-      <c r="H276" s="361" t="s">
+      <c r="H276" s="399" t="s">
         <v>5</v>
       </c>
-      <c r="I276" s="361">
+      <c r="I276" s="399">
         <v>20</v>
       </c>
-      <c r="J276" s="353" t="s">
+      <c r="J276" s="400" t="s">
         <v>977</v>
       </c>
-      <c r="K276" s="360">
+      <c r="K276" s="401">
         <f>(19*40)+(1*31.4)</f>
         <v>791.4</v>
       </c>
       <c r="L276" s="58"/>
       <c r="M276" s="58"/>
       <c r="N276" s="229"/>
-      <c r="O276" s="21"/>
-      <c r="P276" s="21"/>
-      <c r="Q276" s="187"/>
+      <c r="O276" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P276" s="21">
+        <v>20</v>
+      </c>
+      <c r="Q276" s="187">
+        <v>791.4</v>
+      </c>
       <c r="R276" s="22"/>
       <c r="S276" s="22"/>
       <c r="T276" s="23"/>
@@ -23264,7 +23279,7 @@
       <c r="W276" s="315"/>
       <c r="X276" s="123">
         <f t="shared" si="17"/>
-        <v>791.4</v>
+        <v>0</v>
       </c>
       <c r="Y276" s="52"/>
       <c r="Z276" s="3"/>
@@ -23509,47 +23524,53 @@
       <c r="Y280" s="52"/>
       <c r="Z280" s="3"/>
     </row>
-    <row r="281" spans="1:26" hidden="1">
-      <c r="A281" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B281" s="352" t="s">
+    <row r="281" spans="1:26">
+      <c r="A281" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B281" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="C281" s="352">
+      <c r="C281" s="399">
         <v>40</v>
       </c>
-      <c r="D281" s="352" t="s">
+      <c r="D281" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="E281" s="361">
+      <c r="E281" s="399">
         <v>327</v>
       </c>
-      <c r="F281" s="352" t="s">
+      <c r="F281" s="399" t="s">
         <v>243</v>
       </c>
-      <c r="G281" s="352" t="s">
+      <c r="G281" s="399" t="s">
         <v>607</v>
       </c>
-      <c r="H281" s="361" t="s">
-        <v>15</v>
-      </c>
-      <c r="I281" s="361">
-        <v>15</v>
-      </c>
-      <c r="J281" s="353" t="s">
+      <c r="H281" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="I281" s="399">
+        <v>15</v>
+      </c>
+      <c r="J281" s="400" t="s">
         <v>93</v>
       </c>
-      <c r="K281" s="360">
+      <c r="K281" s="401">
         <f>(15*38)</f>
         <v>570</v>
       </c>
       <c r="L281" s="58"/>
       <c r="M281" s="58"/>
       <c r="N281" s="229"/>
-      <c r="O281" s="186"/>
-      <c r="P281" s="21"/>
-      <c r="Q281" s="187"/>
+      <c r="O281" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P281" s="21">
+        <v>15</v>
+      </c>
+      <c r="Q281" s="187">
+        <v>570</v>
+      </c>
       <c r="R281" s="22"/>
       <c r="S281" s="22"/>
       <c r="T281" s="23"/>
@@ -23558,7 +23579,7 @@
       <c r="W281" s="315"/>
       <c r="X281" s="123">
         <f t="shared" si="17"/>
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="Y281" s="52"/>
       <c r="Z281" s="3"/>
@@ -26665,47 +26686,53 @@
       <c r="Y334" s="52"/>
       <c r="Z334" s="3"/>
     </row>
-    <row r="335" spans="1:26" hidden="1">
-      <c r="A335" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B335" s="352" t="s">
+    <row r="335" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A335" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B335" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="C335" s="352">
+      <c r="C335" s="399">
         <v>40</v>
       </c>
-      <c r="D335" s="352" t="s">
+      <c r="D335" s="399" t="s">
         <v>25</v>
       </c>
-      <c r="E335" s="361">
+      <c r="E335" s="399">
         <v>70</v>
       </c>
-      <c r="F335" s="352" t="s">
+      <c r="F335" s="399" t="s">
         <v>835</v>
       </c>
-      <c r="G335" s="352" t="s">
+      <c r="G335" s="399" t="s">
         <v>111</v>
       </c>
-      <c r="H335" s="361" t="s">
-        <v>15</v>
-      </c>
-      <c r="I335" s="361">
-        <v>15</v>
-      </c>
-      <c r="J335" s="353" t="s">
+      <c r="H335" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="I335" s="399">
+        <v>15</v>
+      </c>
+      <c r="J335" s="400" t="s">
         <v>116</v>
       </c>
-      <c r="K335" s="360">
+      <c r="K335" s="401">
         <f>(14*34)+(1*25.4)</f>
         <v>501.4</v>
       </c>
       <c r="L335" s="58"/>
       <c r="M335" s="58"/>
       <c r="N335" s="229"/>
-      <c r="O335" s="186"/>
-      <c r="P335" s="21"/>
-      <c r="Q335" s="187"/>
+      <c r="O335" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P335" s="21">
+        <v>15</v>
+      </c>
+      <c r="Q335" s="187">
+        <v>501.4</v>
+      </c>
       <c r="R335" s="22"/>
       <c r="S335" s="22"/>
       <c r="T335" s="23"/>
@@ -26714,12 +26741,12 @@
       <c r="W335" s="315"/>
       <c r="X335" s="123">
         <f t="shared" si="22"/>
-        <v>501.4</v>
+        <v>0</v>
       </c>
       <c r="Y335" s="52"/>
       <c r="Z335" s="3"/>
     </row>
-    <row r="336" spans="1:26" hidden="1">
+    <row r="336" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A336" s="398" t="s">
         <v>1385</v>
       </c>
@@ -26779,7 +26806,7 @@
       <c r="Y336" s="52"/>
       <c r="Z336" s="3"/>
     </row>
-    <row r="337" spans="1:26" hidden="1">
+    <row r="337" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A337" s="398" t="s">
         <v>1385</v>
       </c>
@@ -26839,7 +26866,7 @@
       <c r="Y337" s="52"/>
       <c r="Z337" s="3"/>
     </row>
-    <row r="338" spans="1:26" hidden="1">
+    <row r="338" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A338" s="398" t="s">
         <v>1385</v>
       </c>
@@ -26899,7 +26926,7 @@
       <c r="Y338" s="52"/>
       <c r="Z338" s="3"/>
     </row>
-    <row r="339" spans="1:26" hidden="1">
+    <row r="339" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A339" s="398" t="s">
         <v>1385</v>
       </c>
@@ -26959,7 +26986,7 @@
       <c r="Y339" s="52"/>
       <c r="Z339" s="3"/>
     </row>
-    <row r="340" spans="1:26" hidden="1">
+    <row r="340" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A340" s="398" t="s">
         <v>1385</v>
       </c>
@@ -27019,7 +27046,7 @@
       <c r="Y340" s="52"/>
       <c r="Z340" s="3"/>
     </row>
-    <row r="341" spans="1:26" hidden="1">
+    <row r="341" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A341" s="398" t="s">
         <v>1385</v>
       </c>
@@ -27079,7 +27106,7 @@
       <c r="Y341" s="52"/>
       <c r="Z341" s="3"/>
     </row>
-    <row r="342" spans="1:26" hidden="1">
+    <row r="342" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A342" s="398" t="s">
         <v>1385</v>
       </c>
@@ -27139,7 +27166,7 @@
       <c r="Y342" s="52"/>
       <c r="Z342" s="3"/>
     </row>
-    <row r="343" spans="1:26" hidden="1">
+    <row r="343" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A343" s="398" t="s">
         <v>1385</v>
       </c>
@@ -27259,7 +27286,7 @@
       <c r="Y344" s="52"/>
       <c r="Z344" s="3"/>
     </row>
-    <row r="345" spans="1:26" hidden="1">
+    <row r="345" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A345" s="398" t="s">
         <v>1385</v>
       </c>
@@ -27319,7 +27346,7 @@
       <c r="Y345" s="52"/>
       <c r="Z345" s="3"/>
     </row>
-    <row r="346" spans="1:26" hidden="1">
+    <row r="346" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A346" s="398" t="s">
         <v>1385</v>
       </c>
@@ -27379,7 +27406,7 @@
       <c r="Y346" s="52"/>
       <c r="Z346" s="3"/>
     </row>
-    <row r="347" spans="1:26" hidden="1">
+    <row r="347" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A347" s="398" t="s">
         <v>1385</v>
       </c>
@@ -27439,7 +27466,7 @@
       <c r="Y347" s="52"/>
       <c r="Z347" s="3"/>
     </row>
-    <row r="348" spans="1:26" hidden="1">
+    <row r="348" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A348" s="398" t="s">
         <v>1385</v>
       </c>
@@ -27499,7 +27526,7 @@
       <c r="Y348" s="52"/>
       <c r="Z348" s="3"/>
     </row>
-    <row r="349" spans="1:26" hidden="1">
+    <row r="349" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A349" s="398" t="s">
         <v>1385</v>
       </c>
@@ -27559,7 +27586,7 @@
       <c r="Y349" s="52"/>
       <c r="Z349" s="3"/>
     </row>
-    <row r="350" spans="1:26" hidden="1">
+    <row r="350" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A350" s="398" t="s">
         <v>1385</v>
       </c>
@@ -27619,7 +27646,7 @@
       <c r="Y350" s="52"/>
       <c r="Z350" s="3"/>
     </row>
-    <row r="351" spans="1:26" hidden="1">
+    <row r="351" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A351" s="398" t="s">
         <v>1385</v>
       </c>
@@ -27679,7 +27706,7 @@
       <c r="Y351" s="52"/>
       <c r="Z351" s="3"/>
     </row>
-    <row r="352" spans="1:26" hidden="1">
+    <row r="352" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A352" s="398" t="s">
         <v>1385</v>
       </c>
@@ -27739,7 +27766,7 @@
       <c r="Y352" s="52"/>
       <c r="Z352" s="3"/>
     </row>
-    <row r="353" spans="1:26" hidden="1">
+    <row r="353" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A353" s="398" t="s">
         <v>1385</v>
       </c>
@@ -27799,7 +27826,7 @@
       <c r="Y353" s="52"/>
       <c r="Z353" s="3"/>
     </row>
-    <row r="354" spans="1:26" hidden="1">
+    <row r="354" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A354" s="398" t="s">
         <v>1385</v>
       </c>
@@ -27859,7 +27886,7 @@
       <c r="Y354" s="52"/>
       <c r="Z354" s="3"/>
     </row>
-    <row r="355" spans="1:26" hidden="1">
+    <row r="355" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A355" s="398" t="s">
         <v>1385</v>
       </c>
@@ -27919,7 +27946,7 @@
       <c r="Y355" s="52"/>
       <c r="Z355" s="3"/>
     </row>
-    <row r="356" spans="1:26" hidden="1">
+    <row r="356" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A356" s="398" t="s">
         <v>1385</v>
       </c>
@@ -27979,7 +28006,7 @@
       <c r="Y356" s="52"/>
       <c r="Z356" s="3"/>
     </row>
-    <row r="357" spans="1:26" hidden="1">
+    <row r="357" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A357" s="398" t="s">
         <v>1385</v>
       </c>
@@ -28039,7 +28066,7 @@
       <c r="Y357" s="52"/>
       <c r="Z357" s="3"/>
     </row>
-    <row r="358" spans="1:26" hidden="1">
+    <row r="358" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A358" s="398" t="s">
         <v>1385</v>
       </c>
@@ -28099,7 +28126,7 @@
       <c r="Y358" s="52"/>
       <c r="Z358" s="3"/>
     </row>
-    <row r="359" spans="1:26" hidden="1">
+    <row r="359" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A359" s="398" t="s">
         <v>1385</v>
       </c>
@@ -28159,7 +28186,7 @@
       <c r="Y359" s="52"/>
       <c r="Z359" s="3"/>
     </row>
-    <row r="360" spans="1:26" hidden="1">
+    <row r="360" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A360" s="398" t="s">
         <v>1385</v>
       </c>
@@ -28219,7 +28246,7 @@
       <c r="Y360" s="52"/>
       <c r="Z360" s="3"/>
     </row>
-    <row r="361" spans="1:26" hidden="1">
+    <row r="361" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A361" s="398" t="s">
         <v>1385</v>
       </c>
@@ -28279,7 +28306,7 @@
       <c r="Y361" s="52"/>
       <c r="Z361" s="3"/>
     </row>
-    <row r="362" spans="1:26" hidden="1">
+    <row r="362" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A362" s="398" t="s">
         <v>1385</v>
       </c>
@@ -28339,7 +28366,7 @@
       <c r="Y362" s="52"/>
       <c r="Z362" s="3"/>
     </row>
-    <row r="363" spans="1:26" hidden="1">
+    <row r="363" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A363" s="398" t="s">
         <v>1385</v>
       </c>
@@ -28399,7 +28426,7 @@
       <c r="Y363" s="52"/>
       <c r="Z363" s="3"/>
     </row>
-    <row r="364" spans="1:26" hidden="1">
+    <row r="364" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A364" s="398" t="s">
         <v>1385</v>
       </c>
@@ -28459,7 +28486,7 @@
       <c r="Y364" s="52"/>
       <c r="Z364" s="3"/>
     </row>
-    <row r="365" spans="1:26" hidden="1">
+    <row r="365" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A365" s="398" t="s">
         <v>1385</v>
       </c>
@@ -28519,7 +28546,7 @@
       <c r="Y365" s="52"/>
       <c r="Z365" s="3"/>
     </row>
-    <row r="366" spans="1:26" hidden="1">
+    <row r="366" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A366" s="398" t="s">
         <v>1385</v>
       </c>
@@ -28579,7 +28606,7 @@
       <c r="Y366" s="52"/>
       <c r="Z366" s="3"/>
     </row>
-    <row r="367" spans="1:26" hidden="1">
+    <row r="367" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A367" s="398" t="s">
         <v>1385</v>
       </c>
@@ -28639,7 +28666,7 @@
       <c r="Y367" s="52"/>
       <c r="Z367" s="3"/>
     </row>
-    <row r="368" spans="1:26" hidden="1">
+    <row r="368" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A368" s="398" t="s">
         <v>1385</v>
       </c>
@@ -28699,7 +28726,7 @@
       <c r="Y368" s="52"/>
       <c r="Z368" s="3"/>
     </row>
-    <row r="369" spans="1:26" hidden="1">
+    <row r="369" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A369" s="398" t="s">
         <v>1385</v>
       </c>
@@ -28759,7 +28786,7 @@
       <c r="Y369" s="52"/>
       <c r="Z369" s="3"/>
     </row>
-    <row r="370" spans="1:26" hidden="1">
+    <row r="370" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A370" s="398" t="s">
         <v>1385</v>
       </c>
@@ -28819,7 +28846,7 @@
       <c r="Y370" s="52"/>
       <c r="Z370" s="3"/>
     </row>
-    <row r="371" spans="1:26" hidden="1">
+    <row r="371" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A371" s="398" t="s">
         <v>1385</v>
       </c>
@@ -28879,7 +28906,7 @@
       <c r="Y371" s="52"/>
       <c r="Z371" s="3"/>
     </row>
-    <row r="372" spans="1:26" hidden="1">
+    <row r="372" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A372" s="398" t="s">
         <v>1385</v>
       </c>
@@ -28939,7 +28966,7 @@
       <c r="Y372" s="52"/>
       <c r="Z372" s="3"/>
     </row>
-    <row r="373" spans="1:26" hidden="1">
+    <row r="373" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A373" s="398" t="s">
         <v>1385</v>
       </c>
@@ -28999,7 +29026,7 @@
       <c r="Y373" s="52"/>
       <c r="Z373" s="3"/>
     </row>
-    <row r="374" spans="1:26" hidden="1">
+    <row r="374" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A374" s="398" t="s">
         <v>1385</v>
       </c>
@@ -29059,7 +29086,7 @@
       <c r="Y374" s="52"/>
       <c r="Z374" s="3"/>
     </row>
-    <row r="375" spans="1:26" hidden="1">
+    <row r="375" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A375" s="398" t="s">
         <v>1385</v>
       </c>
@@ -29119,7 +29146,7 @@
       <c r="Y375" s="52"/>
       <c r="Z375" s="3"/>
     </row>
-    <row r="376" spans="1:26" hidden="1">
+    <row r="376" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A376" s="398" t="s">
         <v>1385</v>
       </c>
@@ -29179,7 +29206,7 @@
       <c r="Y376" s="52"/>
       <c r="Z376" s="3"/>
     </row>
-    <row r="377" spans="1:26" hidden="1">
+    <row r="377" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A377" s="398" t="s">
         <v>1385</v>
       </c>
@@ -29239,7 +29266,7 @@
       <c r="Y377" s="52"/>
       <c r="Z377" s="3"/>
     </row>
-    <row r="378" spans="1:26" hidden="1">
+    <row r="378" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A378" s="398" t="s">
         <v>1385</v>
       </c>
@@ -29299,7 +29326,7 @@
       <c r="Y378" s="52"/>
       <c r="Z378" s="3"/>
     </row>
-    <row r="379" spans="1:26" hidden="1">
+    <row r="379" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A379" s="398" t="s">
         <v>1385</v>
       </c>
@@ -29359,7 +29386,7 @@
       <c r="Y379" s="52"/>
       <c r="Z379" s="3"/>
     </row>
-    <row r="380" spans="1:26" hidden="1">
+    <row r="380" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A380" s="398" t="s">
         <v>1385</v>
       </c>
@@ -29419,7 +29446,7 @@
       <c r="Y380" s="52"/>
       <c r="Z380" s="3"/>
     </row>
-    <row r="381" spans="1:26" hidden="1">
+    <row r="381" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A381" s="398" t="s">
         <v>1385</v>
       </c>
@@ -29479,7 +29506,7 @@
       <c r="Y381" s="52"/>
       <c r="Z381" s="3"/>
     </row>
-    <row r="382" spans="1:26" hidden="1">
+    <row r="382" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A382" s="398" t="s">
         <v>1385</v>
       </c>
@@ -29599,43 +29626,49 @@
       <c r="Y383" s="52"/>
       <c r="Z383" s="3"/>
     </row>
-    <row r="384" spans="1:26" hidden="1">
-      <c r="A384" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B384" s="356" t="s">
+    <row r="384" spans="1:26">
+      <c r="A384" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B384" s="395" t="s">
         <v>6</v>
       </c>
-      <c r="C384" s="356" t="s">
+      <c r="C384" s="395" t="s">
         <v>309</v>
       </c>
-      <c r="D384" s="356"/>
-      <c r="E384" s="367"/>
-      <c r="F384" s="356" t="s">
+      <c r="D384" s="395"/>
+      <c r="E384" s="395"/>
+      <c r="F384" s="395" t="s">
         <v>1010</v>
       </c>
-      <c r="G384" s="356" t="s">
+      <c r="G384" s="395" t="s">
         <v>374</v>
       </c>
-      <c r="H384" s="367" t="s">
+      <c r="H384" s="395" t="s">
         <v>330</v>
       </c>
-      <c r="I384" s="367">
-        <v>15</v>
-      </c>
-      <c r="J384" s="357" t="s">
+      <c r="I384" s="395">
+        <v>15</v>
+      </c>
+      <c r="J384" s="396" t="s">
         <v>1040</v>
       </c>
-      <c r="K384" s="358">
+      <c r="K384" s="397">
         <f>(14*24)+(1*20.4)</f>
         <v>356.4</v>
       </c>
       <c r="L384" s="58"/>
       <c r="M384" s="58"/>
       <c r="N384" s="229"/>
-      <c r="O384" s="21"/>
-      <c r="P384" s="21"/>
-      <c r="Q384" s="187"/>
+      <c r="O384" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P384" s="21">
+        <v>15</v>
+      </c>
+      <c r="Q384" s="187">
+        <v>356.4</v>
+      </c>
       <c r="R384" s="295"/>
       <c r="S384" s="22"/>
       <c r="T384" s="23"/>
@@ -29644,48 +29677,54 @@
       <c r="W384" s="315"/>
       <c r="X384" s="123">
         <f t="shared" si="22"/>
-        <v>356.4</v>
+        <v>0</v>
       </c>
       <c r="Y384" s="52"/>
       <c r="Z384" s="3"/>
     </row>
-    <row r="385" spans="1:26" hidden="1">
-      <c r="A385" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B385" s="352" t="s">
+    <row r="385" spans="1:26">
+      <c r="A385" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B385" s="399" t="s">
         <v>6</v>
       </c>
-      <c r="C385" s="352" t="s">
+      <c r="C385" s="399" t="s">
         <v>309</v>
       </c>
-      <c r="D385" s="352"/>
-      <c r="E385" s="361"/>
-      <c r="F385" s="352" t="s">
+      <c r="D385" s="399"/>
+      <c r="E385" s="399"/>
+      <c r="F385" s="399" t="s">
         <v>1011</v>
       </c>
-      <c r="G385" s="352" t="s">
+      <c r="G385" s="399" t="s">
         <v>374</v>
       </c>
-      <c r="H385" s="361" t="s">
+      <c r="H385" s="399" t="s">
         <v>330</v>
       </c>
-      <c r="I385" s="361">
+      <c r="I385" s="399">
         <v>10</v>
       </c>
-      <c r="J385" s="353" t="s">
+      <c r="J385" s="400" t="s">
         <v>1041</v>
       </c>
-      <c r="K385" s="360">
+      <c r="K385" s="401">
         <f>(9*24)+(1*20.4)</f>
         <v>236.4</v>
       </c>
       <c r="L385" s="58"/>
       <c r="M385" s="58"/>
       <c r="N385" s="229"/>
-      <c r="O385" s="186"/>
-      <c r="P385" s="21"/>
-      <c r="Q385" s="187"/>
+      <c r="O385" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P385" s="21">
+        <v>10</v>
+      </c>
+      <c r="Q385" s="187">
+        <v>236.4</v>
+      </c>
       <c r="R385" s="22"/>
       <c r="S385" s="22"/>
       <c r="T385" s="23"/>
@@ -29694,7 +29733,7 @@
       <c r="W385" s="315"/>
       <c r="X385" s="123">
         <f t="shared" ref="X385:X448" si="23">SUM(K385-N385-Q385-T385-W385)</f>
-        <v>236.4</v>
+        <v>0</v>
       </c>
       <c r="Y385" s="52"/>
       <c r="Z385" s="3"/>
@@ -29849,7 +29888,7 @@
       <c r="Y388" s="52"/>
       <c r="Z388" s="3"/>
     </row>
-    <row r="389" spans="1:26">
+    <row r="389" spans="1:26" hidden="1">
       <c r="A389" s="398" t="s">
         <v>1385</v>
       </c>
@@ -29905,7 +29944,7 @@
       <c r="Y389" s="52"/>
       <c r="Z389" s="3"/>
     </row>
-    <row r="390" spans="1:26">
+    <row r="390" spans="1:26" hidden="1">
       <c r="A390" s="398" t="s">
         <v>1385</v>
       </c>
@@ -29961,7 +30000,7 @@
       <c r="Y390" s="52"/>
       <c r="Z390" s="3"/>
     </row>
-    <row r="391" spans="1:26">
+    <row r="391" spans="1:26" hidden="1">
       <c r="A391" s="398" t="s">
         <v>1385</v>
       </c>
@@ -31281,47 +31320,53 @@
       <c r="Y414" s="52"/>
       <c r="Z414" s="3"/>
     </row>
-    <row r="415" spans="1:26" hidden="1">
-      <c r="A415" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B415" s="352" t="s">
+    <row r="415" spans="1:26">
+      <c r="A415" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B415" s="399" t="s">
         <v>6</v>
       </c>
-      <c r="C415" s="352">
+      <c r="C415" s="399">
         <v>47</v>
       </c>
-      <c r="D415" s="352" t="s">
+      <c r="D415" s="399" t="s">
         <v>83</v>
       </c>
-      <c r="E415" s="361">
+      <c r="E415" s="399">
         <v>6713</v>
       </c>
-      <c r="F415" s="352" t="s">
+      <c r="F415" s="399" t="s">
         <v>1059</v>
       </c>
-      <c r="G415" s="352" t="s">
+      <c r="G415" s="399" t="s">
         <v>1071</v>
       </c>
-      <c r="H415" s="361" t="s">
+      <c r="H415" s="399" t="s">
         <v>908</v>
       </c>
-      <c r="I415" s="361">
+      <c r="I415" s="399">
         <v>20</v>
       </c>
-      <c r="J415" s="353" t="s">
+      <c r="J415" s="400" t="s">
         <v>1080</v>
       </c>
-      <c r="K415" s="360">
+      <c r="K415" s="401">
         <f>(18*21)+(2*14)</f>
         <v>406</v>
       </c>
       <c r="L415" s="228"/>
       <c r="M415" s="58"/>
       <c r="N415" s="229"/>
-      <c r="O415" s="21"/>
-      <c r="P415" s="21"/>
-      <c r="Q415" s="187"/>
+      <c r="O415" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P415" s="21">
+        <v>20</v>
+      </c>
+      <c r="Q415" s="187">
+        <v>406</v>
+      </c>
       <c r="R415" s="22"/>
       <c r="S415" s="22"/>
       <c r="T415" s="23"/>
@@ -31330,7 +31375,7 @@
       <c r="W415" s="315"/>
       <c r="X415" s="123">
         <f t="shared" si="23"/>
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="Y415" s="52"/>
       <c r="Z415" s="3"/>
@@ -31857,47 +31902,53 @@
       <c r="Y424" s="52"/>
       <c r="Z424" s="3"/>
     </row>
-    <row r="425" spans="1:26" hidden="1">
-      <c r="A425" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B425" s="352" t="s">
+    <row r="425" spans="1:26">
+      <c r="A425" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B425" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="C425" s="352">
+      <c r="C425" s="399">
         <v>40</v>
       </c>
-      <c r="D425" s="352" t="s">
+      <c r="D425" s="399" t="s">
         <v>16</v>
       </c>
-      <c r="E425" s="361">
+      <c r="E425" s="399">
         <v>228</v>
       </c>
-      <c r="F425" s="352" t="s">
+      <c r="F425" s="399" t="s">
         <v>1086</v>
       </c>
-      <c r="G425" s="352" t="s">
+      <c r="G425" s="399" t="s">
         <v>94</v>
       </c>
-      <c r="H425" s="361" t="s">
+      <c r="H425" s="399" t="s">
         <v>5</v>
       </c>
-      <c r="I425" s="361">
+      <c r="I425" s="399">
         <v>20</v>
       </c>
-      <c r="J425" s="353" t="s">
+      <c r="J425" s="400" t="s">
         <v>17</v>
       </c>
-      <c r="K425" s="360">
+      <c r="K425" s="401">
         <f>(19*35)+(1*26.4)</f>
         <v>691.4</v>
       </c>
       <c r="L425" s="58"/>
       <c r="M425" s="58"/>
       <c r="N425" s="229"/>
-      <c r="O425" s="186"/>
-      <c r="P425" s="21"/>
-      <c r="Q425" s="187"/>
+      <c r="O425" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P425" s="21">
+        <v>20</v>
+      </c>
+      <c r="Q425" s="187">
+        <v>691.4</v>
+      </c>
       <c r="R425" s="22"/>
       <c r="S425" s="22"/>
       <c r="T425" s="23"/>
@@ -31906,52 +31957,58 @@
       <c r="W425" s="315"/>
       <c r="X425" s="123">
         <f t="shared" si="23"/>
-        <v>691.4</v>
+        <v>0</v>
       </c>
       <c r="Y425" s="52"/>
       <c r="Z425" s="3"/>
     </row>
-    <row r="426" spans="1:26" hidden="1">
-      <c r="A426" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B426" s="352" t="s">
+    <row r="426" spans="1:26">
+      <c r="A426" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B426" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="C426" s="352">
+      <c r="C426" s="399">
         <v>40</v>
       </c>
-      <c r="D426" s="352" t="s">
+      <c r="D426" s="399" t="s">
         <v>16</v>
       </c>
-      <c r="E426" s="361">
+      <c r="E426" s="399">
         <v>229</v>
       </c>
-      <c r="F426" s="352" t="s">
+      <c r="F426" s="399" t="s">
         <v>1087</v>
       </c>
-      <c r="G426" s="352" t="s">
+      <c r="G426" s="399" t="s">
         <v>94</v>
       </c>
-      <c r="H426" s="361" t="s">
+      <c r="H426" s="399" t="s">
         <v>5</v>
       </c>
-      <c r="I426" s="361">
+      <c r="I426" s="399">
         <v>20</v>
       </c>
-      <c r="J426" s="353" t="s">
+      <c r="J426" s="400" t="s">
         <v>17</v>
       </c>
-      <c r="K426" s="360">
+      <c r="K426" s="401">
         <f t="shared" ref="K426:K431" si="28">(19*35)+(1*26.4)</f>
         <v>691.4</v>
       </c>
       <c r="L426" s="58"/>
       <c r="M426" s="58"/>
       <c r="N426" s="229"/>
-      <c r="O426" s="186"/>
-      <c r="P426" s="21"/>
-      <c r="Q426" s="187"/>
+      <c r="O426" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P426" s="21">
+        <v>20</v>
+      </c>
+      <c r="Q426" s="187">
+        <v>691.4</v>
+      </c>
       <c r="R426" s="22"/>
       <c r="S426" s="22"/>
       <c r="T426" s="23"/>
@@ -31960,7 +32017,7 @@
       <c r="W426" s="315"/>
       <c r="X426" s="123">
         <f t="shared" si="23"/>
-        <v>691.4</v>
+        <v>0</v>
       </c>
       <c r="Y426" s="52"/>
       <c r="Z426" s="3"/>
@@ -32085,47 +32142,53 @@
       <c r="Y428" s="52"/>
       <c r="Z428" s="3"/>
     </row>
-    <row r="429" spans="1:26" hidden="1">
-      <c r="A429" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B429" s="352" t="s">
+    <row r="429" spans="1:26">
+      <c r="A429" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B429" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="C429" s="352">
+      <c r="C429" s="399">
         <v>40</v>
       </c>
-      <c r="D429" s="352" t="s">
+      <c r="D429" s="399" t="s">
         <v>16</v>
       </c>
-      <c r="E429" s="361">
+      <c r="E429" s="399">
         <v>250</v>
       </c>
-      <c r="F429" s="352" t="s">
+      <c r="F429" s="399" t="s">
         <v>1089</v>
       </c>
-      <c r="G429" s="352" t="s">
+      <c r="G429" s="399" t="s">
         <v>94</v>
       </c>
-      <c r="H429" s="361" t="s">
-        <v>15</v>
-      </c>
-      <c r="I429" s="361">
+      <c r="H429" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="I429" s="399">
         <v>20</v>
       </c>
-      <c r="J429" s="353" t="s">
+      <c r="J429" s="400" t="s">
         <v>17</v>
       </c>
-      <c r="K429" s="360">
+      <c r="K429" s="401">
         <f t="shared" si="28"/>
         <v>691.4</v>
       </c>
       <c r="L429" s="58"/>
       <c r="M429" s="58"/>
       <c r="N429" s="229"/>
-      <c r="O429" s="186"/>
-      <c r="P429" s="21"/>
-      <c r="Q429" s="187"/>
+      <c r="O429" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P429" s="21">
+        <v>20</v>
+      </c>
+      <c r="Q429" s="187">
+        <v>691.4</v>
+      </c>
       <c r="R429" s="22"/>
       <c r="S429" s="22"/>
       <c r="T429" s="23"/>
@@ -32134,7 +32197,7 @@
       <c r="W429" s="315"/>
       <c r="X429" s="123">
         <f t="shared" si="23"/>
-        <v>691.4</v>
+        <v>0</v>
       </c>
       <c r="Y429" s="52"/>
       <c r="Z429" s="3"/>
@@ -32199,47 +32262,53 @@
       <c r="Y430" s="52"/>
       <c r="Z430" s="3"/>
     </row>
-    <row r="431" spans="1:26" hidden="1">
-      <c r="A431" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B431" s="352" t="s">
+    <row r="431" spans="1:26">
+      <c r="A431" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B431" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="C431" s="352">
+      <c r="C431" s="399">
         <v>40</v>
       </c>
-      <c r="D431" s="352" t="s">
+      <c r="D431" s="399" t="s">
         <v>16</v>
       </c>
-      <c r="E431" s="361">
+      <c r="E431" s="399">
         <v>252</v>
       </c>
-      <c r="F431" s="352" t="s">
+      <c r="F431" s="399" t="s">
         <v>484</v>
       </c>
-      <c r="G431" s="352" t="s">
+      <c r="G431" s="399" t="s">
         <v>94</v>
       </c>
-      <c r="H431" s="361" t="s">
-        <v>15</v>
-      </c>
-      <c r="I431" s="361">
+      <c r="H431" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="I431" s="399">
         <v>20</v>
       </c>
-      <c r="J431" s="353" t="s">
+      <c r="J431" s="400" t="s">
         <v>17</v>
       </c>
-      <c r="K431" s="360">
+      <c r="K431" s="401">
         <f t="shared" si="28"/>
         <v>691.4</v>
       </c>
       <c r="L431" s="58"/>
       <c r="M431" s="58"/>
       <c r="N431" s="229"/>
-      <c r="O431" s="186"/>
-      <c r="P431" s="21"/>
-      <c r="Q431" s="187"/>
+      <c r="O431" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P431" s="21">
+        <v>20</v>
+      </c>
+      <c r="Q431" s="187">
+        <v>691.4</v>
+      </c>
       <c r="R431" s="22"/>
       <c r="S431" s="22"/>
       <c r="T431" s="23"/>
@@ -32248,52 +32317,58 @@
       <c r="W431" s="315"/>
       <c r="X431" s="123">
         <f t="shared" si="23"/>
-        <v>691.4</v>
+        <v>0</v>
       </c>
       <c r="Y431" s="52"/>
       <c r="Z431" s="3"/>
     </row>
-    <row r="432" spans="1:26" hidden="1">
-      <c r="A432" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B432" s="352" t="s">
+    <row r="432" spans="1:26">
+      <c r="A432" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B432" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="C432" s="352">
+      <c r="C432" s="399">
         <v>40</v>
       </c>
-      <c r="D432" s="352" t="s">
+      <c r="D432" s="399" t="s">
         <v>16</v>
       </c>
-      <c r="E432" s="361">
+      <c r="E432" s="399">
         <v>313</v>
       </c>
-      <c r="F432" s="352" t="s">
+      <c r="F432" s="399" t="s">
         <v>1091</v>
       </c>
-      <c r="G432" s="352" t="s">
+      <c r="G432" s="399" t="s">
         <v>39</v>
       </c>
-      <c r="H432" s="361" t="s">
+      <c r="H432" s="399" t="s">
         <v>182</v>
       </c>
-      <c r="I432" s="361">
+      <c r="I432" s="399">
         <v>10</v>
       </c>
-      <c r="J432" s="353" t="s">
+      <c r="J432" s="400" t="s">
         <v>580</v>
       </c>
-      <c r="K432" s="360">
+      <c r="K432" s="401">
         <f>(9*38)+(1*32.2)</f>
         <v>374.2</v>
       </c>
       <c r="L432" s="58"/>
       <c r="M432" s="58"/>
       <c r="N432" s="229"/>
-      <c r="O432" s="186"/>
-      <c r="P432" s="21"/>
-      <c r="Q432" s="187"/>
+      <c r="O432" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P432" s="21">
+        <v>10</v>
+      </c>
+      <c r="Q432" s="187">
+        <v>374.2</v>
+      </c>
       <c r="R432" s="22"/>
       <c r="S432" s="22"/>
       <c r="T432" s="23"/>
@@ -32302,7 +32377,7 @@
       <c r="W432" s="315"/>
       <c r="X432" s="123">
         <f t="shared" si="23"/>
-        <v>374.2</v>
+        <v>0</v>
       </c>
       <c r="Y432" s="52"/>
       <c r="Z432" s="3"/>
@@ -32487,47 +32562,53 @@
       <c r="Y435" s="52"/>
       <c r="Z435" s="3"/>
     </row>
-    <row r="436" spans="1:26" hidden="1">
-      <c r="A436" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B436" s="352" t="s">
+    <row r="436" spans="1:26">
+      <c r="A436" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B436" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="C436" s="352">
+      <c r="C436" s="399">
         <v>40</v>
       </c>
-      <c r="D436" s="352" t="s">
+      <c r="D436" s="399" t="s">
         <v>16</v>
       </c>
-      <c r="E436" s="361">
+      <c r="E436" s="399">
         <v>336</v>
       </c>
-      <c r="F436" s="352" t="s">
+      <c r="F436" s="399" t="s">
         <v>593</v>
       </c>
-      <c r="G436" s="352" t="s">
+      <c r="G436" s="399" t="s">
         <v>280</v>
       </c>
-      <c r="H436" s="361" t="s">
-        <v>15</v>
-      </c>
-      <c r="I436" s="361">
+      <c r="H436" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="I436" s="399">
         <v>20</v>
       </c>
-      <c r="J436" s="353" t="s">
+      <c r="J436" s="400" t="s">
         <v>136</v>
       </c>
-      <c r="K436" s="360">
+      <c r="K436" s="401">
         <f>(20*38)</f>
         <v>760</v>
       </c>
       <c r="L436" s="228"/>
       <c r="M436" s="58"/>
       <c r="N436" s="229"/>
-      <c r="O436" s="21"/>
-      <c r="P436" s="21"/>
-      <c r="Q436" s="187"/>
+      <c r="O436" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P436" s="21">
+        <v>20</v>
+      </c>
+      <c r="Q436" s="187">
+        <v>760</v>
+      </c>
       <c r="R436" s="22"/>
       <c r="S436" s="22"/>
       <c r="T436" s="23"/>
@@ -32536,7 +32617,7 @@
       <c r="W436" s="315"/>
       <c r="X436" s="123">
         <f t="shared" si="23"/>
-        <v>760</v>
+        <v>0</v>
       </c>
       <c r="Y436" s="52"/>
       <c r="Z436" s="3"/>
@@ -32721,47 +32802,53 @@
       <c r="Y439" s="52"/>
       <c r="Z439" s="3"/>
     </row>
-    <row r="440" spans="1:26" hidden="1">
-      <c r="A440" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B440" s="352" t="s">
+    <row r="440" spans="1:26">
+      <c r="A440" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B440" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="C440" s="352">
+      <c r="C440" s="399">
         <v>40</v>
       </c>
-      <c r="D440" s="352" t="s">
+      <c r="D440" s="399" t="s">
         <v>16</v>
       </c>
-      <c r="E440" s="361">
+      <c r="E440" s="399">
         <v>436</v>
       </c>
-      <c r="F440" s="352" t="s">
+      <c r="F440" s="399" t="s">
         <v>343</v>
       </c>
-      <c r="G440" s="352" t="s">
+      <c r="G440" s="399" t="s">
         <v>131</v>
       </c>
-      <c r="H440" s="361" t="s">
-        <v>15</v>
-      </c>
-      <c r="I440" s="361">
+      <c r="H440" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="I440" s="399">
         <v>10</v>
       </c>
-      <c r="J440" s="353" t="s">
+      <c r="J440" s="400" t="s">
         <v>26</v>
       </c>
-      <c r="K440" s="360">
+      <c r="K440" s="401">
         <f>(9*38)+(1*29.4)</f>
         <v>371.4</v>
       </c>
       <c r="L440" s="58"/>
       <c r="M440" s="58"/>
       <c r="N440" s="229"/>
-      <c r="O440" s="186"/>
-      <c r="P440" s="21"/>
-      <c r="Q440" s="187"/>
+      <c r="O440" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P440" s="21">
+        <v>10</v>
+      </c>
+      <c r="Q440" s="187">
+        <v>371.4</v>
+      </c>
       <c r="R440" s="22"/>
       <c r="S440" s="22"/>
       <c r="T440" s="23"/>
@@ -32770,7 +32857,7 @@
       <c r="W440" s="315"/>
       <c r="X440" s="123">
         <f t="shared" si="23"/>
-        <v>371.4</v>
+        <v>0</v>
       </c>
       <c r="Y440" s="52"/>
       <c r="Z440" s="3"/>
@@ -32895,47 +32982,53 @@
       <c r="Y442" s="52"/>
       <c r="Z442" s="3"/>
     </row>
-    <row r="443" spans="1:26" hidden="1">
-      <c r="A443" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B443" s="352" t="s">
+    <row r="443" spans="1:26">
+      <c r="A443" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B443" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="C443" s="352">
+      <c r="C443" s="399">
         <v>40</v>
       </c>
-      <c r="D443" s="352" t="s">
+      <c r="D443" s="399" t="s">
         <v>16</v>
       </c>
-      <c r="E443" s="361">
+      <c r="E443" s="399">
         <v>605</v>
       </c>
-      <c r="F443" s="352" t="s">
+      <c r="F443" s="399" t="s">
         <v>559</v>
       </c>
-      <c r="G443" s="352" t="s">
+      <c r="G443" s="399" t="s">
         <v>111</v>
       </c>
-      <c r="H443" s="361" t="s">
+      <c r="H443" s="399" t="s">
         <v>5</v>
       </c>
-      <c r="I443" s="361">
+      <c r="I443" s="399">
         <v>30</v>
       </c>
-      <c r="J443" s="353" t="s">
+      <c r="J443" s="400" t="s">
         <v>986</v>
       </c>
-      <c r="K443" s="360">
+      <c r="K443" s="401">
         <f>(29*33)+(1*24.4)</f>
         <v>981.4</v>
       </c>
       <c r="L443" s="228"/>
       <c r="M443" s="58"/>
       <c r="N443" s="229"/>
-      <c r="O443" s="21"/>
-      <c r="P443" s="21"/>
-      <c r="Q443" s="187"/>
+      <c r="O443" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P443" s="21">
+        <v>30</v>
+      </c>
+      <c r="Q443" s="187">
+        <v>981.4</v>
+      </c>
       <c r="R443" s="22"/>
       <c r="S443" s="22"/>
       <c r="T443" s="23"/>
@@ -32944,7 +33037,7 @@
       <c r="W443" s="315"/>
       <c r="X443" s="123">
         <f t="shared" si="23"/>
-        <v>981.4</v>
+        <v>0</v>
       </c>
       <c r="Y443" s="52"/>
       <c r="Z443" s="3"/>
@@ -33009,47 +33102,53 @@
       <c r="Y444" s="52"/>
       <c r="Z444" s="3"/>
     </row>
-    <row r="445" spans="1:26" hidden="1">
-      <c r="A445" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B445" s="352" t="s">
+    <row r="445" spans="1:26">
+      <c r="A445" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B445" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="C445" s="352">
+      <c r="C445" s="399">
         <v>40</v>
       </c>
-      <c r="D445" s="352" t="s">
+      <c r="D445" s="399" t="s">
         <v>16</v>
       </c>
-      <c r="E445" s="361">
+      <c r="E445" s="399">
         <v>608</v>
       </c>
-      <c r="F445" s="352" t="s">
+      <c r="F445" s="399" t="s">
         <v>808</v>
       </c>
-      <c r="G445" s="352" t="s">
+      <c r="G445" s="399" t="s">
         <v>111</v>
       </c>
-      <c r="H445" s="361" t="s">
-        <v>15</v>
-      </c>
-      <c r="I445" s="361">
-        <v>15</v>
-      </c>
-      <c r="J445" s="353" t="s">
+      <c r="H445" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="I445" s="399">
+        <v>15</v>
+      </c>
+      <c r="J445" s="400" t="s">
         <v>116</v>
       </c>
-      <c r="K445" s="360">
+      <c r="K445" s="401">
         <f>(14*34)+(1*25.4)</f>
         <v>501.4</v>
       </c>
       <c r="L445" s="58"/>
       <c r="M445" s="58"/>
       <c r="N445" s="229"/>
-      <c r="O445" s="186"/>
-      <c r="P445" s="21"/>
-      <c r="Q445" s="187"/>
+      <c r="O445" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P445" s="21">
+        <v>15</v>
+      </c>
+      <c r="Q445" s="187">
+        <v>501.4</v>
+      </c>
       <c r="R445" s="22"/>
       <c r="S445" s="22"/>
       <c r="T445" s="23"/>
@@ -33058,7 +33157,7 @@
       <c r="W445" s="315"/>
       <c r="X445" s="123">
         <f t="shared" si="23"/>
-        <v>501.4</v>
+        <v>0</v>
       </c>
       <c r="Y445" s="52"/>
       <c r="Z445" s="3"/>
@@ -33183,47 +33282,53 @@
       <c r="Y447" s="52"/>
       <c r="Z447" s="3"/>
     </row>
-    <row r="448" spans="1:26" hidden="1">
-      <c r="A448" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B448" s="352" t="s">
+    <row r="448" spans="1:26">
+      <c r="A448" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B448" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="C448" s="352">
+      <c r="C448" s="399">
         <v>40</v>
       </c>
-      <c r="D448" s="352" t="s">
+      <c r="D448" s="399" t="s">
         <v>10</v>
       </c>
-      <c r="E448" s="361">
+      <c r="E448" s="399">
         <v>70</v>
       </c>
-      <c r="F448" s="352" t="s">
+      <c r="F448" s="399" t="s">
         <v>465</v>
       </c>
-      <c r="G448" s="352" t="s">
+      <c r="G448" s="399" t="s">
         <v>294</v>
       </c>
-      <c r="H448" s="361" t="s">
+      <c r="H448" s="399" t="s">
         <v>5</v>
       </c>
-      <c r="I448" s="361">
+      <c r="I448" s="399">
         <v>30</v>
       </c>
-      <c r="J448" s="353" t="s">
+      <c r="J448" s="400" t="s">
         <v>24</v>
       </c>
-      <c r="K448" s="360">
+      <c r="K448" s="401">
         <f>(29*38)+(1*29.4)</f>
         <v>1131.4000000000001</v>
       </c>
       <c r="L448" s="228"/>
       <c r="M448" s="58"/>
       <c r="N448" s="229"/>
-      <c r="O448" s="21"/>
-      <c r="P448" s="21"/>
-      <c r="Q448" s="187"/>
+      <c r="O448" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P448" s="21">
+        <v>30</v>
+      </c>
+      <c r="Q448" s="187">
+        <v>1131.4000000000001</v>
+      </c>
       <c r="R448" s="22"/>
       <c r="S448" s="22"/>
       <c r="T448" s="23"/>
@@ -33232,7 +33337,7 @@
       <c r="W448" s="315"/>
       <c r="X448" s="123">
         <f t="shared" si="23"/>
-        <v>1131.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y448" s="52"/>
       <c r="Z448" s="3"/>
@@ -33657,47 +33762,53 @@
       <c r="Y455" s="52"/>
       <c r="Z455" s="3"/>
     </row>
-    <row r="456" spans="1:26" hidden="1">
-      <c r="A456" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B456" s="352" t="s">
+    <row r="456" spans="1:26">
+      <c r="A456" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B456" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="C456" s="352">
+      <c r="C456" s="399">
         <v>40</v>
       </c>
-      <c r="D456" s="352" t="s">
+      <c r="D456" s="399" t="s">
         <v>10</v>
       </c>
-      <c r="E456" s="361">
+      <c r="E456" s="399">
         <v>116</v>
       </c>
-      <c r="F456" s="352" t="s">
+      <c r="F456" s="399" t="s">
         <v>1096</v>
       </c>
-      <c r="G456" s="352" t="s">
+      <c r="G456" s="399" t="s">
         <v>27</v>
       </c>
-      <c r="H456" s="361" t="s">
+      <c r="H456" s="399" t="s">
         <v>5</v>
       </c>
-      <c r="I456" s="361">
-        <v>15</v>
-      </c>
-      <c r="J456" s="353" t="s">
+      <c r="I456" s="399">
+        <v>15</v>
+      </c>
+      <c r="J456" s="400" t="s">
         <v>93</v>
       </c>
-      <c r="K456" s="360">
+      <c r="K456" s="401">
         <f>(15*38)</f>
         <v>570</v>
       </c>
       <c r="L456" s="58"/>
       <c r="M456" s="58"/>
       <c r="N456" s="229"/>
-      <c r="O456" s="186"/>
-      <c r="P456" s="21"/>
-      <c r="Q456" s="187"/>
+      <c r="O456" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P456" s="21">
+        <v>15</v>
+      </c>
+      <c r="Q456" s="187">
+        <v>570</v>
+      </c>
       <c r="R456" s="22"/>
       <c r="S456" s="22"/>
       <c r="T456" s="23"/>
@@ -33706,7 +33817,7 @@
       <c r="W456" s="315"/>
       <c r="X456" s="123">
         <f t="shared" si="29"/>
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="Y456" s="52"/>
       <c r="Z456" s="3"/>
@@ -33831,47 +33942,53 @@
       <c r="Y458" s="52"/>
       <c r="Z458" s="3"/>
     </row>
-    <row r="459" spans="1:26" hidden="1">
-      <c r="A459" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B459" s="352" t="s">
+    <row r="459" spans="1:26">
+      <c r="A459" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B459" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="C459" s="352">
+      <c r="C459" s="399">
         <v>40</v>
       </c>
-      <c r="D459" s="352" t="s">
+      <c r="D459" s="399" t="s">
         <v>10</v>
       </c>
-      <c r="E459" s="361">
+      <c r="E459" s="399">
         <v>280</v>
       </c>
-      <c r="F459" s="352" t="s">
+      <c r="F459" s="399" t="s">
         <v>256</v>
       </c>
-      <c r="G459" s="352" t="s">
+      <c r="G459" s="399" t="s">
         <v>99</v>
       </c>
-      <c r="H459" s="361" t="s">
+      <c r="H459" s="399" t="s">
         <v>5</v>
       </c>
-      <c r="I459" s="361">
+      <c r="I459" s="399">
         <v>20</v>
       </c>
-      <c r="J459" s="353" t="s">
+      <c r="J459" s="400" t="s">
         <v>125</v>
       </c>
-      <c r="K459" s="360">
+      <c r="K459" s="401">
         <f>(20*35)</f>
         <v>700</v>
       </c>
       <c r="L459" s="58"/>
       <c r="M459" s="58"/>
       <c r="N459" s="229"/>
-      <c r="O459" s="21"/>
-      <c r="P459" s="21"/>
-      <c r="Q459" s="187"/>
+      <c r="O459" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P459" s="21">
+        <v>20</v>
+      </c>
+      <c r="Q459" s="187">
+        <v>700</v>
+      </c>
       <c r="R459" s="22"/>
       <c r="S459" s="22"/>
       <c r="T459" s="23"/>
@@ -33880,7 +33997,7 @@
       <c r="W459" s="315"/>
       <c r="X459" s="123">
         <f t="shared" si="29"/>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="Y459" s="52"/>
       <c r="Z459" s="3"/>
@@ -36285,7 +36402,7 @@
       <c r="Y501" s="52"/>
       <c r="Z501" s="3"/>
     </row>
-    <row r="502" spans="1:26">
+    <row r="502" spans="1:26" hidden="1">
       <c r="A502" s="398" t="s">
         <v>1385</v>
       </c>
@@ -36615,47 +36732,53 @@
       <c r="Y507" s="52"/>
       <c r="Z507" s="3"/>
     </row>
-    <row r="508" spans="1:26" hidden="1">
-      <c r="A508" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B508" s="352" t="s">
+    <row r="508" spans="1:26">
+      <c r="A508" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B508" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="C508" s="352">
+      <c r="C508" s="399">
         <v>45</v>
       </c>
-      <c r="D508" s="352" t="s">
+      <c r="D508" s="399" t="s">
         <v>10</v>
       </c>
-      <c r="E508" s="361">
+      <c r="E508" s="399">
         <v>164</v>
       </c>
-      <c r="F508" s="352" t="s">
+      <c r="F508" s="399" t="s">
         <v>838</v>
       </c>
-      <c r="G508" s="352" t="s">
+      <c r="G508" s="399" t="s">
         <v>27</v>
       </c>
-      <c r="H508" s="361" t="s">
-        <v>15</v>
-      </c>
-      <c r="I508" s="361">
-        <v>15</v>
-      </c>
-      <c r="J508" s="353" t="s">
+      <c r="H508" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="I508" s="399">
+        <v>15</v>
+      </c>
+      <c r="J508" s="400" t="s">
         <v>93</v>
       </c>
-      <c r="K508" s="360">
+      <c r="K508" s="401">
         <f>(15*38)</f>
         <v>570</v>
       </c>
       <c r="L508" s="228"/>
       <c r="M508" s="58"/>
       <c r="N508" s="229"/>
-      <c r="O508" s="21"/>
-      <c r="P508" s="21"/>
-      <c r="Q508" s="187"/>
+      <c r="O508" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P508" s="21">
+        <v>15</v>
+      </c>
+      <c r="Q508" s="187">
+        <v>570</v>
+      </c>
       <c r="R508" s="22"/>
       <c r="S508" s="22"/>
       <c r="T508" s="23"/>
@@ -36664,12 +36787,12 @@
       <c r="W508" s="315"/>
       <c r="X508" s="123">
         <f t="shared" si="29"/>
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="Y508" s="52"/>
       <c r="Z508" s="3"/>
     </row>
-    <row r="509" spans="1:26">
+    <row r="509" spans="1:26" hidden="1">
       <c r="A509" s="398" t="s">
         <v>1385</v>
       </c>
@@ -36729,47 +36852,53 @@
       <c r="Y509" s="52"/>
       <c r="Z509" s="3"/>
     </row>
-    <row r="510" spans="1:26" hidden="1">
-      <c r="A510" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B510" s="352" t="s">
+    <row r="510" spans="1:26">
+      <c r="A510" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B510" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="C510" s="352">
+      <c r="C510" s="399">
         <v>45</v>
       </c>
-      <c r="D510" s="352" t="s">
+      <c r="D510" s="399" t="s">
         <v>10</v>
       </c>
-      <c r="E510" s="361">
+      <c r="E510" s="399">
         <v>192</v>
       </c>
-      <c r="F510" s="352" t="s">
+      <c r="F510" s="399" t="s">
         <v>749</v>
       </c>
-      <c r="G510" s="352" t="s">
+      <c r="G510" s="399" t="s">
         <v>760</v>
       </c>
-      <c r="H510" s="361" t="s">
-        <v>15</v>
-      </c>
-      <c r="I510" s="361">
-        <v>15</v>
-      </c>
-      <c r="J510" s="353" t="s">
+      <c r="H510" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="I510" s="399">
+        <v>15</v>
+      </c>
+      <c r="J510" s="400" t="s">
         <v>37</v>
       </c>
-      <c r="K510" s="360">
+      <c r="K510" s="401">
         <f>(13*38)+(2*29.4)</f>
         <v>552.79999999999995</v>
       </c>
       <c r="L510" s="58"/>
       <c r="M510" s="58"/>
       <c r="N510" s="229"/>
-      <c r="O510" s="21"/>
-      <c r="P510" s="21"/>
-      <c r="Q510" s="187"/>
+      <c r="O510" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P510" s="21">
+        <v>15</v>
+      </c>
+      <c r="Q510" s="187">
+        <v>552.79999999999995</v>
+      </c>
       <c r="R510" s="295"/>
       <c r="S510" s="22"/>
       <c r="T510" s="23"/>
@@ -36778,52 +36907,58 @@
       <c r="W510" s="315"/>
       <c r="X510" s="123">
         <f t="shared" si="29"/>
-        <v>552.79999999999995</v>
+        <v>0</v>
       </c>
       <c r="Y510" s="52"/>
       <c r="Z510" s="3"/>
     </row>
-    <row r="511" spans="1:26" hidden="1">
-      <c r="A511" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B511" s="352" t="s">
+    <row r="511" spans="1:26">
+      <c r="A511" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B511" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="C511" s="352">
+      <c r="C511" s="399">
         <v>45</v>
       </c>
-      <c r="D511" s="352" t="s">
+      <c r="D511" s="399" t="s">
         <v>10</v>
       </c>
-      <c r="E511" s="361">
+      <c r="E511" s="399">
         <v>193</v>
       </c>
-      <c r="F511" s="352" t="s">
+      <c r="F511" s="399" t="s">
         <v>994</v>
       </c>
-      <c r="G511" s="352" t="s">
+      <c r="G511" s="399" t="s">
         <v>760</v>
       </c>
-      <c r="H511" s="361" t="s">
-        <v>15</v>
-      </c>
-      <c r="I511" s="361">
-        <v>15</v>
-      </c>
-      <c r="J511" s="353" t="s">
+      <c r="H511" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="I511" s="399">
+        <v>15</v>
+      </c>
+      <c r="J511" s="400" t="s">
         <v>37</v>
       </c>
-      <c r="K511" s="360">
+      <c r="K511" s="401">
         <f>(13*38)+(2*29.4)</f>
         <v>552.79999999999995</v>
       </c>
       <c r="L511" s="58"/>
       <c r="M511" s="58"/>
       <c r="N511" s="229"/>
-      <c r="O511" s="21"/>
-      <c r="P511" s="21"/>
-      <c r="Q511" s="187"/>
+      <c r="O511" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P511" s="21">
+        <v>15</v>
+      </c>
+      <c r="Q511" s="187">
+        <v>552.79999999999995</v>
+      </c>
       <c r="R511" s="295"/>
       <c r="S511" s="22"/>
       <c r="T511" s="23"/>
@@ -36832,7 +36967,7 @@
       <c r="W511" s="315"/>
       <c r="X511" s="123">
         <f t="shared" si="29"/>
-        <v>552.79999999999995</v>
+        <v>0</v>
       </c>
       <c r="Y511" s="52"/>
       <c r="Z511" s="3"/>
@@ -36891,47 +37026,53 @@
       <c r="Y512" s="52"/>
       <c r="Z512" s="3"/>
     </row>
-    <row r="513" spans="1:26" hidden="1">
-      <c r="A513" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B513" s="352" t="s">
+    <row r="513" spans="1:26">
+      <c r="A513" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B513" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="C513" s="352">
+      <c r="C513" s="399">
         <v>45</v>
       </c>
-      <c r="D513" s="352" t="s">
+      <c r="D513" s="399" t="s">
         <v>10</v>
       </c>
-      <c r="E513" s="361">
+      <c r="E513" s="399">
         <v>255</v>
       </c>
-      <c r="F513" s="352" t="s">
+      <c r="F513" s="399" t="s">
         <v>1138</v>
       </c>
-      <c r="G513" s="352" t="s">
+      <c r="G513" s="399" t="s">
         <v>39</v>
       </c>
-      <c r="H513" s="361" t="s">
-        <v>15</v>
-      </c>
-      <c r="I513" s="361">
-        <v>15</v>
-      </c>
-      <c r="J513" s="353" t="s">
+      <c r="H513" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="I513" s="399">
+        <v>15</v>
+      </c>
+      <c r="J513" s="400" t="s">
         <v>14</v>
       </c>
-      <c r="K513" s="360">
+      <c r="K513" s="401">
         <f>(14*38)+(1*29.4)</f>
         <v>561.4</v>
       </c>
       <c r="L513" s="58"/>
       <c r="M513" s="58"/>
       <c r="N513" s="229"/>
-      <c r="O513" s="186"/>
-      <c r="P513" s="21"/>
-      <c r="Q513" s="187"/>
+      <c r="O513" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P513" s="21">
+        <v>15</v>
+      </c>
+      <c r="Q513" s="187">
+        <v>561.4</v>
+      </c>
       <c r="R513" s="22"/>
       <c r="S513" s="22"/>
       <c r="T513" s="23"/>
@@ -36940,7 +37081,7 @@
       <c r="W513" s="315"/>
       <c r="X513" s="123">
         <f t="shared" ref="X513:X576" si="31">SUM(K513-N513-Q513-T513-W513)</f>
-        <v>561.4</v>
+        <v>0</v>
       </c>
       <c r="Y513" s="52"/>
       <c r="Z513" s="3"/>
@@ -36999,7 +37140,7 @@
       <c r="Y514" s="52"/>
       <c r="Z514" s="3"/>
     </row>
-    <row r="515" spans="1:26">
+    <row r="515" spans="1:26" hidden="1">
       <c r="A515" s="398" t="s">
         <v>1385</v>
       </c>
@@ -37059,47 +37200,53 @@
       <c r="Y515" s="52"/>
       <c r="Z515" s="3"/>
     </row>
-    <row r="516" spans="1:26" hidden="1">
-      <c r="A516" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B516" s="352" t="s">
+    <row r="516" spans="1:26">
+      <c r="A516" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B516" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="C516" s="352">
+      <c r="C516" s="399">
         <v>45</v>
       </c>
-      <c r="D516" s="352" t="s">
+      <c r="D516" s="399" t="s">
         <v>10</v>
       </c>
-      <c r="E516" s="361">
+      <c r="E516" s="399">
         <v>501</v>
       </c>
-      <c r="F516" s="352" t="s">
+      <c r="F516" s="399" t="s">
         <v>612</v>
       </c>
-      <c r="G516" s="352" t="s">
+      <c r="G516" s="399" t="s">
         <v>297</v>
       </c>
-      <c r="H516" s="361" t="s">
+      <c r="H516" s="399" t="s">
         <v>5</v>
       </c>
-      <c r="I516" s="361">
+      <c r="I516" s="399">
         <v>10</v>
       </c>
-      <c r="J516" s="353" t="s">
+      <c r="J516" s="400" t="s">
         <v>26</v>
       </c>
-      <c r="K516" s="360">
+      <c r="K516" s="401">
         <f>(9*38)+(1*29.4)</f>
         <v>371.4</v>
       </c>
       <c r="L516" s="58"/>
       <c r="M516" s="58"/>
       <c r="N516" s="229"/>
-      <c r="O516" s="186"/>
-      <c r="P516" s="21"/>
-      <c r="Q516" s="187"/>
+      <c r="O516" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P516" s="21">
+        <v>10</v>
+      </c>
+      <c r="Q516" s="187">
+        <v>371.4</v>
+      </c>
       <c r="R516" s="22"/>
       <c r="S516" s="22"/>
       <c r="T516" s="23"/>
@@ -37108,52 +37255,58 @@
       <c r="W516" s="315"/>
       <c r="X516" s="123">
         <f t="shared" si="31"/>
-        <v>371.4</v>
+        <v>0</v>
       </c>
       <c r="Y516" s="52"/>
       <c r="Z516" s="3"/>
     </row>
-    <row r="517" spans="1:26" hidden="1">
-      <c r="A517" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B517" s="352" t="s">
+    <row r="517" spans="1:26">
+      <c r="A517" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B517" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="C517" s="352">
+      <c r="C517" s="399">
         <v>45</v>
       </c>
-      <c r="D517" s="352" t="s">
+      <c r="D517" s="399" t="s">
         <v>10</v>
       </c>
-      <c r="E517" s="361">
+      <c r="E517" s="399">
         <v>502</v>
       </c>
-      <c r="F517" s="352" t="s">
+      <c r="F517" s="399" t="s">
         <v>595</v>
       </c>
-      <c r="G517" s="352" t="s">
+      <c r="G517" s="399" t="s">
         <v>297</v>
       </c>
-      <c r="H517" s="361" t="s">
+      <c r="H517" s="399" t="s">
         <v>5</v>
       </c>
-      <c r="I517" s="361">
+      <c r="I517" s="399">
         <v>25</v>
       </c>
-      <c r="J517" s="353" t="s">
+      <c r="J517" s="400" t="s">
         <v>281</v>
       </c>
-      <c r="K517" s="360">
+      <c r="K517" s="401">
         <f>(24*38)+(1*29.4)</f>
         <v>941.4</v>
       </c>
       <c r="L517" s="228"/>
       <c r="M517" s="58"/>
       <c r="N517" s="229"/>
-      <c r="O517" s="21"/>
-      <c r="P517" s="21"/>
-      <c r="Q517" s="187"/>
+      <c r="O517" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P517" s="21">
+        <v>25</v>
+      </c>
+      <c r="Q517" s="187">
+        <v>941.4</v>
+      </c>
       <c r="R517" s="22"/>
       <c r="S517" s="22"/>
       <c r="T517" s="23"/>
@@ -37162,7 +37315,7 @@
       <c r="W517" s="315"/>
       <c r="X517" s="123">
         <f t="shared" si="31"/>
-        <v>941.4</v>
+        <v>0</v>
       </c>
       <c r="Y517" s="52"/>
       <c r="Z517" s="3"/>
@@ -37275,47 +37428,53 @@
       <c r="Y519" s="52"/>
       <c r="Z519" s="3"/>
     </row>
-    <row r="520" spans="1:26" hidden="1">
-      <c r="A520" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B520" s="352" t="s">
+    <row r="520" spans="1:26">
+      <c r="A520" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B520" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="C520" s="352">
+      <c r="C520" s="399">
         <v>45</v>
       </c>
-      <c r="D520" s="352" t="s">
+      <c r="D520" s="399" t="s">
         <v>10</v>
       </c>
-      <c r="E520" s="361">
+      <c r="E520" s="399">
         <v>513</v>
       </c>
-      <c r="F520" s="352" t="s">
+      <c r="F520" s="399" t="s">
         <v>528</v>
       </c>
-      <c r="G520" s="352" t="s">
+      <c r="G520" s="399" t="s">
         <v>297</v>
       </c>
-      <c r="H520" s="361" t="s">
-        <v>15</v>
-      </c>
-      <c r="I520" s="361">
-        <v>15</v>
-      </c>
-      <c r="J520" s="353" t="s">
+      <c r="H520" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="I520" s="399">
+        <v>15</v>
+      </c>
+      <c r="J520" s="400" t="s">
         <v>37</v>
       </c>
-      <c r="K520" s="360">
+      <c r="K520" s="401">
         <f>(13*38)+(2*29.4)</f>
         <v>552.79999999999995</v>
       </c>
       <c r="L520" s="58"/>
       <c r="M520" s="58"/>
       <c r="N520" s="229"/>
-      <c r="O520" s="186"/>
-      <c r="P520" s="21"/>
-      <c r="Q520" s="187"/>
+      <c r="O520" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P520" s="21">
+        <v>15</v>
+      </c>
+      <c r="Q520" s="187">
+        <v>552.79999999999995</v>
+      </c>
       <c r="R520" s="22"/>
       <c r="S520" s="22"/>
       <c r="T520" s="23"/>
@@ -37324,12 +37483,12 @@
       <c r="W520" s="315"/>
       <c r="X520" s="123">
         <f t="shared" si="31"/>
-        <v>552.79999999999995</v>
+        <v>0</v>
       </c>
       <c r="Y520" s="52"/>
       <c r="Z520" s="3"/>
     </row>
-    <row r="521" spans="1:26">
+    <row r="521" spans="1:26" hidden="1">
       <c r="A521" s="398" t="s">
         <v>1385</v>
       </c>
@@ -37427,8 +37586,8 @@
       <c r="L522" s="228"/>
       <c r="M522" s="58"/>
       <c r="N522" s="229"/>
-      <c r="O522" s="21"/>
-      <c r="P522" s="21"/>
+      <c r="O522" s="186"/>
+      <c r="P522" s="186"/>
       <c r="Q522" s="187"/>
       <c r="R522" s="22"/>
       <c r="S522" s="22"/>
@@ -37443,47 +37602,53 @@
       <c r="Y522" s="52"/>
       <c r="Z522" s="3"/>
     </row>
-    <row r="523" spans="1:26" hidden="1">
-      <c r="A523" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B523" s="352" t="s">
+    <row r="523" spans="1:26">
+      <c r="A523" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B523" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="C523" s="352">
+      <c r="C523" s="399">
         <v>45</v>
       </c>
-      <c r="D523" s="352" t="s">
+      <c r="D523" s="399" t="s">
         <v>16</v>
       </c>
-      <c r="E523" s="361">
+      <c r="E523" s="399">
         <v>25</v>
       </c>
-      <c r="F523" s="352" t="s">
+      <c r="F523" s="399" t="s">
         <v>705</v>
       </c>
-      <c r="G523" s="352" t="s">
+      <c r="G523" s="399" t="s">
         <v>623</v>
       </c>
-      <c r="H523" s="361" t="s">
+      <c r="H523" s="399" t="s">
         <v>5</v>
       </c>
-      <c r="I523" s="361">
+      <c r="I523" s="399">
         <v>20</v>
       </c>
-      <c r="J523" s="353" t="s">
+      <c r="J523" s="400" t="s">
         <v>30</v>
       </c>
-      <c r="K523" s="360">
+      <c r="K523" s="401">
         <f>(19*38)+(1*29.4)</f>
         <v>751.4</v>
       </c>
       <c r="L523" s="228"/>
       <c r="M523" s="58"/>
       <c r="N523" s="229"/>
-      <c r="O523" s="21"/>
-      <c r="P523" s="21"/>
-      <c r="Q523" s="187"/>
+      <c r="O523" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P523" s="21">
+        <v>20</v>
+      </c>
+      <c r="Q523" s="187">
+        <v>751.4</v>
+      </c>
       <c r="R523" s="22"/>
       <c r="S523" s="22"/>
       <c r="T523" s="23"/>
@@ -37492,12 +37657,12 @@
       <c r="W523" s="315"/>
       <c r="X523" s="123">
         <f t="shared" si="31"/>
-        <v>751.4</v>
+        <v>0</v>
       </c>
       <c r="Y523" s="52"/>
       <c r="Z523" s="3"/>
     </row>
-    <row r="524" spans="1:26">
+    <row r="524" spans="1:26" hidden="1">
       <c r="A524" s="398" t="s">
         <v>1385</v>
       </c>
@@ -37557,7 +37722,7 @@
       <c r="Y524" s="52"/>
       <c r="Z524" s="3"/>
     </row>
-    <row r="525" spans="1:26">
+    <row r="525" spans="1:26" hidden="1">
       <c r="A525" s="398" t="s">
         <v>1385</v>
       </c>
@@ -37671,47 +37836,53 @@
       <c r="Y526" s="52"/>
       <c r="Z526" s="3"/>
     </row>
-    <row r="527" spans="1:26" hidden="1">
-      <c r="A527" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B527" s="352" t="s">
+    <row r="527" spans="1:26">
+      <c r="A527" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B527" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="C527" s="352">
+      <c r="C527" s="399">
         <v>45</v>
       </c>
-      <c r="D527" s="352" t="s">
+      <c r="D527" s="399" t="s">
         <v>16</v>
       </c>
-      <c r="E527" s="361">
+      <c r="E527" s="399">
         <v>63</v>
       </c>
-      <c r="F527" s="352" t="s">
+      <c r="F527" s="399" t="s">
         <v>750</v>
       </c>
-      <c r="G527" s="352" t="s">
+      <c r="G527" s="399" t="s">
         <v>760</v>
       </c>
-      <c r="H527" s="361" t="s">
-        <v>15</v>
-      </c>
-      <c r="I527" s="361">
-        <v>15</v>
-      </c>
-      <c r="J527" s="353" t="s">
+      <c r="H527" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="I527" s="399">
+        <v>15</v>
+      </c>
+      <c r="J527" s="400" t="s">
         <v>37</v>
       </c>
-      <c r="K527" s="360">
+      <c r="K527" s="401">
         <f t="shared" ref="K527:K528" si="32">(13*38)+(2*29.4)</f>
         <v>552.79999999999995</v>
       </c>
       <c r="L527" s="58"/>
       <c r="M527" s="58"/>
       <c r="N527" s="229"/>
-      <c r="O527" s="186"/>
-      <c r="P527" s="21"/>
-      <c r="Q527" s="187"/>
+      <c r="O527" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P527" s="21">
+        <v>15</v>
+      </c>
+      <c r="Q527" s="187">
+        <v>552.79999999999995</v>
+      </c>
       <c r="R527" s="22"/>
       <c r="S527" s="22"/>
       <c r="T527" s="23"/>
@@ -37720,12 +37891,12 @@
       <c r="W527" s="315"/>
       <c r="X527" s="123">
         <f t="shared" si="31"/>
-        <v>552.79999999999995</v>
+        <v>0</v>
       </c>
       <c r="Y527" s="52"/>
       <c r="Z527" s="3"/>
     </row>
-    <row r="528" spans="1:26">
+    <row r="528" spans="1:26" hidden="1">
       <c r="A528" s="398" t="s">
         <v>1385</v>
       </c>
@@ -37785,7 +37956,7 @@
       <c r="Y528" s="52"/>
       <c r="Z528" s="3"/>
     </row>
-    <row r="529" spans="1:26">
+    <row r="529" spans="1:26" hidden="1">
       <c r="A529" s="398" t="s">
         <v>1385</v>
       </c>
@@ -37845,47 +38016,53 @@
       <c r="Y529" s="52"/>
       <c r="Z529" s="3"/>
     </row>
-    <row r="530" spans="1:26" hidden="1">
-      <c r="A530" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B530" s="352" t="s">
+    <row r="530" spans="1:26">
+      <c r="A530" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B530" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="C530" s="352">
+      <c r="C530" s="399">
         <v>45</v>
       </c>
-      <c r="D530" s="352" t="s">
+      <c r="D530" s="399" t="s">
         <v>16</v>
       </c>
-      <c r="E530" s="361">
+      <c r="E530" s="399">
         <v>69</v>
       </c>
-      <c r="F530" s="352" t="s">
+      <c r="F530" s="399" t="s">
         <v>759</v>
       </c>
-      <c r="G530" s="352" t="s">
+      <c r="G530" s="399" t="s">
         <v>760</v>
       </c>
-      <c r="H530" s="361" t="s">
+      <c r="H530" s="399" t="s">
         <v>182</v>
       </c>
-      <c r="I530" s="361">
-        <v>15</v>
-      </c>
-      <c r="J530" s="353" t="s">
+      <c r="I530" s="399">
+        <v>15</v>
+      </c>
+      <c r="J530" s="400" t="s">
         <v>37</v>
       </c>
-      <c r="K530" s="360">
+      <c r="K530" s="401">
         <f>(13*38)+(2*29.4)</f>
         <v>552.79999999999995</v>
       </c>
       <c r="L530" s="58"/>
       <c r="M530" s="58"/>
       <c r="N530" s="229"/>
-      <c r="O530" s="186"/>
-      <c r="P530" s="21"/>
-      <c r="Q530" s="187"/>
+      <c r="O530" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P530" s="21">
+        <v>15</v>
+      </c>
+      <c r="Q530" s="187">
+        <v>552.79999999999995</v>
+      </c>
       <c r="R530" s="22"/>
       <c r="S530" s="22"/>
       <c r="T530" s="23"/>
@@ -37894,7 +38071,7 @@
       <c r="W530" s="315"/>
       <c r="X530" s="123">
         <f t="shared" si="31"/>
-        <v>552.79999999999995</v>
+        <v>0</v>
       </c>
       <c r="Y530" s="52"/>
       <c r="Z530" s="3"/>
@@ -38007,47 +38184,53 @@
       <c r="Y532" s="52"/>
       <c r="Z532" s="3"/>
     </row>
-    <row r="533" spans="1:26" hidden="1">
-      <c r="A533" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B533" s="352" t="s">
+    <row r="533" spans="1:26">
+      <c r="A533" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B533" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="C533" s="352">
+      <c r="C533" s="399">
         <v>45</v>
       </c>
-      <c r="D533" s="352" t="s">
+      <c r="D533" s="399" t="s">
         <v>16</v>
       </c>
-      <c r="E533" s="361">
+      <c r="E533" s="399">
         <v>74</v>
       </c>
-      <c r="F533" s="352" t="s">
+      <c r="F533" s="399" t="s">
         <v>637</v>
       </c>
-      <c r="G533" s="352" t="s">
+      <c r="G533" s="399" t="s">
         <v>113</v>
       </c>
-      <c r="H533" s="361" t="s">
-        <v>15</v>
-      </c>
-      <c r="I533" s="361">
-        <v>15</v>
-      </c>
-      <c r="J533" s="353" t="s">
+      <c r="H533" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="I533" s="399">
+        <v>15</v>
+      </c>
+      <c r="J533" s="400" t="s">
         <v>13</v>
       </c>
-      <c r="K533" s="360">
+      <c r="K533" s="401">
         <f>(14*35)+(1*26.4)</f>
         <v>516.4</v>
       </c>
       <c r="L533" s="58"/>
       <c r="M533" s="58"/>
       <c r="N533" s="229"/>
-      <c r="O533" s="186"/>
-      <c r="P533" s="21"/>
-      <c r="Q533" s="187"/>
+      <c r="O533" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P533" s="21">
+        <v>15</v>
+      </c>
+      <c r="Q533" s="187">
+        <v>516.4</v>
+      </c>
       <c r="R533" s="22"/>
       <c r="S533" s="22"/>
       <c r="T533" s="23"/>
@@ -38056,7 +38239,7 @@
       <c r="W533" s="315"/>
       <c r="X533" s="123">
         <f t="shared" si="31"/>
-        <v>516.4</v>
+        <v>0</v>
       </c>
       <c r="Y533" s="52"/>
       <c r="Z533" s="3"/>
@@ -38115,7 +38298,7 @@
       <c r="Y534" s="52"/>
       <c r="Z534" s="3"/>
     </row>
-    <row r="535" spans="1:26">
+    <row r="535" spans="1:26" hidden="1">
       <c r="A535" s="398" t="s">
         <v>1385</v>
       </c>
@@ -38175,7 +38358,7 @@
       <c r="Y535" s="52"/>
       <c r="Z535" s="3"/>
     </row>
-    <row r="536" spans="1:26">
+    <row r="536" spans="1:26" hidden="1">
       <c r="A536" s="398" t="s">
         <v>1385</v>
       </c>
@@ -38289,7 +38472,7 @@
       <c r="Y537" s="52"/>
       <c r="Z537" s="3"/>
     </row>
-    <row r="538" spans="1:26">
+    <row r="538" spans="1:26" hidden="1">
       <c r="A538" s="398" t="s">
         <v>1385</v>
       </c>
@@ -38349,7 +38532,7 @@
       <c r="Y538" s="52"/>
       <c r="Z538" s="3"/>
     </row>
-    <row r="539" spans="1:26" ht="15.75" thickBot="1">
+    <row r="539" spans="1:26" ht="15.75" hidden="1" thickBot="1">
       <c r="A539" s="398" t="s">
         <v>1385</v>
       </c>
@@ -38463,47 +38646,53 @@
       <c r="Y540" s="52"/>
       <c r="Z540" s="3"/>
     </row>
-    <row r="541" spans="1:26" hidden="1">
-      <c r="A541" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B541" s="352" t="s">
+    <row r="541" spans="1:26">
+      <c r="A541" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B541" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="C541" s="352">
+      <c r="C541" s="399">
         <v>45</v>
       </c>
-      <c r="D541" s="352" t="s">
+      <c r="D541" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="E541" s="361">
+      <c r="E541" s="399">
         <v>40</v>
       </c>
-      <c r="F541" s="352" t="s">
+      <c r="F541" s="399" t="s">
         <v>818</v>
       </c>
-      <c r="G541" s="352" t="s">
+      <c r="G541" s="399" t="s">
         <v>23</v>
       </c>
-      <c r="H541" s="361" t="s">
+      <c r="H541" s="399" t="s">
         <v>5</v>
       </c>
-      <c r="I541" s="361">
+      <c r="I541" s="399">
         <v>20</v>
       </c>
-      <c r="J541" s="353" t="s">
+      <c r="J541" s="400" t="s">
         <v>30</v>
       </c>
-      <c r="K541" s="360">
+      <c r="K541" s="401">
         <f>(19*38)+(1*29.4)</f>
         <v>751.4</v>
       </c>
       <c r="L541" s="228"/>
       <c r="M541" s="58"/>
       <c r="N541" s="229"/>
-      <c r="O541" s="21"/>
-      <c r="P541" s="21"/>
-      <c r="Q541" s="187"/>
+      <c r="O541" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P541" s="21">
+        <v>20</v>
+      </c>
+      <c r="Q541" s="187">
+        <v>751.4</v>
+      </c>
       <c r="R541" s="22"/>
       <c r="S541" s="22"/>
       <c r="T541" s="23"/>
@@ -38512,7 +38701,7 @@
       <c r="W541" s="315"/>
       <c r="X541" s="123">
         <f t="shared" si="31"/>
-        <v>751.4</v>
+        <v>0</v>
       </c>
       <c r="Y541" s="52"/>
       <c r="Z541" s="3"/>
@@ -38571,47 +38760,53 @@
       <c r="Y542" s="52"/>
       <c r="Z542" s="3"/>
     </row>
-    <row r="543" spans="1:26" hidden="1">
-      <c r="A543" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B543" s="352" t="s">
+    <row r="543" spans="1:26">
+      <c r="A543" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B543" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="C543" s="352">
+      <c r="C543" s="399">
         <v>45</v>
       </c>
-      <c r="D543" s="352" t="s">
+      <c r="D543" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="E543" s="361">
+      <c r="E543" s="399">
         <v>88</v>
       </c>
-      <c r="F543" s="352" t="s">
+      <c r="F543" s="399" t="s">
         <v>426</v>
       </c>
-      <c r="G543" s="352" t="s">
+      <c r="G543" s="399" t="s">
         <v>602</v>
       </c>
-      <c r="H543" s="361" t="s">
-        <v>15</v>
-      </c>
-      <c r="I543" s="361">
+      <c r="H543" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="I543" s="399">
         <v>25</v>
       </c>
-      <c r="J543" s="353" t="s">
+      <c r="J543" s="400" t="s">
         <v>281</v>
       </c>
-      <c r="K543" s="360">
+      <c r="K543" s="401">
         <f>(24*38)+(1*29.4)</f>
         <v>941.4</v>
       </c>
       <c r="L543" s="58"/>
       <c r="M543" s="58"/>
       <c r="N543" s="229"/>
-      <c r="O543" s="186"/>
-      <c r="P543" s="21"/>
-      <c r="Q543" s="187"/>
+      <c r="O543" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P543" s="21">
+        <v>25</v>
+      </c>
+      <c r="Q543" s="187">
+        <v>941.4</v>
+      </c>
       <c r="R543" s="22"/>
       <c r="S543" s="22"/>
       <c r="T543" s="23"/>
@@ -38620,52 +38815,58 @@
       <c r="W543" s="315"/>
       <c r="X543" s="123">
         <f t="shared" si="31"/>
-        <v>941.4</v>
+        <v>0</v>
       </c>
       <c r="Y543" s="52"/>
       <c r="Z543" s="3"/>
     </row>
-    <row r="544" spans="1:26" hidden="1">
-      <c r="A544" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B544" s="352" t="s">
+    <row r="544" spans="1:26">
+      <c r="A544" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B544" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="C544" s="352">
+      <c r="C544" s="399">
         <v>45</v>
       </c>
-      <c r="D544" s="352" t="s">
+      <c r="D544" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="E544" s="361">
+      <c r="E544" s="399">
         <v>90</v>
       </c>
-      <c r="F544" s="352" t="s">
+      <c r="F544" s="399" t="s">
         <v>123</v>
       </c>
-      <c r="G544" s="352" t="s">
+      <c r="G544" s="399" t="s">
         <v>602</v>
       </c>
-      <c r="H544" s="361" t="s">
-        <v>15</v>
-      </c>
-      <c r="I544" s="361">
+      <c r="H544" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="I544" s="399">
         <v>10</v>
       </c>
-      <c r="J544" s="353" t="s">
+      <c r="J544" s="400" t="s">
         <v>26</v>
       </c>
-      <c r="K544" s="360">
+      <c r="K544" s="401">
         <f>(9*38)+(1*29.4)</f>
         <v>371.4</v>
       </c>
       <c r="L544" s="228"/>
       <c r="M544" s="58"/>
       <c r="N544" s="229"/>
-      <c r="O544" s="21"/>
-      <c r="P544" s="21"/>
-      <c r="Q544" s="187"/>
+      <c r="O544" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P544" s="21">
+        <v>10</v>
+      </c>
+      <c r="Q544" s="187">
+        <v>371.4</v>
+      </c>
       <c r="R544" s="22"/>
       <c r="S544" s="22"/>
       <c r="T544" s="23"/>
@@ -38674,12 +38875,12 @@
       <c r="W544" s="315"/>
       <c r="X544" s="123">
         <f t="shared" si="31"/>
-        <v>371.4</v>
+        <v>0</v>
       </c>
       <c r="Y544" s="52"/>
       <c r="Z544" s="3"/>
     </row>
-    <row r="545" spans="1:26">
+    <row r="545" spans="1:26" hidden="1">
       <c r="A545" s="398" t="s">
         <v>1385</v>
       </c>
@@ -38739,47 +38940,53 @@
       <c r="Y545" s="52"/>
       <c r="Z545" s="3"/>
     </row>
-    <row r="546" spans="1:26" hidden="1">
-      <c r="A546" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B546" s="352" t="s">
+    <row r="546" spans="1:26">
+      <c r="A546" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B546" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="C546" s="352">
+      <c r="C546" s="399">
         <v>45</v>
       </c>
-      <c r="D546" s="352" t="s">
+      <c r="D546" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="E546" s="361">
+      <c r="E546" s="399">
         <v>139</v>
       </c>
-      <c r="F546" s="352" t="s">
+      <c r="F546" s="399" t="s">
         <v>1144</v>
       </c>
-      <c r="G546" s="352" t="s">
+      <c r="G546" s="399" t="s">
         <v>292</v>
       </c>
-      <c r="H546" s="361" t="s">
-        <v>15</v>
-      </c>
-      <c r="I546" s="361">
+      <c r="H546" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="I546" s="399">
         <v>20</v>
       </c>
-      <c r="J546" s="353" t="s">
+      <c r="J546" s="400" t="s">
         <v>30</v>
       </c>
-      <c r="K546" s="360">
+      <c r="K546" s="401">
         <f>(19*38)+(1*29.4)</f>
         <v>751.4</v>
       </c>
       <c r="L546" s="58"/>
       <c r="M546" s="58"/>
       <c r="N546" s="229"/>
-      <c r="O546" s="186"/>
-      <c r="P546" s="21"/>
-      <c r="Q546" s="187"/>
+      <c r="O546" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P546" s="21">
+        <v>20</v>
+      </c>
+      <c r="Q546" s="187">
+        <v>751.4</v>
+      </c>
       <c r="R546" s="22"/>
       <c r="S546" s="22"/>
       <c r="T546" s="23"/>
@@ -38788,52 +38995,58 @@
       <c r="W546" s="315"/>
       <c r="X546" s="123">
         <f t="shared" si="31"/>
-        <v>751.4</v>
+        <v>0</v>
       </c>
       <c r="Y546" s="52"/>
       <c r="Z546" s="3"/>
     </row>
-    <row r="547" spans="1:26" hidden="1">
-      <c r="A547" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B547" s="352" t="s">
+    <row r="547" spans="1:26">
+      <c r="A547" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B547" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="C547" s="352">
+      <c r="C547" s="399">
         <v>45</v>
       </c>
-      <c r="D547" s="352" t="s">
+      <c r="D547" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="E547" s="361">
+      <c r="E547" s="399">
         <v>140</v>
       </c>
-      <c r="F547" s="352" t="s">
+      <c r="F547" s="399" t="s">
         <v>459</v>
       </c>
-      <c r="G547" s="352" t="s">
+      <c r="G547" s="399" t="s">
         <v>292</v>
       </c>
-      <c r="H547" s="361" t="s">
-        <v>15</v>
-      </c>
-      <c r="I547" s="361">
+      <c r="H547" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="I547" s="399">
         <v>20</v>
       </c>
-      <c r="J547" s="353" t="s">
+      <c r="J547" s="400" t="s">
         <v>30</v>
       </c>
-      <c r="K547" s="360">
+      <c r="K547" s="401">
         <f>(19*38)+(1*29.4)</f>
         <v>751.4</v>
       </c>
       <c r="L547" s="228"/>
       <c r="M547" s="58"/>
       <c r="N547" s="229"/>
-      <c r="O547" s="21"/>
-      <c r="P547" s="21"/>
-      <c r="Q547" s="187"/>
+      <c r="O547" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P547" s="21">
+        <v>20</v>
+      </c>
+      <c r="Q547" s="187">
+        <v>751.4</v>
+      </c>
       <c r="R547" s="22"/>
       <c r="S547" s="22"/>
       <c r="T547" s="23"/>
@@ -38842,7 +39055,7 @@
       <c r="W547" s="315"/>
       <c r="X547" s="123">
         <f t="shared" si="31"/>
-        <v>751.4</v>
+        <v>0</v>
       </c>
       <c r="Y547" s="52"/>
       <c r="Z547" s="3"/>
@@ -38901,47 +39114,53 @@
       <c r="Y548" s="52"/>
       <c r="Z548" s="3"/>
     </row>
-    <row r="549" spans="1:26" hidden="1">
-      <c r="A549" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B549" s="352" t="s">
+    <row r="549" spans="1:26">
+      <c r="A549" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B549" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="C549" s="352">
+      <c r="C549" s="399">
         <v>45</v>
       </c>
-      <c r="D549" s="352" t="s">
+      <c r="D549" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="E549" s="361">
+      <c r="E549" s="399">
         <v>163</v>
       </c>
-      <c r="F549" s="352" t="s">
+      <c r="F549" s="399" t="s">
         <v>604</v>
       </c>
-      <c r="G549" s="352" t="s">
+      <c r="G549" s="399" t="s">
         <v>315</v>
       </c>
-      <c r="H549" s="361" t="s">
-        <v>15</v>
-      </c>
-      <c r="I549" s="361">
+      <c r="H549" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="I549" s="399">
         <v>20</v>
       </c>
-      <c r="J549" s="353" t="s">
+      <c r="J549" s="400" t="s">
         <v>17</v>
       </c>
-      <c r="K549" s="360">
+      <c r="K549" s="401">
         <f>(19*35)+(1*26.4)</f>
         <v>691.4</v>
       </c>
       <c r="L549" s="228"/>
       <c r="M549" s="58"/>
       <c r="N549" s="229"/>
-      <c r="O549" s="21"/>
-      <c r="P549" s="21"/>
-      <c r="Q549" s="187"/>
+      <c r="O549" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P549" s="21">
+        <v>20</v>
+      </c>
+      <c r="Q549" s="187">
+        <v>691.4</v>
+      </c>
       <c r="R549" s="22"/>
       <c r="S549" s="22"/>
       <c r="T549" s="23"/>
@@ -38950,52 +39169,58 @@
       <c r="W549" s="315"/>
       <c r="X549" s="123">
         <f t="shared" si="31"/>
-        <v>691.4</v>
+        <v>0</v>
       </c>
       <c r="Y549" s="52"/>
       <c r="Z549" s="3"/>
     </row>
-    <row r="550" spans="1:26" hidden="1">
-      <c r="A550" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B550" s="352" t="s">
+    <row r="550" spans="1:26">
+      <c r="A550" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B550" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="C550" s="352">
+      <c r="C550" s="399">
         <v>45</v>
       </c>
-      <c r="D550" s="352" t="s">
+      <c r="D550" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="E550" s="361">
+      <c r="E550" s="399">
         <v>205</v>
       </c>
-      <c r="F550" s="352" t="s">
+      <c r="F550" s="399" t="s">
         <v>385</v>
       </c>
-      <c r="G550" s="352" t="s">
+      <c r="G550" s="399" t="s">
         <v>1146</v>
       </c>
-      <c r="H550" s="361" t="s">
-        <v>15</v>
-      </c>
-      <c r="I550" s="361">
+      <c r="H550" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="I550" s="399">
         <v>30</v>
       </c>
-      <c r="J550" s="353" t="s">
+      <c r="J550" s="400" t="s">
         <v>819</v>
       </c>
-      <c r="K550" s="360">
+      <c r="K550" s="401">
         <f>(28*38)+(2*29.4)</f>
         <v>1122.8</v>
       </c>
       <c r="L550" s="228"/>
       <c r="M550" s="58"/>
       <c r="N550" s="229"/>
-      <c r="O550" s="21"/>
-      <c r="P550" s="21"/>
-      <c r="Q550" s="187"/>
+      <c r="O550" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P550" s="21">
+        <v>30</v>
+      </c>
+      <c r="Q550" s="187">
+        <v>1122.8</v>
+      </c>
       <c r="R550" s="22"/>
       <c r="S550" s="22"/>
       <c r="T550" s="23"/>
@@ -39004,12 +39229,12 @@
       <c r="W550" s="315"/>
       <c r="X550" s="123">
         <f t="shared" si="31"/>
-        <v>1122.8</v>
+        <v>0</v>
       </c>
       <c r="Y550" s="52"/>
       <c r="Z550" s="3"/>
     </row>
-    <row r="551" spans="1:26">
+    <row r="551" spans="1:26" hidden="1">
       <c r="A551" s="398" t="s">
         <v>1385</v>
       </c>
@@ -39069,47 +39294,53 @@
       <c r="Y551" s="52"/>
       <c r="Z551" s="3"/>
     </row>
-    <row r="552" spans="1:26" hidden="1">
-      <c r="A552" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B552" s="352" t="s">
+    <row r="552" spans="1:26">
+      <c r="A552" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B552" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="C552" s="352">
+      <c r="C552" s="399">
         <v>45</v>
       </c>
-      <c r="D552" s="352" t="s">
+      <c r="D552" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="E552" s="361">
+      <c r="E552" s="399">
         <v>222</v>
       </c>
-      <c r="F552" s="352" t="s">
+      <c r="F552" s="399" t="s">
         <v>641</v>
       </c>
-      <c r="G552" s="352" t="s">
+      <c r="G552" s="399" t="s">
         <v>1147</v>
       </c>
-      <c r="H552" s="361" t="s">
-        <v>15</v>
-      </c>
-      <c r="I552" s="361">
+      <c r="H552" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="I552" s="399">
         <v>20</v>
       </c>
-      <c r="J552" s="353" t="s">
+      <c r="J552" s="400" t="s">
         <v>30</v>
       </c>
-      <c r="K552" s="360">
+      <c r="K552" s="401">
         <f>(19*38)+(1*29.4)</f>
         <v>751.4</v>
       </c>
       <c r="L552" s="228"/>
       <c r="M552" s="58"/>
       <c r="N552" s="229"/>
-      <c r="O552" s="21"/>
-      <c r="P552" s="21"/>
-      <c r="Q552" s="187"/>
+      <c r="O552" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P552" s="21">
+        <v>20</v>
+      </c>
+      <c r="Q552" s="187">
+        <v>751.4</v>
+      </c>
       <c r="R552" s="22"/>
       <c r="S552" s="22"/>
       <c r="T552" s="23"/>
@@ -39118,52 +39349,58 @@
       <c r="W552" s="315"/>
       <c r="X552" s="123">
         <f t="shared" si="31"/>
-        <v>751.4</v>
+        <v>0</v>
       </c>
       <c r="Y552" s="52"/>
       <c r="Z552" s="3"/>
     </row>
-    <row r="553" spans="1:26" hidden="1">
-      <c r="A553" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B553" s="352" t="s">
+    <row r="553" spans="1:26">
+      <c r="A553" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B553" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="C553" s="352">
+      <c r="C553" s="399">
         <v>45</v>
       </c>
-      <c r="D553" s="352" t="s">
+      <c r="D553" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="E553" s="361">
+      <c r="E553" s="399">
         <v>223</v>
       </c>
-      <c r="F553" s="352" t="s">
+      <c r="F553" s="399" t="s">
         <v>337</v>
       </c>
-      <c r="G553" s="352" t="s">
+      <c r="G553" s="399" t="s">
         <v>1147</v>
       </c>
-      <c r="H553" s="361" t="s">
-        <v>15</v>
-      </c>
-      <c r="I553" s="361">
-        <v>15</v>
-      </c>
-      <c r="J553" s="353" t="s">
+      <c r="H553" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="I553" s="399">
+        <v>15</v>
+      </c>
+      <c r="J553" s="400" t="s">
         <v>14</v>
       </c>
-      <c r="K553" s="360">
+      <c r="K553" s="401">
         <f>(14*38)+(1*29.4)</f>
         <v>561.4</v>
       </c>
       <c r="L553" s="58"/>
       <c r="M553" s="58"/>
       <c r="N553" s="229"/>
-      <c r="O553" s="186"/>
-      <c r="P553" s="21"/>
-      <c r="Q553" s="187"/>
+      <c r="O553" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P553" s="21">
+        <v>15</v>
+      </c>
+      <c r="Q553" s="187">
+        <v>561.4</v>
+      </c>
       <c r="R553" s="22"/>
       <c r="S553" s="22"/>
       <c r="T553" s="23"/>
@@ -39172,7 +39409,7 @@
       <c r="W553" s="315"/>
       <c r="X553" s="123">
         <f t="shared" si="31"/>
-        <v>561.4</v>
+        <v>0</v>
       </c>
       <c r="Y553" s="52"/>
       <c r="Z553" s="3"/>
@@ -39231,7 +39468,7 @@
       <c r="Y554" s="52"/>
       <c r="Z554" s="3"/>
     </row>
-    <row r="555" spans="1:26">
+    <row r="555" spans="1:26" hidden="1">
       <c r="A555" s="398" t="s">
         <v>1385</v>
       </c>
@@ -39291,47 +39528,53 @@
       <c r="Y555" s="52"/>
       <c r="Z555" s="3"/>
     </row>
-    <row r="556" spans="1:26" hidden="1">
-      <c r="A556" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B556" s="352" t="s">
+    <row r="556" spans="1:26">
+      <c r="A556" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B556" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="C556" s="352">
+      <c r="C556" s="399">
         <v>45</v>
       </c>
-      <c r="D556" s="352" t="s">
+      <c r="D556" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="E556" s="361">
+      <c r="E556" s="399">
         <v>232</v>
       </c>
-      <c r="F556" s="352" t="s">
+      <c r="F556" s="399" t="s">
         <v>865</v>
       </c>
-      <c r="G556" s="352" t="s">
+      <c r="G556" s="399" t="s">
         <v>1147</v>
       </c>
-      <c r="H556" s="361" t="s">
-        <v>15</v>
-      </c>
-      <c r="I556" s="361">
+      <c r="H556" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="I556" s="399">
         <v>10</v>
       </c>
-      <c r="J556" s="353" t="s">
+      <c r="J556" s="400" t="s">
         <v>629</v>
       </c>
-      <c r="K556" s="360">
+      <c r="K556" s="401">
         <f>(8*38)+(2*29.4)</f>
         <v>362.8</v>
       </c>
       <c r="L556" s="228"/>
       <c r="M556" s="58"/>
       <c r="N556" s="229"/>
-      <c r="O556" s="21"/>
-      <c r="P556" s="21"/>
-      <c r="Q556" s="187"/>
+      <c r="O556" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P556" s="21">
+        <v>10</v>
+      </c>
+      <c r="Q556" s="187">
+        <v>362.8</v>
+      </c>
       <c r="R556" s="22"/>
       <c r="S556" s="22"/>
       <c r="T556" s="23"/>
@@ -39340,7 +39583,7 @@
       <c r="W556" s="315"/>
       <c r="X556" s="123">
         <f t="shared" si="31"/>
-        <v>362.8</v>
+        <v>0</v>
       </c>
       <c r="Y556" s="52"/>
       <c r="Z556" s="3"/>
@@ -39453,7 +39696,7 @@
       <c r="Y558" s="52"/>
       <c r="Z558" s="3"/>
     </row>
-    <row r="559" spans="1:26">
+    <row r="559" spans="1:26" hidden="1">
       <c r="A559" s="398" t="s">
         <v>1385</v>
       </c>
@@ -39513,47 +39756,53 @@
       <c r="Y559" s="52"/>
       <c r="Z559" s="3"/>
     </row>
-    <row r="560" spans="1:26" hidden="1">
-      <c r="A560" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B560" s="352" t="s">
+    <row r="560" spans="1:26">
+      <c r="A560" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B560" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="C560" s="352">
+      <c r="C560" s="399">
         <v>45</v>
       </c>
-      <c r="D560" s="352" t="s">
+      <c r="D560" s="399" t="s">
         <v>10</v>
       </c>
-      <c r="E560" s="361">
+      <c r="E560" s="399">
         <v>36</v>
       </c>
-      <c r="F560" s="352" t="s">
+      <c r="F560" s="399" t="s">
         <v>545</v>
       </c>
-      <c r="G560" s="352" t="s">
+      <c r="G560" s="399" t="s">
         <v>485</v>
       </c>
-      <c r="H560" s="361" t="s">
+      <c r="H560" s="399" t="s">
         <v>5</v>
       </c>
-      <c r="I560" s="361">
+      <c r="I560" s="399">
         <v>20</v>
       </c>
-      <c r="J560" s="353" t="s">
+      <c r="J560" s="400" t="s">
         <v>650</v>
       </c>
-      <c r="K560" s="360">
+      <c r="K560" s="401">
         <f>(18*36)+(2*27.4)</f>
         <v>702.8</v>
       </c>
       <c r="L560" s="58"/>
       <c r="M560" s="58"/>
       <c r="N560" s="229"/>
-      <c r="O560" s="186"/>
-      <c r="P560" s="21"/>
-      <c r="Q560" s="187"/>
+      <c r="O560" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P560" s="21">
+        <v>20</v>
+      </c>
+      <c r="Q560" s="187">
+        <v>702.8</v>
+      </c>
       <c r="R560" s="22"/>
       <c r="S560" s="22"/>
       <c r="T560" s="23"/>
@@ -39562,7 +39811,7 @@
       <c r="W560" s="315"/>
       <c r="X560" s="123">
         <f t="shared" si="31"/>
-        <v>702.8</v>
+        <v>0</v>
       </c>
       <c r="Y560" s="52"/>
       <c r="Z560" s="3"/>
@@ -39605,7 +39854,7 @@
       <c r="L561" s="228"/>
       <c r="M561" s="58"/>
       <c r="N561" s="229"/>
-      <c r="O561" s="21"/>
+      <c r="O561" s="186"/>
       <c r="P561" s="21"/>
       <c r="Q561" s="187"/>
       <c r="R561" s="22"/>
@@ -39615,7 +39864,7 @@
       <c r="V561" s="24"/>
       <c r="W561" s="315"/>
       <c r="X561" s="123">
-        <f t="shared" si="31"/>
+        <f>SUM(K561-N561-Q561-T561-W561)</f>
         <v>341.4</v>
       </c>
       <c r="Y561" s="52"/>
@@ -39675,47 +39924,53 @@
       <c r="Y562" s="52"/>
       <c r="Z562" s="3"/>
     </row>
-    <row r="563" spans="1:26" hidden="1">
-      <c r="A563" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B563" s="352" t="s">
+    <row r="563" spans="1:26">
+      <c r="A563" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B563" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="C563" s="352">
+      <c r="C563" s="399">
         <v>45</v>
       </c>
-      <c r="D563" s="352" t="s">
+      <c r="D563" s="399" t="s">
         <v>10</v>
       </c>
-      <c r="E563" s="361">
+      <c r="E563" s="399">
         <v>63</v>
       </c>
-      <c r="F563" s="352" t="s">
+      <c r="F563" s="399" t="s">
         <v>165</v>
       </c>
-      <c r="G563" s="352" t="s">
+      <c r="G563" s="399" t="s">
         <v>1148</v>
       </c>
-      <c r="H563" s="361" t="s">
+      <c r="H563" s="399" t="s">
         <v>5</v>
       </c>
-      <c r="I563" s="361">
+      <c r="I563" s="399">
         <v>25</v>
       </c>
-      <c r="J563" s="353" t="s">
+      <c r="J563" s="400" t="s">
         <v>103</v>
       </c>
-      <c r="K563" s="360">
+      <c r="K563" s="401">
         <f>(24*35)+(1*26.4)</f>
         <v>866.4</v>
       </c>
       <c r="L563" s="228"/>
       <c r="M563" s="58"/>
       <c r="N563" s="229"/>
-      <c r="O563" s="21"/>
-      <c r="P563" s="21"/>
-      <c r="Q563" s="187"/>
+      <c r="O563" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P563" s="21">
+        <v>25</v>
+      </c>
+      <c r="Q563" s="187">
+        <v>866.4</v>
+      </c>
       <c r="R563" s="22"/>
       <c r="S563" s="22"/>
       <c r="T563" s="23"/>
@@ -39723,8 +39978,8 @@
       <c r="V563" s="24"/>
       <c r="W563" s="315"/>
       <c r="X563" s="123">
-        <f t="shared" si="31"/>
-        <v>866.4</v>
+        <f>SUM(K563-N563-Q563-T563-W563)</f>
+        <v>0</v>
       </c>
       <c r="Y563" s="52"/>
       <c r="Z563" s="3"/>
@@ -39783,7 +40038,7 @@
       <c r="Y564" s="52"/>
       <c r="Z564" s="3"/>
     </row>
-    <row r="565" spans="1:26">
+    <row r="565" spans="1:26" hidden="1">
       <c r="A565" s="398" t="s">
         <v>1385</v>
       </c>
@@ -39843,7 +40098,7 @@
       <c r="Y565" s="52"/>
       <c r="Z565" s="3"/>
     </row>
-    <row r="566" spans="1:26">
+    <row r="566" spans="1:26" hidden="1">
       <c r="A566" s="398" t="s">
         <v>1385</v>
       </c>
@@ -39903,47 +40158,53 @@
       <c r="Y566" s="52"/>
       <c r="Z566" s="3"/>
     </row>
-    <row r="567" spans="1:26" hidden="1">
-      <c r="A567" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B567" s="352" t="s">
+    <row r="567" spans="1:26">
+      <c r="A567" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B567" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="C567" s="352">
+      <c r="C567" s="399">
         <v>45</v>
       </c>
-      <c r="D567" s="352" t="s">
+      <c r="D567" s="399" t="s">
         <v>10</v>
       </c>
-      <c r="E567" s="361">
+      <c r="E567" s="399">
         <v>69</v>
       </c>
-      <c r="F567" s="352" t="s">
+      <c r="F567" s="399" t="s">
         <v>728</v>
       </c>
-      <c r="G567" s="352" t="s">
+      <c r="G567" s="399" t="s">
         <v>1148</v>
       </c>
-      <c r="H567" s="361" t="s">
+      <c r="H567" s="399" t="s">
         <v>5</v>
       </c>
-      <c r="I567" s="361">
-        <v>15</v>
-      </c>
-      <c r="J567" s="353" t="s">
+      <c r="I567" s="399">
+        <v>15</v>
+      </c>
+      <c r="J567" s="400" t="s">
         <v>34</v>
       </c>
-      <c r="K567" s="360">
+      <c r="K567" s="401">
         <f>(13*35)+(2*26.4)</f>
         <v>507.8</v>
       </c>
       <c r="L567" s="58"/>
       <c r="M567" s="58"/>
       <c r="N567" s="229"/>
-      <c r="O567" s="186"/>
-      <c r="P567" s="21"/>
-      <c r="Q567" s="187"/>
+      <c r="O567" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P567" s="21">
+        <v>15</v>
+      </c>
+      <c r="Q567" s="187">
+        <v>507.8</v>
+      </c>
       <c r="R567" s="22"/>
       <c r="S567" s="22"/>
       <c r="T567" s="23"/>
@@ -39952,7 +40213,7 @@
       <c r="W567" s="315"/>
       <c r="X567" s="123">
         <f t="shared" si="31"/>
-        <v>507.8</v>
+        <v>0</v>
       </c>
       <c r="Y567" s="52"/>
       <c r="Z567" s="3"/>
@@ -40335,7 +40596,7 @@
       <c r="Y574" s="52"/>
       <c r="Z574" s="3"/>
     </row>
-    <row r="575" spans="1:26">
+    <row r="575" spans="1:26" hidden="1">
       <c r="A575" s="398" t="s">
         <v>1385</v>
       </c>
@@ -41853,7 +42114,7 @@
       <c r="Y602" s="52"/>
       <c r="Z602" s="3"/>
     </row>
-    <row r="603" spans="1:26">
+    <row r="603" spans="1:26" hidden="1">
       <c r="A603" s="398" t="s">
         <v>1385</v>
       </c>
@@ -45207,7 +45468,7 @@
       <c r="Y664" s="52"/>
       <c r="Z664" s="3"/>
     </row>
-    <row r="665" spans="1:26">
+    <row r="665" spans="1:26" hidden="1">
       <c r="A665" s="398" t="s">
         <v>1385</v>
       </c>
@@ -45267,7 +45528,7 @@
       <c r="Y665" s="52"/>
       <c r="Z665" s="3"/>
     </row>
-    <row r="666" spans="1:26">
+    <row r="666" spans="1:26" hidden="1">
       <c r="A666" s="398" t="s">
         <v>1385</v>
       </c>
@@ -45489,7 +45750,7 @@
       <c r="Y669" s="52"/>
       <c r="Z669" s="3"/>
     </row>
-    <row r="670" spans="1:26">
+    <row r="670" spans="1:26" hidden="1">
       <c r="A670" s="398" t="s">
         <v>1385</v>
       </c>
@@ -46197,7 +46458,7 @@
       <c r="Y682" s="52"/>
       <c r="Z682" s="3"/>
     </row>
-    <row r="683" spans="1:26">
+    <row r="683" spans="1:26" hidden="1">
       <c r="A683" s="398" t="s">
         <v>1385</v>
       </c>
@@ -47175,47 +47436,53 @@
       <c r="Y699" s="52"/>
       <c r="Z699" s="3"/>
     </row>
-    <row r="700" spans="1:26" hidden="1">
-      <c r="A700" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B700" s="352" t="s">
+    <row r="700" spans="1:26">
+      <c r="A700" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B700" s="399" t="s">
         <v>129</v>
       </c>
-      <c r="C700" s="352">
+      <c r="C700" s="399">
         <v>46</v>
       </c>
-      <c r="D700" s="352" t="s">
+      <c r="D700" s="399" t="s">
         <v>56</v>
       </c>
-      <c r="E700" s="361">
+      <c r="E700" s="399">
         <v>613</v>
       </c>
-      <c r="F700" s="352" t="s">
+      <c r="F700" s="399" t="s">
         <v>1209</v>
       </c>
-      <c r="G700" s="352" t="s">
+      <c r="G700" s="399" t="s">
         <v>108</v>
       </c>
-      <c r="H700" s="361" t="s">
-        <v>15</v>
-      </c>
-      <c r="I700" s="361">
+      <c r="H700" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="I700" s="399">
         <v>20</v>
       </c>
-      <c r="J700" s="353" t="s">
+      <c r="J700" s="400" t="s">
         <v>389</v>
       </c>
-      <c r="K700" s="360">
+      <c r="K700" s="401">
         <f>(19*39)+(1*34.7)</f>
         <v>775.7</v>
       </c>
       <c r="L700" s="58"/>
       <c r="M700" s="58"/>
       <c r="N700" s="229"/>
-      <c r="O700" s="186"/>
-      <c r="P700" s="21"/>
-      <c r="Q700" s="187"/>
+      <c r="O700" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P700" s="21">
+        <v>20</v>
+      </c>
+      <c r="Q700" s="187">
+        <v>775.7</v>
+      </c>
       <c r="R700" s="22"/>
       <c r="S700" s="22"/>
       <c r="T700" s="23"/>
@@ -47224,7 +47491,7 @@
       <c r="W700" s="315"/>
       <c r="X700" s="123">
         <f t="shared" si="39"/>
-        <v>775.7</v>
+        <v>0</v>
       </c>
       <c r="Y700" s="52"/>
       <c r="Z700" s="3"/>
@@ -47349,47 +47616,53 @@
       <c r="Y702" s="52"/>
       <c r="Z702" s="3"/>
     </row>
-    <row r="703" spans="1:26" hidden="1">
-      <c r="A703" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B703" s="352" t="s">
+    <row r="703" spans="1:26">
+      <c r="A703" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B703" s="399" t="s">
         <v>129</v>
       </c>
-      <c r="C703" s="352">
+      <c r="C703" s="399">
         <v>46</v>
       </c>
-      <c r="D703" s="352" t="s">
+      <c r="D703" s="399" t="s">
         <v>55</v>
       </c>
-      <c r="E703" s="361">
+      <c r="E703" s="399">
         <v>267</v>
       </c>
-      <c r="F703" s="352" t="s">
+      <c r="F703" s="399" t="s">
         <v>1213</v>
       </c>
-      <c r="G703" s="352" t="s">
+      <c r="G703" s="399" t="s">
         <v>184</v>
       </c>
-      <c r="H703" s="361" t="s">
-        <v>15</v>
-      </c>
-      <c r="I703" s="361">
-        <v>15</v>
-      </c>
-      <c r="J703" s="353" t="s">
+      <c r="H703" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="I703" s="399">
+        <v>15</v>
+      </c>
+      <c r="J703" s="400" t="s">
         <v>355</v>
       </c>
-      <c r="K703" s="360">
+      <c r="K703" s="401">
         <f>(14*38)+(1*30.3)</f>
         <v>562.29999999999995</v>
       </c>
       <c r="L703" s="58"/>
       <c r="M703" s="58"/>
       <c r="N703" s="229"/>
-      <c r="O703" s="21"/>
-      <c r="P703" s="21"/>
-      <c r="Q703" s="187"/>
+      <c r="O703" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P703" s="21">
+        <v>15</v>
+      </c>
+      <c r="Q703" s="187">
+        <v>562.29999999999995</v>
+      </c>
       <c r="R703" s="22"/>
       <c r="S703" s="22"/>
       <c r="T703" s="23"/>
@@ -47398,7 +47671,7 @@
       <c r="W703" s="315"/>
       <c r="X703" s="123">
         <f t="shared" si="39"/>
-        <v>562.29999999999995</v>
+        <v>0</v>
       </c>
       <c r="Y703" s="52"/>
       <c r="Z703" s="3"/>
@@ -47703,47 +47976,53 @@
       <c r="Y708" s="52"/>
       <c r="Z708" s="3"/>
     </row>
-    <row r="709" spans="1:26" hidden="1">
-      <c r="A709" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B709" s="352" t="s">
+    <row r="709" spans="1:26">
+      <c r="A709" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B709" s="399" t="s">
         <v>129</v>
       </c>
-      <c r="C709" s="352">
+      <c r="C709" s="399">
         <v>46</v>
       </c>
-      <c r="D709" s="352" t="s">
+      <c r="D709" s="399" t="s">
         <v>55</v>
       </c>
-      <c r="E709" s="361">
+      <c r="E709" s="399">
         <v>352</v>
       </c>
-      <c r="F709" s="352" t="s">
+      <c r="F709" s="399" t="s">
         <v>1219</v>
       </c>
-      <c r="G709" s="352" t="s">
+      <c r="G709" s="399" t="s">
         <v>108</v>
       </c>
-      <c r="H709" s="361" t="s">
-        <v>15</v>
-      </c>
-      <c r="I709" s="361">
+      <c r="H709" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="I709" s="399">
         <v>20</v>
       </c>
-      <c r="J709" s="353" t="s">
+      <c r="J709" s="400" t="s">
         <v>389</v>
       </c>
-      <c r="K709" s="360">
+      <c r="K709" s="401">
         <f>(19*39)+(1*34.7)</f>
         <v>775.7</v>
       </c>
       <c r="L709" s="58"/>
       <c r="M709" s="58"/>
       <c r="N709" s="229"/>
-      <c r="O709" s="21"/>
-      <c r="P709" s="21"/>
-      <c r="Q709" s="187"/>
+      <c r="O709" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P709" s="21">
+        <v>20</v>
+      </c>
+      <c r="Q709" s="187">
+        <v>775.7</v>
+      </c>
       <c r="R709" s="22"/>
       <c r="S709" s="22"/>
       <c r="T709" s="23"/>
@@ -47752,7 +48031,7 @@
       <c r="W709" s="315"/>
       <c r="X709" s="123">
         <f t="shared" si="43"/>
-        <v>775.7</v>
+        <v>0</v>
       </c>
       <c r="Y709" s="52"/>
       <c r="Z709" s="3"/>
@@ -49005,7 +49284,7 @@
       <c r="Y732" s="52"/>
       <c r="Z732" s="3"/>
     </row>
-    <row r="733" spans="1:26">
+    <row r="733" spans="1:26" hidden="1">
       <c r="A733" s="398" t="s">
         <v>1385</v>
       </c>
@@ -49173,7 +49452,7 @@
       <c r="Y735" s="52"/>
       <c r="Z735" s="3"/>
     </row>
-    <row r="736" spans="1:26">
+    <row r="736" spans="1:26" hidden="1">
       <c r="A736" s="398" t="s">
         <v>1385</v>
       </c>
@@ -49287,7 +49566,7 @@
       <c r="Y737" s="52"/>
       <c r="Z737" s="3"/>
     </row>
-    <row r="738" spans="1:26">
+    <row r="738" spans="1:26" hidden="1">
       <c r="A738" s="398" t="s">
         <v>1385</v>
       </c>
@@ -49827,47 +50106,53 @@
       <c r="Y746" s="52"/>
       <c r="Z746" s="3"/>
     </row>
-    <row r="747" spans="1:26" hidden="1">
-      <c r="A747" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B747" s="352" t="s">
+    <row r="747" spans="1:26">
+      <c r="A747" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B747" s="399" t="s">
         <v>129</v>
       </c>
-      <c r="C747" s="352">
+      <c r="C747" s="399">
         <v>46</v>
       </c>
-      <c r="D747" s="352" t="s">
+      <c r="D747" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="E747" s="361">
+      <c r="E747" s="399">
         <v>956</v>
       </c>
-      <c r="F747" s="352" t="s">
+      <c r="F747" s="399" t="s">
         <v>1253</v>
       </c>
-      <c r="G747" s="352" t="s">
+      <c r="G747" s="399" t="s">
         <v>1003</v>
       </c>
-      <c r="H747" s="361" t="s">
-        <v>15</v>
-      </c>
-      <c r="I747" s="361">
+      <c r="H747" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="I747" s="399">
         <v>20</v>
       </c>
-      <c r="J747" s="353" t="s">
+      <c r="J747" s="400" t="s">
         <v>1203</v>
       </c>
-      <c r="K747" s="360">
+      <c r="K747" s="401">
         <f>(19*26)+(1*18.3)</f>
         <v>512.29999999999995</v>
       </c>
       <c r="L747" s="58"/>
       <c r="M747" s="58"/>
       <c r="N747" s="229"/>
-      <c r="O747" s="21"/>
-      <c r="P747" s="21"/>
-      <c r="Q747" s="187"/>
+      <c r="O747" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P747" s="21">
+        <v>20</v>
+      </c>
+      <c r="Q747" s="187">
+        <v>512.29999999999995</v>
+      </c>
       <c r="R747" s="22"/>
       <c r="S747" s="22"/>
       <c r="T747" s="23"/>
@@ -49876,52 +50161,58 @@
       <c r="W747" s="315"/>
       <c r="X747" s="123">
         <f t="shared" si="43"/>
-        <v>512.29999999999995</v>
+        <v>0</v>
       </c>
       <c r="Y747" s="52"/>
       <c r="Z747" s="3"/>
     </row>
-    <row r="748" spans="1:26" hidden="1">
-      <c r="A748" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B748" s="352" t="s">
+    <row r="748" spans="1:26">
+      <c r="A748" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B748" s="399" t="s">
         <v>129</v>
       </c>
-      <c r="C748" s="352">
+      <c r="C748" s="399">
         <v>46</v>
       </c>
-      <c r="D748" s="352" t="s">
+      <c r="D748" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="E748" s="361">
+      <c r="E748" s="399">
         <v>957</v>
       </c>
-      <c r="F748" s="352" t="s">
+      <c r="F748" s="399" t="s">
         <v>1254</v>
       </c>
-      <c r="G748" s="352" t="s">
+      <c r="G748" s="399" t="s">
         <v>1003</v>
       </c>
-      <c r="H748" s="361" t="s">
-        <v>15</v>
-      </c>
-      <c r="I748" s="361">
+      <c r="H748" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="I748" s="399">
         <v>30</v>
       </c>
-      <c r="J748" s="353" t="s">
+      <c r="J748" s="400" t="s">
         <v>323</v>
       </c>
-      <c r="K748" s="360">
+      <c r="K748" s="401">
         <f>(30*26)</f>
         <v>780</v>
       </c>
       <c r="L748" s="58"/>
       <c r="M748" s="58"/>
       <c r="N748" s="229"/>
-      <c r="O748" s="186"/>
-      <c r="P748" s="21"/>
-      <c r="Q748" s="187"/>
+      <c r="O748" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P748" s="21">
+        <v>30</v>
+      </c>
+      <c r="Q748" s="187">
+        <v>780</v>
+      </c>
       <c r="R748" s="22"/>
       <c r="S748" s="22"/>
       <c r="T748" s="23"/>
@@ -49930,52 +50221,58 @@
       <c r="W748" s="315"/>
       <c r="X748" s="123">
         <f t="shared" si="43"/>
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="Y748" s="52"/>
       <c r="Z748" s="3"/>
     </row>
-    <row r="749" spans="1:26" hidden="1">
-      <c r="A749" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B749" s="352" t="s">
+    <row r="749" spans="1:26">
+      <c r="A749" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B749" s="399" t="s">
         <v>129</v>
       </c>
-      <c r="C749" s="352">
+      <c r="C749" s="399">
         <v>46</v>
       </c>
-      <c r="D749" s="352" t="s">
+      <c r="D749" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="E749" s="361">
+      <c r="E749" s="399">
         <v>964</v>
       </c>
-      <c r="F749" s="352" t="s">
+      <c r="F749" s="399" t="s">
         <v>1255</v>
       </c>
-      <c r="G749" s="352" t="s">
+      <c r="G749" s="399" t="s">
         <v>1259</v>
       </c>
-      <c r="H749" s="361" t="s">
-        <v>15</v>
-      </c>
-      <c r="I749" s="361">
+      <c r="H749" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="I749" s="399">
         <v>20</v>
       </c>
-      <c r="J749" s="353" t="s">
+      <c r="J749" s="400" t="s">
         <v>1202</v>
       </c>
-      <c r="K749" s="360">
+      <c r="K749" s="401">
         <f>(19*25)+(1*17.3)</f>
         <v>492.3</v>
       </c>
       <c r="L749" s="228"/>
       <c r="M749" s="58"/>
       <c r="N749" s="229"/>
-      <c r="O749" s="21"/>
-      <c r="P749" s="21"/>
-      <c r="Q749" s="187"/>
+      <c r="O749" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P749" s="21">
+        <v>20</v>
+      </c>
+      <c r="Q749" s="187">
+        <v>492.3</v>
+      </c>
       <c r="R749" s="22"/>
       <c r="S749" s="22"/>
       <c r="T749" s="23"/>
@@ -49984,7 +50281,7 @@
       <c r="W749" s="315"/>
       <c r="X749" s="123">
         <f t="shared" si="43"/>
-        <v>492.3</v>
+        <v>0</v>
       </c>
       <c r="Y749" s="52"/>
       <c r="Z749" s="3"/>
@@ -50049,47 +50346,53 @@
       <c r="Y750" s="52"/>
       <c r="Z750" s="3"/>
     </row>
-    <row r="751" spans="1:26" hidden="1">
-      <c r="A751" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B751" s="352" t="s">
+    <row r="751" spans="1:26">
+      <c r="A751" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B751" s="399" t="s">
         <v>129</v>
       </c>
-      <c r="C751" s="352">
+      <c r="C751" s="399">
         <v>46</v>
       </c>
-      <c r="D751" s="352" t="s">
+      <c r="D751" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="E751" s="361">
+      <c r="E751" s="399">
         <v>1004</v>
       </c>
-      <c r="F751" s="352" t="s">
+      <c r="F751" s="399" t="s">
         <v>737</v>
       </c>
-      <c r="G751" s="352" t="s">
+      <c r="G751" s="399" t="s">
         <v>657</v>
       </c>
-      <c r="H751" s="361" t="s">
+      <c r="H751" s="399" t="s">
         <v>5</v>
       </c>
-      <c r="I751" s="361">
+      <c r="I751" s="399">
         <v>20</v>
       </c>
-      <c r="J751" s="353" t="s">
+      <c r="J751" s="400" t="s">
         <v>360</v>
       </c>
-      <c r="K751" s="360">
+      <c r="K751" s="401">
         <f>(19*38)+(1*33.7)</f>
         <v>755.7</v>
       </c>
       <c r="L751" s="58"/>
       <c r="M751" s="58"/>
       <c r="N751" s="229"/>
-      <c r="O751" s="21"/>
-      <c r="P751" s="21"/>
-      <c r="Q751" s="187"/>
+      <c r="O751" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P751" s="21">
+        <v>20</v>
+      </c>
+      <c r="Q751" s="187">
+        <v>755.7</v>
+      </c>
       <c r="R751" s="22"/>
       <c r="S751" s="22"/>
       <c r="T751" s="23"/>
@@ -50098,52 +50401,58 @@
       <c r="W751" s="315"/>
       <c r="X751" s="123">
         <f t="shared" si="43"/>
-        <v>755.7</v>
+        <v>0</v>
       </c>
       <c r="Y751" s="52"/>
       <c r="Z751" s="3"/>
     </row>
-    <row r="752" spans="1:26" hidden="1">
-      <c r="A752" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B752" s="352" t="s">
+    <row r="752" spans="1:26">
+      <c r="A752" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B752" s="399" t="s">
         <v>129</v>
       </c>
-      <c r="C752" s="352">
+      <c r="C752" s="399">
         <v>46</v>
       </c>
-      <c r="D752" s="352" t="s">
+      <c r="D752" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="E752" s="361">
+      <c r="E752" s="399">
         <v>1007</v>
       </c>
-      <c r="F752" s="352" t="s">
+      <c r="F752" s="399" t="s">
         <v>643</v>
       </c>
-      <c r="G752" s="352" t="s">
+      <c r="G752" s="399" t="s">
         <v>657</v>
       </c>
-      <c r="H752" s="361" t="s">
-        <v>15</v>
-      </c>
-      <c r="I752" s="361">
+      <c r="H752" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="I752" s="399">
         <v>20</v>
       </c>
-      <c r="J752" s="353" t="s">
+      <c r="J752" s="400" t="s">
         <v>358</v>
       </c>
-      <c r="K752" s="360">
+      <c r="K752" s="401">
         <f>(19*40)+(1*35.7)</f>
         <v>795.7</v>
       </c>
       <c r="L752" s="58"/>
       <c r="M752" s="58"/>
       <c r="N752" s="229"/>
-      <c r="O752" s="21"/>
-      <c r="P752" s="21"/>
-      <c r="Q752" s="187"/>
+      <c r="O752" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P752" s="21">
+        <v>20</v>
+      </c>
+      <c r="Q752" s="187">
+        <v>795.7</v>
+      </c>
       <c r="R752" s="22"/>
       <c r="S752" s="22"/>
       <c r="T752" s="23"/>
@@ -50152,7 +50461,7 @@
       <c r="W752" s="315"/>
       <c r="X752" s="123">
         <f t="shared" si="43"/>
-        <v>795.7</v>
+        <v>0</v>
       </c>
       <c r="Y752" s="52"/>
       <c r="Z752" s="3"/>
@@ -50217,47 +50526,53 @@
       <c r="Y753" s="52"/>
       <c r="Z753" s="3"/>
     </row>
-    <row r="754" spans="1:26" hidden="1">
-      <c r="A754" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B754" s="352" t="s">
+    <row r="754" spans="1:26">
+      <c r="A754" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B754" s="399" t="s">
         <v>129</v>
       </c>
-      <c r="C754" s="352">
+      <c r="C754" s="399">
         <v>46</v>
       </c>
-      <c r="D754" s="352" t="s">
+      <c r="D754" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="E754" s="361">
+      <c r="E754" s="399">
         <v>1040</v>
       </c>
-      <c r="F754" s="352" t="s">
+      <c r="F754" s="399" t="s">
         <v>814</v>
       </c>
-      <c r="G754" s="352" t="s">
+      <c r="G754" s="399" t="s">
         <v>227</v>
       </c>
-      <c r="H754" s="361" t="s">
-        <v>15</v>
-      </c>
-      <c r="I754" s="361">
+      <c r="H754" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="I754" s="399">
         <v>30</v>
       </c>
-      <c r="J754" s="353" t="s">
+      <c r="J754" s="400" t="s">
         <v>872</v>
       </c>
-      <c r="K754" s="360">
+      <c r="K754" s="401">
         <f>(29*33)+(1*25.3)</f>
         <v>982.3</v>
       </c>
       <c r="L754" s="58"/>
       <c r="M754" s="58"/>
       <c r="N754" s="229"/>
-      <c r="O754" s="186"/>
-      <c r="P754" s="21"/>
-      <c r="Q754" s="187"/>
+      <c r="O754" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P754" s="21">
+        <v>30</v>
+      </c>
+      <c r="Q754" s="187">
+        <v>982.3</v>
+      </c>
       <c r="R754" s="22"/>
       <c r="S754" s="22"/>
       <c r="T754" s="23"/>
@@ -50266,7 +50581,7 @@
       <c r="W754" s="315"/>
       <c r="X754" s="123">
         <f t="shared" si="43"/>
-        <v>982.3</v>
+        <v>0</v>
       </c>
       <c r="Y754" s="52"/>
       <c r="Z754" s="3"/>
@@ -50385,47 +50700,53 @@
       <c r="Y756" s="52"/>
       <c r="Z756" s="3"/>
     </row>
-    <row r="757" spans="1:26" hidden="1">
-      <c r="A757" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B757" s="352" t="s">
+    <row r="757" spans="1:26">
+      <c r="A757" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B757" s="399" t="s">
         <v>129</v>
       </c>
-      <c r="C757" s="352">
+      <c r="C757" s="399">
         <v>46</v>
       </c>
-      <c r="D757" s="352" t="s">
+      <c r="D757" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="E757" s="361">
+      <c r="E757" s="399">
         <v>1265</v>
       </c>
-      <c r="F757" s="352" t="s">
+      <c r="F757" s="399" t="s">
         <v>849</v>
       </c>
-      <c r="G757" s="352" t="s">
+      <c r="G757" s="399" t="s">
         <v>176</v>
       </c>
-      <c r="H757" s="361" t="s">
+      <c r="H757" s="399" t="s">
         <v>5</v>
       </c>
-      <c r="I757" s="361">
+      <c r="I757" s="399">
         <v>20</v>
       </c>
-      <c r="J757" s="353" t="s">
+      <c r="J757" s="400" t="s">
         <v>133</v>
       </c>
-      <c r="K757" s="360">
+      <c r="K757" s="401">
         <f>(20*34)</f>
         <v>680</v>
       </c>
       <c r="L757" s="228"/>
       <c r="M757" s="58"/>
       <c r="N757" s="229"/>
-      <c r="O757" s="21"/>
-      <c r="P757" s="21"/>
-      <c r="Q757" s="187"/>
+      <c r="O757" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P757" s="21">
+        <v>20</v>
+      </c>
+      <c r="Q757" s="187">
+        <v>680</v>
+      </c>
       <c r="R757" s="22"/>
       <c r="S757" s="22"/>
       <c r="T757" s="23"/>
@@ -50434,52 +50755,58 @@
       <c r="W757" s="315"/>
       <c r="X757" s="123">
         <f t="shared" si="43"/>
-        <v>680</v>
+        <v>0</v>
       </c>
       <c r="Y757" s="52"/>
       <c r="Z757" s="3"/>
     </row>
-    <row r="758" spans="1:26" hidden="1">
-      <c r="A758" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B758" s="352" t="s">
+    <row r="758" spans="1:26">
+      <c r="A758" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B758" s="399" t="s">
         <v>129</v>
       </c>
-      <c r="C758" s="352">
+      <c r="C758" s="399">
         <v>46</v>
       </c>
-      <c r="D758" s="352" t="s">
+      <c r="D758" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="E758" s="361">
+      <c r="E758" s="399">
         <v>1269</v>
       </c>
-      <c r="F758" s="352" t="s">
+      <c r="F758" s="399" t="s">
         <v>232</v>
       </c>
-      <c r="G758" s="352" t="s">
+      <c r="G758" s="399" t="s">
         <v>176</v>
       </c>
-      <c r="H758" s="361" t="s">
-        <v>15</v>
-      </c>
-      <c r="I758" s="361">
+      <c r="H758" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="I758" s="399">
         <v>20</v>
       </c>
-      <c r="J758" s="353" t="s">
+      <c r="J758" s="400" t="s">
         <v>125</v>
       </c>
-      <c r="K758" s="360">
+      <c r="K758" s="401">
         <f>(20*35)</f>
         <v>700</v>
       </c>
       <c r="L758" s="228"/>
       <c r="M758" s="58"/>
       <c r="N758" s="229"/>
-      <c r="O758" s="21"/>
-      <c r="P758" s="21"/>
-      <c r="Q758" s="187"/>
+      <c r="O758" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P758" s="21">
+        <v>20</v>
+      </c>
+      <c r="Q758" s="187">
+        <v>700</v>
+      </c>
       <c r="R758" s="22"/>
       <c r="S758" s="22"/>
       <c r="T758" s="23"/>
@@ -50488,7 +50815,7 @@
       <c r="W758" s="315"/>
       <c r="X758" s="123">
         <f t="shared" si="43"/>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="Y758" s="52"/>
       <c r="Z758" s="3"/>
@@ -51729,47 +52056,53 @@
       <c r="Y780" s="52"/>
       <c r="Z780" s="3"/>
     </row>
-    <row r="781" spans="1:26" hidden="1">
-      <c r="A781" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B781" s="352" t="s">
+    <row r="781" spans="1:26">
+      <c r="A781" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B781" s="399" t="s">
         <v>129</v>
       </c>
-      <c r="C781" s="352">
+      <c r="C781" s="399">
         <v>48</v>
       </c>
-      <c r="D781" s="352" t="s">
+      <c r="D781" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="E781" s="361">
+      <c r="E781" s="399">
         <v>1276</v>
       </c>
-      <c r="F781" s="352" t="s">
+      <c r="F781" s="399" t="s">
         <v>1279</v>
       </c>
-      <c r="G781" s="352" t="s">
+      <c r="G781" s="399" t="s">
         <v>365</v>
       </c>
-      <c r="H781" s="361" t="s">
-        <v>15</v>
-      </c>
-      <c r="I781" s="361">
+      <c r="H781" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="I781" s="399">
         <v>20</v>
       </c>
-      <c r="J781" s="353" t="s">
+      <c r="J781" s="400" t="s">
         <v>125</v>
       </c>
-      <c r="K781" s="360">
+      <c r="K781" s="401">
         <f>(20*35)</f>
         <v>700</v>
       </c>
       <c r="L781" s="228"/>
       <c r="M781" s="58"/>
       <c r="N781" s="229"/>
-      <c r="O781" s="21"/>
-      <c r="P781" s="21"/>
-      <c r="Q781" s="187"/>
+      <c r="O781" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P781" s="21">
+        <v>20</v>
+      </c>
+      <c r="Q781" s="187">
+        <v>700</v>
+      </c>
       <c r="R781" s="22"/>
       <c r="S781" s="22"/>
       <c r="T781" s="23"/>
@@ -51778,7 +52111,7 @@
       <c r="W781" s="315"/>
       <c r="X781" s="123">
         <f t="shared" si="44"/>
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="Y781" s="52"/>
       <c r="Z781" s="3"/>
@@ -52005,47 +52338,53 @@
       <c r="Y785" s="52"/>
       <c r="Z785" s="3"/>
     </row>
-    <row r="786" spans="1:26" hidden="1">
-      <c r="A786" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B786" s="352" t="s">
+    <row r="786" spans="1:26">
+      <c r="A786" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B786" s="399" t="s">
         <v>129</v>
       </c>
-      <c r="C786" s="352">
+      <c r="C786" s="399">
         <v>48</v>
       </c>
-      <c r="D786" s="352" t="s">
+      <c r="D786" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="E786" s="361">
+      <c r="E786" s="399">
         <v>1553</v>
       </c>
-      <c r="F786" s="352" t="s">
+      <c r="F786" s="399" t="s">
         <v>1281</v>
       </c>
-      <c r="G786" s="352" t="s">
+      <c r="G786" s="399" t="s">
         <v>945</v>
       </c>
-      <c r="H786" s="361" t="s">
-        <v>15</v>
-      </c>
-      <c r="I786" s="361">
+      <c r="H786" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="I786" s="399">
         <v>20</v>
       </c>
-      <c r="J786" s="353" t="s">
+      <c r="J786" s="400" t="s">
         <v>1273</v>
       </c>
-      <c r="K786" s="360">
+      <c r="K786" s="401">
         <f>(18*26)+(2*21.7)</f>
         <v>511.4</v>
       </c>
       <c r="L786" s="228"/>
       <c r="M786" s="58"/>
       <c r="N786" s="229"/>
-      <c r="O786" s="21"/>
-      <c r="P786" s="21"/>
-      <c r="Q786" s="187"/>
+      <c r="O786" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P786" s="21">
+        <v>20</v>
+      </c>
+      <c r="Q786" s="187">
+        <v>511.4</v>
+      </c>
       <c r="R786" s="22"/>
       <c r="S786" s="22"/>
       <c r="T786" s="23"/>
@@ -52054,7 +52393,7 @@
       <c r="W786" s="315"/>
       <c r="X786" s="123">
         <f t="shared" si="44"/>
-        <v>511.4</v>
+        <v>0</v>
       </c>
       <c r="Y786" s="52"/>
       <c r="Z786" s="3"/>
@@ -52167,47 +52506,53 @@
       <c r="Y788" s="52"/>
       <c r="Z788" s="3"/>
     </row>
-    <row r="789" spans="1:26" hidden="1">
-      <c r="A789" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B789" s="352" t="s">
+    <row r="789" spans="1:26">
+      <c r="A789" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B789" s="399" t="s">
         <v>129</v>
       </c>
-      <c r="C789" s="352">
+      <c r="C789" s="399">
         <v>48</v>
       </c>
-      <c r="D789" s="352" t="s">
+      <c r="D789" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="E789" s="361">
+      <c r="E789" s="399">
         <v>1729</v>
       </c>
-      <c r="F789" s="352" t="s">
+      <c r="F789" s="399" t="s">
         <v>900</v>
       </c>
-      <c r="G789" s="352" t="s">
+      <c r="G789" s="399" t="s">
         <v>1284</v>
       </c>
-      <c r="H789" s="361" t="s">
+      <c r="H789" s="399" t="s">
         <v>5</v>
       </c>
-      <c r="I789" s="361">
+      <c r="I789" s="399">
         <v>20</v>
       </c>
-      <c r="J789" s="353" t="s">
+      <c r="J789" s="400" t="s">
         <v>370</v>
       </c>
-      <c r="K789" s="360">
+      <c r="K789" s="401">
         <f>(19*34)+(1*29.7)</f>
         <v>675.7</v>
       </c>
       <c r="L789" s="58"/>
       <c r="M789" s="58"/>
       <c r="N789" s="229"/>
-      <c r="O789" s="186"/>
-      <c r="P789" s="21"/>
-      <c r="Q789" s="187"/>
+      <c r="O789" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P789" s="21">
+        <v>20</v>
+      </c>
+      <c r="Q789" s="187">
+        <v>675.7</v>
+      </c>
       <c r="R789" s="22"/>
       <c r="S789" s="22"/>
       <c r="T789" s="23"/>
@@ -52216,7 +52561,7 @@
       <c r="W789" s="315"/>
       <c r="X789" s="123">
         <f t="shared" si="44"/>
-        <v>675.7</v>
+        <v>0</v>
       </c>
       <c r="Y789" s="52"/>
       <c r="Z789" s="3"/>
@@ -52557,47 +52902,53 @@
       <c r="Y795" s="52"/>
       <c r="Z795" s="3"/>
     </row>
-    <row r="796" spans="1:26" hidden="1">
-      <c r="A796" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B796" s="352" t="s">
+    <row r="796" spans="1:26">
+      <c r="A796" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B796" s="399" t="s">
         <v>129</v>
       </c>
-      <c r="C796" s="352">
+      <c r="C796" s="399">
         <v>48</v>
       </c>
-      <c r="D796" s="352" t="s">
+      <c r="D796" s="399" t="s">
         <v>56</v>
       </c>
-      <c r="E796" s="361">
+      <c r="E796" s="399">
         <v>173</v>
       </c>
-      <c r="F796" s="352" t="s">
+      <c r="F796" s="399" t="s">
         <v>415</v>
       </c>
-      <c r="G796" s="352" t="s">
+      <c r="G796" s="399" t="s">
         <v>246</v>
       </c>
-      <c r="H796" s="361" t="s">
-        <v>15</v>
-      </c>
-      <c r="I796" s="361">
+      <c r="H796" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="I796" s="399">
         <v>20</v>
       </c>
-      <c r="J796" s="353" t="s">
+      <c r="J796" s="400" t="s">
         <v>356</v>
       </c>
-      <c r="K796" s="360">
+      <c r="K796" s="401">
         <f t="shared" ref="K796:K797" si="45">(19*35)+(1*30.7)</f>
         <v>695.7</v>
       </c>
       <c r="L796" s="58"/>
       <c r="M796" s="58"/>
       <c r="N796" s="229"/>
-      <c r="O796" s="186"/>
-      <c r="P796" s="21"/>
-      <c r="Q796" s="187"/>
+      <c r="O796" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P796" s="21">
+        <v>20</v>
+      </c>
+      <c r="Q796" s="187">
+        <v>695.7</v>
+      </c>
       <c r="R796" s="22"/>
       <c r="S796" s="22"/>
       <c r="T796" s="23"/>
@@ -52606,7 +52957,7 @@
       <c r="W796" s="315"/>
       <c r="X796" s="123">
         <f t="shared" si="44"/>
-        <v>695.7</v>
+        <v>0</v>
       </c>
       <c r="Y796" s="52"/>
       <c r="Z796" s="3"/>
@@ -52665,47 +53016,53 @@
       <c r="Y797" s="52"/>
       <c r="Z797" s="3"/>
     </row>
-    <row r="798" spans="1:26" hidden="1">
-      <c r="A798" s="359" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B798" s="352" t="s">
+    <row r="798" spans="1:26">
+      <c r="A798" s="398" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B798" s="399" t="s">
         <v>129</v>
       </c>
-      <c r="C798" s="352">
+      <c r="C798" s="399">
         <v>48</v>
       </c>
-      <c r="D798" s="352" t="s">
+      <c r="D798" s="399" t="s">
         <v>56</v>
       </c>
-      <c r="E798" s="361">
+      <c r="E798" s="399">
         <v>448</v>
       </c>
-      <c r="F798" s="352" t="s">
+      <c r="F798" s="399" t="s">
         <v>537</v>
       </c>
-      <c r="G798" s="352" t="s">
+      <c r="G798" s="399" t="s">
         <v>266</v>
       </c>
-      <c r="H798" s="361" t="s">
-        <v>15</v>
-      </c>
-      <c r="I798" s="361">
-        <v>15</v>
-      </c>
-      <c r="J798" s="353" t="s">
+      <c r="H798" s="399" t="s">
+        <v>15</v>
+      </c>
+      <c r="I798" s="399">
+        <v>15</v>
+      </c>
+      <c r="J798" s="400" t="s">
         <v>664</v>
       </c>
-      <c r="K798" s="360">
+      <c r="K798" s="401">
         <f>(12*35)+(3*30.7)</f>
         <v>512.1</v>
       </c>
       <c r="L798" s="228"/>
       <c r="M798" s="58"/>
       <c r="N798" s="229"/>
-      <c r="O798" s="21"/>
-      <c r="P798" s="21"/>
-      <c r="Q798" s="187"/>
+      <c r="O798" s="186" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P798" s="21">
+        <v>15</v>
+      </c>
+      <c r="Q798" s="187">
+        <v>512.1</v>
+      </c>
       <c r="R798" s="22"/>
       <c r="S798" s="22"/>
       <c r="T798" s="23"/>
@@ -52714,7 +53071,7 @@
       <c r="W798" s="315"/>
       <c r="X798" s="123">
         <f t="shared" si="44"/>
-        <v>512.1</v>
+        <v>0</v>
       </c>
       <c r="Y798" s="52"/>
       <c r="Z798" s="3"/>
@@ -67576,7 +67933,7 @@
       <c r="F1079" s="74"/>
       <c r="G1079" s="75">
         <f>SUM(X1079)</f>
-        <v>363609.80000000191</v>
+        <v>326076.1000000012</v>
       </c>
       <c r="H1079" s="74"/>
       <c r="I1079" s="74"/>
@@ -67596,7 +67953,7 @@
       <c r="W1079" s="316"/>
       <c r="X1079" s="124">
         <f>SUM(X4:X1078)</f>
-        <v>363609.80000000191</v>
+        <v>326076.1000000012</v>
       </c>
       <c r="Y1079" s="53"/>
       <c r="Z1079" s="3"/>
@@ -67651,7 +68008,7 @@
       <c r="F1081" s="82"/>
       <c r="G1081" s="83">
         <f>SUM(Q1081)</f>
-        <v>181690.29999999973</v>
+        <v>219223.99999999951</v>
       </c>
       <c r="H1081" s="82"/>
       <c r="I1081" s="82"/>
@@ -67663,11 +68020,11 @@
       <c r="O1081" s="9"/>
       <c r="P1081" s="25">
         <f>SUM(P4:P1078)</f>
-        <v>5358</v>
+        <v>6438</v>
       </c>
       <c r="Q1081" s="26">
         <f>SUM(Q4:Q1078)</f>
-        <v>181690.29999999973</v>
+        <v>219223.99999999951</v>
       </c>
       <c r="R1081" s="10"/>
       <c r="S1081" s="10"/>
@@ -67832,7 +68189,7 @@
       <c r="F1086" s="68"/>
       <c r="G1086" s="91">
         <f>SUM(G1080:G1083)</f>
-        <v>302461.09999999974</v>
+        <v>339994.79999999952</v>
       </c>
       <c r="H1086" s="68"/>
       <c r="I1086" s="68"/>
@@ -67865,7 +68222,7 @@
       <c r="F1087" s="68"/>
       <c r="G1087" s="69">
         <f>G1084+G1085-G1086</f>
-        <v>363609.80000000028</v>
+        <v>326076.1000000005</v>
       </c>
       <c r="H1087" s="68"/>
       <c r="I1087" s="68"/>
@@ -67948,7 +68305,7 @@
       <c r="F1090" s="94"/>
       <c r="G1090" s="313">
         <f>G1079-G1087</f>
-        <v>1.6298145055770874E-9</v>
+        <v>6.9849193096160889E-10</v>
       </c>
       <c r="H1090" s="94"/>
       <c r="I1090" s="94"/>
@@ -70930,9 +71287,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:AB1087">
-    <filterColumn colId="20">
+    <filterColumn colId="14">
       <filters>
-        <filter val="02"/>
+        <filter val="06"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -72549,11 +72906,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W76"/>
+  <dimension ref="A1:W78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
+      <selection pane="bottomLeft" activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -72712,7 +73069,7 @@
       </c>
       <c r="T4" s="483">
         <f>'[1]June 2021'!$K$6</f>
-        <v>363609.8</v>
+        <v>326076.09999999998</v>
       </c>
       <c r="U4" s="484"/>
       <c r="V4"/>
@@ -72787,7 +73144,7 @@
       </c>
       <c r="T6" s="485">
         <f>'VARGIN TEA AC-2020-21'!G1079</f>
-        <v>363609.80000000191</v>
+        <v>326076.1000000012</v>
       </c>
       <c r="U6" s="486"/>
       <c r="V6"/>
@@ -72862,7 +73219,7 @@
       </c>
       <c r="T8" s="487">
         <f>T5+T6-T4</f>
-        <v>1.9208528101444244E-9</v>
+        <v>1.2223608791828156E-9</v>
       </c>
       <c r="U8" s="488"/>
       <c r="V8"/>
@@ -73153,7 +73510,9 @@
       <c r="U16" s="293"/>
     </row>
     <row r="17" spans="1:21" ht="15.75">
-      <c r="A17" s="230"/>
+      <c r="A17" s="230" t="s">
+        <v>1403</v>
+      </c>
       <c r="B17" s="433"/>
       <c r="C17" s="434"/>
       <c r="D17" s="436"/>
@@ -73179,12 +73538,22 @@
       <c r="P17" s="431"/>
       <c r="Q17" s="444"/>
     </row>
-    <row r="18" spans="1:21" ht="15" customHeight="1">
-      <c r="A18" s="230"/>
-      <c r="B18" s="433"/>
-      <c r="C18" s="434"/>
-      <c r="D18" s="436"/>
-      <c r="E18" s="441"/>
+    <row r="18" spans="1:21" ht="15.75">
+      <c r="A18" s="230" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B18" s="433" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C18" s="434">
+        <v>1080</v>
+      </c>
+      <c r="D18" s="436">
+        <v>37533.699999999997</v>
+      </c>
+      <c r="E18" s="441">
+        <v>150.13</v>
+      </c>
       <c r="F18" s="435"/>
       <c r="G18" s="436"/>
       <c r="H18" s="442"/>
@@ -73193,124 +73562,124 @@
       <c r="K18" s="434"/>
       <c r="L18" s="442"/>
       <c r="M18" s="443"/>
-      <c r="N18" s="437"/>
-      <c r="O18" s="434"/>
-      <c r="P18" s="442"/>
-      <c r="Q18" s="445"/>
-      <c r="T18" s="428"/>
-      <c r="U18" s="420"/>
-    </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1">
-      <c r="A19" s="178" t="s">
+      <c r="N18" s="432"/>
+      <c r="O18" s="429"/>
+      <c r="P18" s="431"/>
+      <c r="Q18" s="444"/>
+    </row>
+    <row r="19" spans="1:21" ht="15.75">
+      <c r="A19" s="230"/>
+      <c r="B19" s="433"/>
+      <c r="C19" s="434"/>
+      <c r="D19" s="436"/>
+      <c r="E19" s="441"/>
+      <c r="F19" s="435"/>
+      <c r="G19" s="436"/>
+      <c r="H19" s="442"/>
+      <c r="I19" s="443"/>
+      <c r="J19" s="437"/>
+      <c r="K19" s="434"/>
+      <c r="L19" s="442"/>
+      <c r="M19" s="443"/>
+      <c r="N19" s="432"/>
+      <c r="O19" s="429"/>
+      <c r="P19" s="431"/>
+      <c r="Q19" s="444"/>
+    </row>
+    <row r="20" spans="1:21" ht="15" customHeight="1">
+      <c r="A20" s="230"/>
+      <c r="B20" s="433"/>
+      <c r="C20" s="434"/>
+      <c r="D20" s="436"/>
+      <c r="E20" s="441"/>
+      <c r="F20" s="435"/>
+      <c r="G20" s="436"/>
+      <c r="H20" s="442"/>
+      <c r="I20" s="443"/>
+      <c r="J20" s="437"/>
+      <c r="K20" s="434"/>
+      <c r="L20" s="442"/>
+      <c r="M20" s="443"/>
+      <c r="N20" s="437"/>
+      <c r="O20" s="434"/>
+      <c r="P20" s="442"/>
+      <c r="Q20" s="445"/>
+      <c r="T20" s="428"/>
+      <c r="U20" s="420"/>
+    </row>
+    <row r="21" spans="1:21" ht="15" customHeight="1">
+      <c r="A21" s="178" t="s">
         <v>497</v>
       </c>
-      <c r="B19" s="177"/>
-      <c r="C19" s="151">
-        <f>SUM(C15:C18)</f>
-        <v>1087</v>
-      </c>
-      <c r="D19" s="412">
-        <f>SUM(D15:D18)</f>
-        <v>37289.5</v>
-      </c>
-      <c r="E19" s="413">
-        <f>SUM(E15:E18)</f>
-        <v>149.15799999999999</v>
-      </c>
-      <c r="F19" s="168"/>
-      <c r="G19" s="151">
-        <f>SUM(G15:G18)</f>
+      <c r="B21" s="177"/>
+      <c r="C21" s="151">
+        <f>SUM(C15:C20)</f>
+        <v>2167</v>
+      </c>
+      <c r="D21" s="412">
+        <f>SUM(D15:D20)</f>
+        <v>74823.199999999997</v>
+      </c>
+      <c r="E21" s="413">
+        <f>SUM(E15:E20)</f>
+        <v>299.28800000000001</v>
+      </c>
+      <c r="F21" s="168"/>
+      <c r="G21" s="151">
+        <f>SUM(G15:G20)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="151">
-        <f>SUM(H15:H18)</f>
+      <c r="H21" s="151">
+        <f>SUM(H15:H20)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="151">
-        <f>SUM(I15:I18)</f>
+      <c r="I21" s="151">
+        <f>SUM(I15:I20)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="150"/>
-      <c r="K19" s="151">
-        <f>SUM(K17:K18)</f>
+      <c r="J21" s="150"/>
+      <c r="K21" s="151">
+        <f>SUM(K17:K20)</f>
         <v>540</v>
       </c>
-      <c r="L19" s="412">
-        <f>SUM(L17:L18)</f>
+      <c r="L21" s="412">
+        <f>SUM(L17:L20)</f>
         <v>18585</v>
       </c>
-      <c r="M19" s="412">
-        <f>SUM(M17:M18)</f>
+      <c r="M21" s="412">
+        <f>SUM(M17:M20)</f>
         <v>74.34</v>
       </c>
-      <c r="N19" s="168"/>
-      <c r="O19" s="151">
-        <f>SUM(O15:O18)</f>
+      <c r="N21" s="168"/>
+      <c r="O21" s="151">
+        <f>SUM(O15:O20)</f>
         <v>1076</v>
       </c>
-      <c r="P19" s="412">
-        <f>SUM(P15:P18)</f>
+      <c r="P21" s="412">
+        <f>SUM(P15:P20)</f>
         <v>35320</v>
       </c>
-      <c r="Q19" s="411">
-        <f>SUM(Q15:Q18)</f>
+      <c r="Q21" s="411">
+        <f>SUM(Q15:Q20)</f>
         <v>141.28</v>
       </c>
-      <c r="T19" s="428"/>
-      <c r="U19" s="420"/>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20" s="230"/>
-      <c r="B20" s="166"/>
-      <c r="C20" s="141"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="174"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="163"/>
-      <c r="J20" s="159"/>
-      <c r="K20" s="156"/>
-      <c r="L20" s="157"/>
-      <c r="M20" s="165"/>
-      <c r="N20" s="148"/>
-      <c r="O20" s="147"/>
-      <c r="P20" s="112"/>
-      <c r="Q20" s="145"/>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="A21" s="230"/>
-      <c r="B21" s="167"/>
-      <c r="C21" s="147"/>
-      <c r="D21" s="142"/>
-      <c r="E21" s="170"/>
-      <c r="F21" s="169"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="161"/>
-      <c r="J21" s="148"/>
-      <c r="K21" s="147"/>
-      <c r="L21" s="112"/>
-      <c r="M21" s="161"/>
-      <c r="N21" s="140"/>
-      <c r="O21" s="141"/>
-      <c r="P21" s="112"/>
-      <c r="Q21" s="314"/>
+      <c r="T21" s="428"/>
+      <c r="U21" s="420"/>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="230"/>
       <c r="B22" s="166"/>
       <c r="C22" s="141"/>
       <c r="D22" s="142"/>
-      <c r="E22" s="170"/>
-      <c r="F22" s="169"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="161"/>
-      <c r="J22" s="140"/>
-      <c r="K22" s="147"/>
-      <c r="L22" s="144"/>
-      <c r="M22" s="161"/>
+      <c r="E22" s="171"/>
+      <c r="F22" s="174"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="159"/>
+      <c r="K22" s="156"/>
+      <c r="L22" s="157"/>
+      <c r="M22" s="165"/>
       <c r="N22" s="148"/>
       <c r="O22" s="147"/>
       <c r="P22" s="112"/>
@@ -73318,22 +73687,22 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="230"/>
-      <c r="B23" s="166"/>
-      <c r="C23" s="141"/>
+      <c r="B23" s="167"/>
+      <c r="C23" s="147"/>
       <c r="D23" s="142"/>
       <c r="E23" s="170"/>
       <c r="F23" s="169"/>
       <c r="G23" s="143"/>
       <c r="H23" s="112"/>
       <c r="I23" s="161"/>
-      <c r="J23" s="140"/>
-      <c r="K23" s="141"/>
+      <c r="J23" s="148"/>
+      <c r="K23" s="147"/>
       <c r="L23" s="112"/>
       <c r="M23" s="161"/>
       <c r="N23" s="140"/>
       <c r="O23" s="141"/>
       <c r="P23" s="112"/>
-      <c r="Q23" s="145"/>
+      <c r="Q23" s="314"/>
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="230"/>
@@ -73345,14 +73714,14 @@
       <c r="G24" s="143"/>
       <c r="H24" s="112"/>
       <c r="I24" s="161"/>
-      <c r="J24" s="148"/>
+      <c r="J24" s="140"/>
       <c r="K24" s="147"/>
-      <c r="L24" s="112"/>
+      <c r="L24" s="144"/>
       <c r="M24" s="161"/>
-      <c r="N24" s="140"/>
-      <c r="O24" s="141"/>
-      <c r="P24" s="144"/>
-      <c r="Q24" s="158"/>
+      <c r="N24" s="148"/>
+      <c r="O24" s="147"/>
+      <c r="P24" s="112"/>
+      <c r="Q24" s="145"/>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="230"/>
@@ -73365,108 +73734,108 @@
       <c r="H25" s="112"/>
       <c r="I25" s="161"/>
       <c r="J25" s="140"/>
-      <c r="K25" s="147"/>
+      <c r="K25" s="141"/>
       <c r="L25" s="112"/>
       <c r="M25" s="161"/>
       <c r="N25" s="140"/>
       <c r="O25" s="141"/>
-      <c r="P25" s="144"/>
-      <c r="Q25" s="158"/>
+      <c r="P25" s="112"/>
+      <c r="Q25" s="145"/>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="178" t="s">
-        <v>498</v>
-      </c>
-      <c r="B26" s="177"/>
-      <c r="C26" s="151">
-        <f>SUM(C20:C25)</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="412">
-        <f>SUM(D20:D25)</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="413">
-        <f>SUM(E20:E25)</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="168"/>
-      <c r="G26" s="151">
-        <f>SUM(G20:G25)</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="412">
-        <f>SUM(H20:H25)</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="412">
-        <f>SUM(I20:I25)</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="150"/>
-      <c r="K26" s="151">
-        <f>SUM(K20:K25)</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="412">
-        <f>SUM(L20:L25)</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="412">
-        <f>SUM(M20:M25)</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="168"/>
-      <c r="O26" s="151">
-        <f>SUM(O20:O25)</f>
-        <v>0</v>
-      </c>
-      <c r="P26" s="412">
-        <f>SUM(P20:P25)</f>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="411">
-        <f>SUM(Q20:Q25)</f>
-        <v>0</v>
-      </c>
+      <c r="A26" s="230"/>
+      <c r="B26" s="166"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="170"/>
+      <c r="F26" s="169"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="112"/>
+      <c r="I26" s="161"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="147"/>
+      <c r="L26" s="112"/>
+      <c r="M26" s="161"/>
+      <c r="N26" s="140"/>
+      <c r="O26" s="141"/>
+      <c r="P26" s="144"/>
+      <c r="Q26" s="158"/>
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="230"/>
-      <c r="B27" s="167"/>
-      <c r="C27" s="147"/>
+      <c r="B27" s="166"/>
+      <c r="C27" s="141"/>
       <c r="D27" s="142"/>
       <c r="E27" s="170"/>
       <c r="F27" s="169"/>
       <c r="G27" s="143"/>
       <c r="H27" s="112"/>
       <c r="I27" s="161"/>
-      <c r="J27" s="148"/>
+      <c r="J27" s="140"/>
       <c r="K27" s="147"/>
       <c r="L27" s="112"/>
       <c r="M27" s="161"/>
       <c r="N27" s="140"/>
       <c r="O27" s="141"/>
-      <c r="P27" s="112"/>
-      <c r="Q27" s="314"/>
+      <c r="P27" s="144"/>
+      <c r="Q27" s="158"/>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="230"/>
-      <c r="B28" s="166"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="142"/>
-      <c r="E28" s="170"/>
-      <c r="F28" s="169"/>
-      <c r="G28" s="143"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="161"/>
-      <c r="J28" s="148"/>
-      <c r="K28" s="147"/>
-      <c r="L28" s="112"/>
-      <c r="M28" s="161"/>
-      <c r="N28" s="140"/>
-      <c r="O28" s="141"/>
-      <c r="P28" s="112"/>
-      <c r="Q28" s="145"/>
+      <c r="A28" s="178" t="s">
+        <v>498</v>
+      </c>
+      <c r="B28" s="177"/>
+      <c r="C28" s="151">
+        <f>SUM(C22:C27)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="412">
+        <f>SUM(D22:D27)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="413">
+        <f>SUM(E22:E27)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="168"/>
+      <c r="G28" s="151">
+        <f>SUM(G22:G27)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="412">
+        <f>SUM(H22:H27)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="412">
+        <f>SUM(I22:I27)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="150"/>
+      <c r="K28" s="151">
+        <f>SUM(K22:K27)</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="412">
+        <f>SUM(L22:L27)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="412">
+        <f>SUM(M22:M27)</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="168"/>
+      <c r="O28" s="151">
+        <f>SUM(O22:O27)</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="412">
+        <f>SUM(P22:P27)</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="411">
+        <f>SUM(Q22:Q27)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="230"/>
@@ -73516,19 +73885,19 @@
       <c r="G31" s="143"/>
       <c r="H31" s="112"/>
       <c r="I31" s="161"/>
-      <c r="J31" s="140"/>
+      <c r="J31" s="148"/>
       <c r="K31" s="147"/>
       <c r="L31" s="112"/>
       <c r="M31" s="161"/>
       <c r="N31" s="140"/>
       <c r="O31" s="141"/>
       <c r="P31" s="112"/>
-      <c r="Q31" s="145"/>
+      <c r="Q31" s="314"/>
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="230"/>
       <c r="B32" s="166"/>
-      <c r="C32" s="141"/>
+      <c r="C32" s="147"/>
       <c r="D32" s="142"/>
       <c r="E32" s="170"/>
       <c r="F32" s="169"/>
@@ -73545,99 +73914,99 @@
       <c r="Q32" s="145"/>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="178" t="s">
-        <v>499</v>
-      </c>
-      <c r="B33" s="177"/>
-      <c r="C33" s="151">
-        <f>SUM(C27:C32)</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="412">
-        <f>SUM(D27:D32)</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="413">
-        <f>SUM(E27:E32)</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="168"/>
-      <c r="G33" s="151">
-        <f>SUM(G27:G32)</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="412">
-        <f>SUM((H27:H32))</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="412">
-        <f>SUM(I27:I32)</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="150"/>
-      <c r="K33" s="151">
-        <f>SUM(K27:K32)</f>
-        <v>0</v>
-      </c>
-      <c r="L33" s="412">
-        <f>SUM(L27:L32)</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="412">
-        <f>SUM(M27:M32)</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="168"/>
-      <c r="O33" s="151">
-        <f>SUM(O27:O32)</f>
-        <v>0</v>
-      </c>
-      <c r="P33" s="412">
-        <f>SUM(P27:P32)</f>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="411">
-        <f>SUM(Q27:Q32)</f>
-        <v>0</v>
-      </c>
+      <c r="A33" s="230"/>
+      <c r="B33" s="167"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="142"/>
+      <c r="E33" s="170"/>
+      <c r="F33" s="169"/>
+      <c r="G33" s="143"/>
+      <c r="H33" s="112"/>
+      <c r="I33" s="161"/>
+      <c r="J33" s="140"/>
+      <c r="K33" s="147"/>
+      <c r="L33" s="112"/>
+      <c r="M33" s="161"/>
+      <c r="N33" s="140"/>
+      <c r="O33" s="141"/>
+      <c r="P33" s="112"/>
+      <c r="Q33" s="145"/>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="230"/>
-      <c r="B34" s="167"/>
-      <c r="C34" s="147"/>
+      <c r="B34" s="166"/>
+      <c r="C34" s="141"/>
       <c r="D34" s="142"/>
       <c r="E34" s="170"/>
-      <c r="F34" s="172"/>
+      <c r="F34" s="169"/>
       <c r="G34" s="143"/>
       <c r="H34" s="112"/>
-      <c r="I34" s="162"/>
-      <c r="J34" s="140"/>
-      <c r="K34" s="141"/>
-      <c r="L34" s="144"/>
-      <c r="M34" s="164"/>
+      <c r="I34" s="161"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="147"/>
+      <c r="L34" s="112"/>
+      <c r="M34" s="161"/>
       <c r="N34" s="140"/>
-      <c r="O34" s="147"/>
+      <c r="O34" s="141"/>
       <c r="P34" s="112"/>
       <c r="Q34" s="145"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="230"/>
-      <c r="B35" s="167"/>
-      <c r="C35" s="147"/>
-      <c r="D35" s="142"/>
-      <c r="E35" s="170"/>
-      <c r="F35" s="169"/>
-      <c r="G35" s="143"/>
-      <c r="H35" s="112"/>
-      <c r="I35" s="161"/>
-      <c r="J35" s="148"/>
-      <c r="K35" s="147"/>
-      <c r="L35" s="112"/>
-      <c r="M35" s="161"/>
-      <c r="N35" s="140"/>
-      <c r="O35" s="141"/>
-      <c r="P35" s="112"/>
-      <c r="Q35" s="314"/>
+      <c r="A35" s="178" t="s">
+        <v>499</v>
+      </c>
+      <c r="B35" s="177"/>
+      <c r="C35" s="151">
+        <f>SUM(C29:C34)</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="412">
+        <f>SUM(D29:D34)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="413">
+        <f>SUM(E29:E34)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="168"/>
+      <c r="G35" s="151">
+        <f>SUM(G29:G34)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="412">
+        <f>SUM((H29:H34))</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="412">
+        <f>SUM(I29:I34)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="150"/>
+      <c r="K35" s="151">
+        <f>SUM(K29:K34)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="412">
+        <f>SUM(L29:L34)</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="412">
+        <f>SUM(M29:M34)</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="168"/>
+      <c r="O35" s="151">
+        <f>SUM(O29:O34)</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="412">
+        <f>SUM(P29:P34)</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="411">
+        <f>SUM(Q29:Q34)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="230"/>
@@ -73645,15 +74014,15 @@
       <c r="C36" s="147"/>
       <c r="D36" s="142"/>
       <c r="E36" s="170"/>
-      <c r="F36" s="169"/>
+      <c r="F36" s="172"/>
       <c r="G36" s="143"/>
       <c r="H36" s="112"/>
-      <c r="I36" s="161"/>
-      <c r="J36" s="148"/>
-      <c r="K36" s="147"/>
-      <c r="L36" s="112"/>
-      <c r="M36" s="161"/>
-      <c r="N36" s="148"/>
+      <c r="I36" s="162"/>
+      <c r="J36" s="140"/>
+      <c r="K36" s="141"/>
+      <c r="L36" s="144"/>
+      <c r="M36" s="164"/>
+      <c r="N36" s="140"/>
       <c r="O36" s="147"/>
       <c r="P36" s="112"/>
       <c r="Q36" s="145"/>
@@ -73672,10 +74041,10 @@
       <c r="K37" s="147"/>
       <c r="L37" s="112"/>
       <c r="M37" s="161"/>
-      <c r="N37" s="148"/>
-      <c r="O37" s="147"/>
+      <c r="N37" s="140"/>
+      <c r="O37" s="141"/>
       <c r="P37" s="112"/>
-      <c r="Q37" s="145"/>
+      <c r="Q37" s="314"/>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="230"/>
@@ -73691,67 +74060,29 @@
       <c r="K38" s="147"/>
       <c r="L38" s="112"/>
       <c r="M38" s="161"/>
-      <c r="N38" s="140"/>
+      <c r="N38" s="148"/>
       <c r="O38" s="147"/>
       <c r="P38" s="112"/>
-      <c r="Q38" s="314"/>
+      <c r="Q38" s="145"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="178" t="s">
-        <v>500</v>
-      </c>
-      <c r="B39" s="177"/>
-      <c r="C39" s="151">
-        <f>SUM(C34:C38)</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="412">
-        <f>SUM(D34:D38)</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="413">
-        <f>SUM(E34:E38)</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="168"/>
-      <c r="G39" s="151">
-        <f>SUM(G34:G38)</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="412">
-        <f>SUM(H34:H38)</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="412">
-        <f>SUM(I34:I38)</f>
-        <v>0</v>
-      </c>
-      <c r="J39" s="150"/>
-      <c r="K39" s="151">
-        <f>SUM(K34:K38)</f>
-        <v>0</v>
-      </c>
-      <c r="L39" s="412">
-        <f>SUM(L34:L38)</f>
-        <v>0</v>
-      </c>
-      <c r="M39" s="412">
-        <f>SUM(M34:M38)</f>
-        <v>0</v>
-      </c>
-      <c r="N39" s="168"/>
-      <c r="O39" s="151">
-        <f>SUM(O34:O38)</f>
-        <v>0</v>
-      </c>
-      <c r="P39" s="412">
-        <f>SUM(P34:P38)</f>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="411">
-        <f>SUM(Q34:Q38)</f>
-        <v>0</v>
-      </c>
+      <c r="A39" s="230"/>
+      <c r="B39" s="167"/>
+      <c r="C39" s="147"/>
+      <c r="D39" s="142"/>
+      <c r="E39" s="170"/>
+      <c r="F39" s="169"/>
+      <c r="G39" s="143"/>
+      <c r="H39" s="112"/>
+      <c r="I39" s="161"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="147"/>
+      <c r="L39" s="112"/>
+      <c r="M39" s="161"/>
+      <c r="N39" s="148"/>
+      <c r="O39" s="147"/>
+      <c r="P39" s="112"/>
+      <c r="Q39" s="145"/>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="230"/>
@@ -73767,29 +74098,67 @@
       <c r="K40" s="147"/>
       <c r="L40" s="112"/>
       <c r="M40" s="161"/>
-      <c r="N40" s="148"/>
+      <c r="N40" s="140"/>
       <c r="O40" s="147"/>
       <c r="P40" s="112"/>
-      <c r="Q40" s="145"/>
+      <c r="Q40" s="314"/>
     </row>
     <row r="41" spans="1:17">
-      <c r="A41" s="230"/>
-      <c r="B41" s="167"/>
-      <c r="C41" s="147"/>
-      <c r="D41" s="142"/>
-      <c r="E41" s="170"/>
-      <c r="F41" s="169"/>
-      <c r="G41" s="143"/>
-      <c r="H41" s="112"/>
-      <c r="I41" s="161"/>
-      <c r="J41" s="140"/>
-      <c r="K41" s="147"/>
-      <c r="L41" s="112"/>
-      <c r="M41" s="161"/>
-      <c r="N41" s="140"/>
-      <c r="O41" s="147"/>
-      <c r="P41" s="112"/>
-      <c r="Q41" s="145"/>
+      <c r="A41" s="178" t="s">
+        <v>500</v>
+      </c>
+      <c r="B41" s="177"/>
+      <c r="C41" s="151">
+        <f>SUM(C36:C40)</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="412">
+        <f>SUM(D36:D40)</f>
+        <v>0</v>
+      </c>
+      <c r="E41" s="413">
+        <f>SUM(E36:E40)</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="168"/>
+      <c r="G41" s="151">
+        <f>SUM(G36:G40)</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="412">
+        <f>SUM(H36:H40)</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="412">
+        <f>SUM(I36:I40)</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="150"/>
+      <c r="K41" s="151">
+        <f>SUM(K36:K40)</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="412">
+        <f>SUM(L36:L40)</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="412">
+        <f>SUM(M36:M40)</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="168"/>
+      <c r="O41" s="151">
+        <f>SUM(O36:O40)</f>
+        <v>0</v>
+      </c>
+      <c r="P41" s="412">
+        <f>SUM(P36:P40)</f>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="411">
+        <f>SUM(Q36:Q40)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="230"/>
@@ -73805,10 +74174,10 @@
       <c r="K42" s="147"/>
       <c r="L42" s="112"/>
       <c r="M42" s="161"/>
-      <c r="N42" s="140"/>
+      <c r="N42" s="148"/>
       <c r="O42" s="147"/>
       <c r="P42" s="112"/>
-      <c r="Q42" s="314"/>
+      <c r="Q42" s="145"/>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="230"/>
@@ -73830,61 +74199,23 @@
       <c r="Q43" s="145"/>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="178" t="s">
-        <v>501</v>
-      </c>
-      <c r="B44" s="177"/>
-      <c r="C44" s="151">
-        <f>SUM(C40:C43)</f>
-        <v>0</v>
-      </c>
-      <c r="D44" s="412">
-        <f>SUM(D40:D43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="413">
-        <f>SUM(E40:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="F44" s="168"/>
-      <c r="G44" s="151">
-        <f>SUM(G40:G43)</f>
-        <v>0</v>
-      </c>
-      <c r="H44" s="412">
-        <f>SUM(H40:H43)</f>
-        <v>0</v>
-      </c>
-      <c r="I44" s="412">
-        <f>SUM(I40:I43)</f>
-        <v>0</v>
-      </c>
-      <c r="J44" s="150"/>
-      <c r="K44" s="151">
-        <f>SUM(K40:K43)</f>
-        <v>0</v>
-      </c>
-      <c r="L44" s="412">
-        <f>SUM(L40:L43)</f>
-        <v>0</v>
-      </c>
-      <c r="M44" s="412">
-        <f>SUM(M40:M43)</f>
-        <v>0</v>
-      </c>
-      <c r="N44" s="168"/>
-      <c r="O44" s="151">
-        <f>SUM(O40:O43)</f>
-        <v>0</v>
-      </c>
-      <c r="P44" s="412">
-        <f>SUM(P40:P43)</f>
-        <v>0</v>
-      </c>
-      <c r="Q44" s="411">
-        <f>SUM(Q40:Q43)</f>
-        <v>0</v>
-      </c>
+      <c r="A44" s="230"/>
+      <c r="B44" s="167"/>
+      <c r="C44" s="147"/>
+      <c r="D44" s="142"/>
+      <c r="E44" s="170"/>
+      <c r="F44" s="169"/>
+      <c r="G44" s="143"/>
+      <c r="H44" s="112"/>
+      <c r="I44" s="161"/>
+      <c r="J44" s="148"/>
+      <c r="K44" s="147"/>
+      <c r="L44" s="112"/>
+      <c r="M44" s="161"/>
+      <c r="N44" s="140"/>
+      <c r="O44" s="147"/>
+      <c r="P44" s="112"/>
+      <c r="Q44" s="314"/>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="230"/>
@@ -73896,33 +74227,71 @@
       <c r="G45" s="143"/>
       <c r="H45" s="112"/>
       <c r="I45" s="161"/>
-      <c r="J45" s="148"/>
+      <c r="J45" s="140"/>
       <c r="K45" s="147"/>
       <c r="L45" s="112"/>
       <c r="M45" s="161"/>
-      <c r="N45" s="148"/>
+      <c r="N45" s="140"/>
       <c r="O45" s="147"/>
       <c r="P45" s="112"/>
       <c r="Q45" s="145"/>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="230"/>
-      <c r="B46" s="167"/>
-      <c r="C46" s="147"/>
-      <c r="D46" s="142"/>
-      <c r="E46" s="170"/>
-      <c r="F46" s="169"/>
-      <c r="G46" s="143"/>
-      <c r="H46" s="112"/>
-      <c r="I46" s="161"/>
-      <c r="J46" s="140"/>
-      <c r="K46" s="147"/>
-      <c r="L46" s="112"/>
-      <c r="M46" s="162"/>
-      <c r="N46" s="140"/>
-      <c r="O46" s="141"/>
-      <c r="P46" s="112"/>
-      <c r="Q46" s="145"/>
+      <c r="A46" s="178" t="s">
+        <v>501</v>
+      </c>
+      <c r="B46" s="177"/>
+      <c r="C46" s="151">
+        <f>SUM(C42:C45)</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="412">
+        <f>SUM(D42:D45)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="413">
+        <f>SUM(E42:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="F46" s="168"/>
+      <c r="G46" s="151">
+        <f>SUM(G42:G45)</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="412">
+        <f>SUM(H42:H45)</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="412">
+        <f>SUM(I42:I45)</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="150"/>
+      <c r="K46" s="151">
+        <f>SUM(K42:K45)</f>
+        <v>0</v>
+      </c>
+      <c r="L46" s="412">
+        <f>SUM(L42:L45)</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="412">
+        <f>SUM(M42:M45)</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="168"/>
+      <c r="O46" s="151">
+        <f>SUM(O42:O45)</f>
+        <v>0</v>
+      </c>
+      <c r="P46" s="412">
+        <f>SUM(P42:P45)</f>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="411">
+        <f>SUM(Q42:Q45)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="230"/>
@@ -73938,67 +74307,29 @@
       <c r="K47" s="147"/>
       <c r="L47" s="112"/>
       <c r="M47" s="161"/>
-      <c r="N47" s="140"/>
-      <c r="O47" s="141"/>
+      <c r="N47" s="148"/>
+      <c r="O47" s="147"/>
       <c r="P47" s="112"/>
-      <c r="Q47" s="314"/>
+      <c r="Q47" s="145"/>
     </row>
     <row r="48" spans="1:17">
-      <c r="A48" s="178" t="s">
-        <v>502</v>
-      </c>
-      <c r="B48" s="177"/>
-      <c r="C48" s="151">
-        <f>SUM(C45:C47)</f>
-        <v>0</v>
-      </c>
-      <c r="D48" s="412">
-        <f>SUM(D45:D47)</f>
-        <v>0</v>
-      </c>
-      <c r="E48" s="413">
-        <f>SUM(E45:E47)</f>
-        <v>0</v>
-      </c>
-      <c r="F48" s="168"/>
-      <c r="G48" s="151">
-        <f>SUM(G45:G47)</f>
-        <v>0</v>
-      </c>
-      <c r="H48" s="412">
-        <f>SUM(H45:H47)</f>
-        <v>0</v>
-      </c>
-      <c r="I48" s="412">
-        <f>SUM(I45:I47)</f>
-        <v>0</v>
-      </c>
-      <c r="J48" s="150"/>
-      <c r="K48" s="151">
-        <f>SUM(K45:K47)</f>
-        <v>0</v>
-      </c>
-      <c r="L48" s="412">
-        <f>SUM(L45:L47)</f>
-        <v>0</v>
-      </c>
-      <c r="M48" s="412">
-        <f>SUM(M45:M47)</f>
-        <v>0</v>
-      </c>
-      <c r="N48" s="168"/>
-      <c r="O48" s="151">
-        <f>SUM(O45:O47)</f>
-        <v>0</v>
-      </c>
-      <c r="P48" s="412">
-        <f>SUM(P45:P47)</f>
-        <v>0</v>
-      </c>
-      <c r="Q48" s="411">
-        <f>SUM(Q45:Q47)</f>
-        <v>0</v>
-      </c>
+      <c r="A48" s="230"/>
+      <c r="B48" s="167"/>
+      <c r="C48" s="147"/>
+      <c r="D48" s="142"/>
+      <c r="E48" s="170"/>
+      <c r="F48" s="169"/>
+      <c r="G48" s="143"/>
+      <c r="H48" s="112"/>
+      <c r="I48" s="161"/>
+      <c r="J48" s="140"/>
+      <c r="K48" s="147"/>
+      <c r="L48" s="112"/>
+      <c r="M48" s="162"/>
+      <c r="N48" s="140"/>
+      <c r="O48" s="141"/>
+      <c r="P48" s="112"/>
+      <c r="Q48" s="145"/>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="230"/>
@@ -74014,29 +74345,67 @@
       <c r="K49" s="147"/>
       <c r="L49" s="112"/>
       <c r="M49" s="161"/>
-      <c r="N49" s="148"/>
-      <c r="O49" s="147"/>
+      <c r="N49" s="140"/>
+      <c r="O49" s="141"/>
       <c r="P49" s="112"/>
-      <c r="Q49" s="145"/>
+      <c r="Q49" s="314"/>
     </row>
     <row r="50" spans="1:17">
-      <c r="A50" s="230"/>
-      <c r="B50" s="167"/>
-      <c r="C50" s="147"/>
-      <c r="D50" s="142"/>
-      <c r="E50" s="170"/>
-      <c r="F50" s="169"/>
-      <c r="G50" s="143"/>
-      <c r="H50" s="112"/>
-      <c r="I50" s="161"/>
-      <c r="J50" s="140"/>
-      <c r="K50" s="141"/>
-      <c r="L50" s="112"/>
-      <c r="M50" s="161"/>
-      <c r="N50" s="148"/>
-      <c r="O50" s="147"/>
-      <c r="P50" s="112"/>
-      <c r="Q50" s="314"/>
+      <c r="A50" s="178" t="s">
+        <v>502</v>
+      </c>
+      <c r="B50" s="177"/>
+      <c r="C50" s="151">
+        <f>SUM(C47:C49)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="412">
+        <f>SUM(D47:D49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="413">
+        <f>SUM(E47:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="168"/>
+      <c r="G50" s="151">
+        <f>SUM(G47:G49)</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="412">
+        <f>SUM(H47:H49)</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="412">
+        <f>SUM(I47:I49)</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="150"/>
+      <c r="K50" s="151">
+        <f>SUM(K47:K49)</f>
+        <v>0</v>
+      </c>
+      <c r="L50" s="412">
+        <f>SUM(L47:L49)</f>
+        <v>0</v>
+      </c>
+      <c r="M50" s="412">
+        <f>SUM(M47:M49)</f>
+        <v>0</v>
+      </c>
+      <c r="N50" s="168"/>
+      <c r="O50" s="151">
+        <f>SUM(O47:O49)</f>
+        <v>0</v>
+      </c>
+      <c r="P50" s="412">
+        <f>SUM(P47:P49)</f>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="411">
+        <f>SUM(Q47:Q49)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="230"/>
@@ -74044,10 +74413,10 @@
       <c r="C51" s="147"/>
       <c r="D51" s="142"/>
       <c r="E51" s="170"/>
-      <c r="F51" s="172"/>
-      <c r="G51" s="146"/>
-      <c r="H51" s="144"/>
-      <c r="I51" s="162"/>
+      <c r="F51" s="169"/>
+      <c r="G51" s="143"/>
+      <c r="H51" s="112"/>
+      <c r="I51" s="161"/>
       <c r="J51" s="148"/>
       <c r="K51" s="147"/>
       <c r="L51" s="112"/>
@@ -74063,18 +74432,18 @@
       <c r="C52" s="147"/>
       <c r="D52" s="142"/>
       <c r="E52" s="170"/>
-      <c r="F52" s="172"/>
-      <c r="G52" s="146"/>
-      <c r="H52" s="109"/>
-      <c r="I52" s="162"/>
-      <c r="J52" s="148"/>
-      <c r="K52" s="147"/>
+      <c r="F52" s="169"/>
+      <c r="G52" s="143"/>
+      <c r="H52" s="112"/>
+      <c r="I52" s="161"/>
+      <c r="J52" s="140"/>
+      <c r="K52" s="141"/>
       <c r="L52" s="112"/>
       <c r="M52" s="161"/>
       <c r="N52" s="148"/>
       <c r="O52" s="147"/>
       <c r="P52" s="112"/>
-      <c r="Q52" s="145"/>
+      <c r="Q52" s="314"/>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="230"/>
@@ -74084,7 +74453,7 @@
       <c r="E53" s="170"/>
       <c r="F53" s="172"/>
       <c r="G53" s="146"/>
-      <c r="H53" s="109"/>
+      <c r="H53" s="144"/>
       <c r="I53" s="162"/>
       <c r="J53" s="148"/>
       <c r="K53" s="147"/>
@@ -74093,7 +74462,7 @@
       <c r="N53" s="148"/>
       <c r="O53" s="147"/>
       <c r="P53" s="112"/>
-      <c r="Q53" s="314"/>
+      <c r="Q53" s="145"/>
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="230"/>
@@ -74115,61 +74484,23 @@
       <c r="Q54" s="145"/>
     </row>
     <row r="55" spans="1:17">
-      <c r="A55" s="178" t="s">
-        <v>503</v>
-      </c>
-      <c r="B55" s="177"/>
-      <c r="C55" s="151">
-        <f>SUM(C49:C54)</f>
-        <v>0</v>
-      </c>
-      <c r="D55" s="412">
-        <f>SUM(D49:D54)</f>
-        <v>0</v>
-      </c>
-      <c r="E55" s="413">
-        <f>SUM(E49:E54)</f>
-        <v>0</v>
-      </c>
-      <c r="F55" s="168"/>
-      <c r="G55" s="151">
-        <f>SUM(G49:G54)</f>
-        <v>0</v>
-      </c>
-      <c r="H55" s="412">
-        <f>SUM(H49:H54)</f>
-        <v>0</v>
-      </c>
-      <c r="I55" s="412">
-        <f>SUM(I49:I54)</f>
-        <v>0</v>
-      </c>
-      <c r="J55" s="150"/>
-      <c r="K55" s="151">
-        <f>SUM(K49:K54)</f>
-        <v>0</v>
-      </c>
-      <c r="L55" s="414">
-        <f>SUM(L49:L54)</f>
-        <v>0</v>
-      </c>
-      <c r="M55" s="412">
-        <f>SUM(M49:M54)</f>
-        <v>0</v>
-      </c>
-      <c r="N55" s="150"/>
-      <c r="O55" s="151">
-        <f>SUM(O49:O54)</f>
-        <v>0</v>
-      </c>
-      <c r="P55" s="412">
-        <f>SUM(P49:P54)</f>
-        <v>0</v>
-      </c>
-      <c r="Q55" s="411">
-        <f>SUM(Q49:Q54)</f>
-        <v>0</v>
-      </c>
+      <c r="A55" s="230"/>
+      <c r="B55" s="167"/>
+      <c r="C55" s="147"/>
+      <c r="D55" s="142"/>
+      <c r="E55" s="170"/>
+      <c r="F55" s="172"/>
+      <c r="G55" s="146"/>
+      <c r="H55" s="109"/>
+      <c r="I55" s="162"/>
+      <c r="J55" s="148"/>
+      <c r="K55" s="147"/>
+      <c r="L55" s="112"/>
+      <c r="M55" s="161"/>
+      <c r="N55" s="148"/>
+      <c r="O55" s="147"/>
+      <c r="P55" s="112"/>
+      <c r="Q55" s="314"/>
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="230"/>
@@ -74177,11 +74508,11 @@
       <c r="C56" s="147"/>
       <c r="D56" s="142"/>
       <c r="E56" s="170"/>
-      <c r="F56" s="169"/>
-      <c r="G56" s="143"/>
-      <c r="H56" s="112"/>
-      <c r="I56" s="161"/>
-      <c r="J56" s="140"/>
+      <c r="F56" s="172"/>
+      <c r="G56" s="146"/>
+      <c r="H56" s="109"/>
+      <c r="I56" s="162"/>
+      <c r="J56" s="148"/>
       <c r="K56" s="147"/>
       <c r="L56" s="112"/>
       <c r="M56" s="161"/>
@@ -74191,42 +74522,80 @@
       <c r="Q56" s="145"/>
     </row>
     <row r="57" spans="1:17">
-      <c r="A57" s="230"/>
-      <c r="B57" s="167"/>
-      <c r="C57" s="147"/>
-      <c r="D57" s="142"/>
-      <c r="E57" s="170"/>
-      <c r="F57" s="169"/>
-      <c r="G57" s="143"/>
-      <c r="H57" s="112"/>
-      <c r="I57" s="161"/>
-      <c r="J57" s="148"/>
-      <c r="K57" s="147"/>
-      <c r="L57" s="112"/>
-      <c r="M57" s="161"/>
-      <c r="N57" s="148"/>
-      <c r="O57" s="147"/>
-      <c r="P57" s="112"/>
-      <c r="Q57" s="145"/>
+      <c r="A57" s="178" t="s">
+        <v>503</v>
+      </c>
+      <c r="B57" s="177"/>
+      <c r="C57" s="151">
+        <f>SUM(C51:C56)</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="412">
+        <f>SUM(D51:D56)</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="413">
+        <f>SUM(E51:E56)</f>
+        <v>0</v>
+      </c>
+      <c r="F57" s="168"/>
+      <c r="G57" s="151">
+        <f>SUM(G51:G56)</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="412">
+        <f>SUM(H51:H56)</f>
+        <v>0</v>
+      </c>
+      <c r="I57" s="412">
+        <f>SUM(I51:I56)</f>
+        <v>0</v>
+      </c>
+      <c r="J57" s="150"/>
+      <c r="K57" s="151">
+        <f>SUM(K51:K56)</f>
+        <v>0</v>
+      </c>
+      <c r="L57" s="414">
+        <f>SUM(L51:L56)</f>
+        <v>0</v>
+      </c>
+      <c r="M57" s="412">
+        <f>SUM(M51:M56)</f>
+        <v>0</v>
+      </c>
+      <c r="N57" s="150"/>
+      <c r="O57" s="151">
+        <f>SUM(O51:O56)</f>
+        <v>0</v>
+      </c>
+      <c r="P57" s="412">
+        <f>SUM(P51:P56)</f>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="411">
+        <f>SUM(Q51:Q56)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="230"/>
       <c r="B58" s="167"/>
       <c r="C58" s="147"/>
-      <c r="D58" s="149"/>
-      <c r="E58" s="171"/>
+      <c r="D58" s="142"/>
+      <c r="E58" s="170"/>
       <c r="F58" s="169"/>
       <c r="G58" s="143"/>
-      <c r="H58" s="109"/>
-      <c r="I58" s="162"/>
-      <c r="J58" s="148"/>
+      <c r="H58" s="112"/>
+      <c r="I58" s="161"/>
+      <c r="J58" s="140"/>
       <c r="K58" s="147"/>
       <c r="L58" s="112"/>
       <c r="M58" s="161"/>
       <c r="N58" s="148"/>
       <c r="O58" s="147"/>
       <c r="P58" s="112"/>
-      <c r="Q58" s="314"/>
+      <c r="Q58" s="145"/>
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="230"/>
@@ -74234,8 +74603,8 @@
       <c r="C59" s="147"/>
       <c r="D59" s="142"/>
       <c r="E59" s="170"/>
-      <c r="F59" s="173"/>
-      <c r="G59" s="152"/>
+      <c r="F59" s="169"/>
+      <c r="G59" s="143"/>
       <c r="H59" s="112"/>
       <c r="I59" s="161"/>
       <c r="J59" s="148"/>
@@ -74248,61 +74617,23 @@
       <c r="Q59" s="145"/>
     </row>
     <row r="60" spans="1:17">
-      <c r="A60" s="178" t="s">
-        <v>504</v>
-      </c>
-      <c r="B60" s="177"/>
-      <c r="C60" s="151">
-        <f>SUM(C56:C59)</f>
-        <v>0</v>
-      </c>
-      <c r="D60" s="412">
-        <f>SUM(D56:D59)</f>
-        <v>0</v>
-      </c>
-      <c r="E60" s="413">
-        <f>SUM(E56:E59)</f>
-        <v>0</v>
-      </c>
-      <c r="F60" s="168"/>
-      <c r="G60" s="151">
-        <f>SUM(G56:G59)</f>
-        <v>0</v>
-      </c>
-      <c r="H60" s="412">
-        <f>SUM(H56:H59)</f>
-        <v>0</v>
-      </c>
-      <c r="I60" s="412">
-        <f>SUM(I56:I59)</f>
-        <v>0</v>
-      </c>
-      <c r="J60" s="150"/>
-      <c r="K60" s="151">
-        <f>SUM(K56:K59)</f>
-        <v>0</v>
-      </c>
-      <c r="L60" s="412">
-        <f>SUM(L56:L59)</f>
-        <v>0</v>
-      </c>
-      <c r="M60" s="412">
-        <f>SUM(M56:M59)</f>
-        <v>0</v>
-      </c>
-      <c r="N60" s="150"/>
-      <c r="O60" s="151">
-        <f>SUM(O56:O59)</f>
-        <v>0</v>
-      </c>
-      <c r="P60" s="412">
-        <f>SUM(P56:P59)</f>
-        <v>0</v>
-      </c>
-      <c r="Q60" s="411">
-        <f>SUM(Q56:Q59)</f>
-        <v>0</v>
-      </c>
+      <c r="A60" s="230"/>
+      <c r="B60" s="167"/>
+      <c r="C60" s="147"/>
+      <c r="D60" s="149"/>
+      <c r="E60" s="171"/>
+      <c r="F60" s="169"/>
+      <c r="G60" s="143"/>
+      <c r="H60" s="109"/>
+      <c r="I60" s="162"/>
+      <c r="J60" s="148"/>
+      <c r="K60" s="147"/>
+      <c r="L60" s="112"/>
+      <c r="M60" s="161"/>
+      <c r="N60" s="148"/>
+      <c r="O60" s="147"/>
+      <c r="P60" s="112"/>
+      <c r="Q60" s="314"/>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="230"/>
@@ -74310,132 +74641,170 @@
       <c r="C61" s="147"/>
       <c r="D61" s="142"/>
       <c r="E61" s="170"/>
-      <c r="F61" s="174"/>
-      <c r="G61" s="155"/>
-      <c r="H61" s="110"/>
-      <c r="I61" s="163"/>
-      <c r="J61" s="159"/>
-      <c r="K61" s="156"/>
-      <c r="L61" s="110"/>
-      <c r="M61" s="163"/>
+      <c r="F61" s="173"/>
+      <c r="G61" s="152"/>
+      <c r="H61" s="112"/>
+      <c r="I61" s="161"/>
+      <c r="J61" s="148"/>
+      <c r="K61" s="147"/>
+      <c r="L61" s="112"/>
+      <c r="M61" s="161"/>
       <c r="N61" s="148"/>
       <c r="O61" s="147"/>
       <c r="P61" s="112"/>
-      <c r="Q61" s="314"/>
+      <c r="Q61" s="145"/>
     </row>
     <row r="62" spans="1:17">
-      <c r="A62" s="230"/>
-      <c r="B62" s="167"/>
-      <c r="C62" s="147"/>
-      <c r="D62" s="142"/>
-      <c r="E62" s="170"/>
-      <c r="F62" s="175"/>
-      <c r="G62" s="160"/>
-      <c r="H62" s="157"/>
-      <c r="I62" s="165"/>
-      <c r="J62" s="153"/>
-      <c r="K62" s="154"/>
-      <c r="L62" s="110"/>
-      <c r="M62" s="163"/>
-      <c r="N62" s="148"/>
-      <c r="O62" s="147"/>
-      <c r="P62" s="112"/>
-      <c r="Q62" s="145"/>
-    </row>
-    <row r="63" spans="1:17" ht="15" customHeight="1">
-      <c r="A63" s="178" t="s">
-        <v>505</v>
-      </c>
-      <c r="B63" s="177"/>
-      <c r="C63" s="151">
-        <f>SUM(C61:C62)</f>
+      <c r="A62" s="178" t="s">
+        <v>504</v>
+      </c>
+      <c r="B62" s="177"/>
+      <c r="C62" s="151">
+        <f>SUM(C58:C61)</f>
         <v>0</v>
       </c>
-      <c r="D63" s="412">
-        <f>SUM(D61:D62)</f>
+      <c r="D62" s="412">
+        <f>SUM(D58:D61)</f>
         <v>0</v>
       </c>
-      <c r="E63" s="413">
-        <f>SUM(E61:E62)</f>
+      <c r="E62" s="413">
+        <f>SUM(E58:E61)</f>
         <v>0</v>
       </c>
-      <c r="F63" s="168"/>
-      <c r="G63" s="151">
-        <f>SUM(G61:G62)</f>
+      <c r="F62" s="168"/>
+      <c r="G62" s="151">
+        <f>SUM(G58:G61)</f>
         <v>0</v>
       </c>
-      <c r="H63" s="412">
-        <f>SUM(H61:H62)</f>
+      <c r="H62" s="412">
+        <f>SUM(H58:H61)</f>
         <v>0</v>
       </c>
-      <c r="I63" s="412">
-        <f>SUM(I61:I62)</f>
+      <c r="I62" s="412">
+        <f>SUM(I58:I61)</f>
         <v>0</v>
       </c>
-      <c r="J63" s="150"/>
-      <c r="K63" s="151">
-        <f>SUM(K61:K62)</f>
+      <c r="J62" s="150"/>
+      <c r="K62" s="151">
+        <f>SUM(K58:K61)</f>
         <v>0</v>
       </c>
-      <c r="L63" s="412">
-        <f>SUM(L61:L62)</f>
+      <c r="L62" s="412">
+        <f>SUM(L58:L61)</f>
         <v>0</v>
       </c>
-      <c r="M63" s="412">
-        <f>SUM(M61:M62)</f>
+      <c r="M62" s="412">
+        <f>SUM(M58:M61)</f>
         <v>0</v>
       </c>
-      <c r="N63" s="150"/>
-      <c r="O63" s="151">
-        <f>SUM(O61:O62)</f>
+      <c r="N62" s="150"/>
+      <c r="O62" s="151">
+        <f>SUM(O58:O61)</f>
         <v>0</v>
       </c>
-      <c r="P63" s="412">
-        <f>SUM(P61:P62)</f>
+      <c r="P62" s="412">
+        <f>SUM(P58:P61)</f>
         <v>0</v>
       </c>
-      <c r="Q63" s="411">
-        <f>SUM(Q61:Q62)</f>
+      <c r="Q62" s="411">
+        <f>SUM(Q58:Q61)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="15" customHeight="1">
+    <row r="63" spans="1:17">
+      <c r="A63" s="230"/>
+      <c r="B63" s="167"/>
+      <c r="C63" s="147"/>
+      <c r="D63" s="142"/>
+      <c r="E63" s="170"/>
+      <c r="F63" s="174"/>
+      <c r="G63" s="155"/>
+      <c r="H63" s="110"/>
+      <c r="I63" s="163"/>
+      <c r="J63" s="159"/>
+      <c r="K63" s="156"/>
+      <c r="L63" s="110"/>
+      <c r="M63" s="163"/>
+      <c r="N63" s="148"/>
+      <c r="O63" s="147"/>
+      <c r="P63" s="112"/>
+      <c r="Q63" s="314"/>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" s="230"/>
-      <c r="B64" s="176"/>
-      <c r="C64" s="156"/>
-      <c r="D64" s="149"/>
+      <c r="B64" s="167"/>
+      <c r="C64" s="147"/>
+      <c r="D64" s="142"/>
       <c r="E64" s="170"/>
-      <c r="F64" s="169"/>
-      <c r="G64" s="143"/>
-      <c r="H64" s="112"/>
-      <c r="I64" s="161"/>
-      <c r="J64" s="148"/>
-      <c r="K64" s="147"/>
-      <c r="L64" s="112"/>
-      <c r="M64" s="161"/>
+      <c r="F64" s="175"/>
+      <c r="G64" s="160"/>
+      <c r="H64" s="157"/>
+      <c r="I64" s="165"/>
+      <c r="J64" s="153"/>
+      <c r="K64" s="154"/>
+      <c r="L64" s="110"/>
+      <c r="M64" s="163"/>
       <c r="N64" s="148"/>
       <c r="O64" s="147"/>
       <c r="P64" s="112"/>
       <c r="Q64" s="145"/>
     </row>
     <row r="65" spans="1:17" ht="15" customHeight="1">
-      <c r="A65" s="230"/>
-      <c r="B65" s="176"/>
-      <c r="C65" s="156"/>
-      <c r="D65" s="149"/>
-      <c r="E65" s="170"/>
-      <c r="F65" s="172"/>
-      <c r="G65" s="143"/>
-      <c r="H65" s="109"/>
-      <c r="I65" s="162"/>
-      <c r="J65" s="148"/>
-      <c r="K65" s="147"/>
-      <c r="L65" s="112"/>
-      <c r="M65" s="161"/>
-      <c r="N65" s="148"/>
-      <c r="O65" s="147"/>
-      <c r="P65" s="112"/>
-      <c r="Q65" s="145"/>
+      <c r="A65" s="178" t="s">
+        <v>505</v>
+      </c>
+      <c r="B65" s="177"/>
+      <c r="C65" s="151">
+        <f>SUM(C63:C64)</f>
+        <v>0</v>
+      </c>
+      <c r="D65" s="412">
+        <f>SUM(D63:D64)</f>
+        <v>0</v>
+      </c>
+      <c r="E65" s="413">
+        <f>SUM(E63:E64)</f>
+        <v>0</v>
+      </c>
+      <c r="F65" s="168"/>
+      <c r="G65" s="151">
+        <f>SUM(G63:G64)</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="412">
+        <f>SUM(H63:H64)</f>
+        <v>0</v>
+      </c>
+      <c r="I65" s="412">
+        <f>SUM(I63:I64)</f>
+        <v>0</v>
+      </c>
+      <c r="J65" s="150"/>
+      <c r="K65" s="151">
+        <f>SUM(K63:K64)</f>
+        <v>0</v>
+      </c>
+      <c r="L65" s="412">
+        <f>SUM(L63:L64)</f>
+        <v>0</v>
+      </c>
+      <c r="M65" s="412">
+        <f>SUM(M63:M64)</f>
+        <v>0</v>
+      </c>
+      <c r="N65" s="150"/>
+      <c r="O65" s="151">
+        <f>SUM(O63:O64)</f>
+        <v>0</v>
+      </c>
+      <c r="P65" s="412">
+        <f>SUM(P63:P64)</f>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="411">
+        <f>SUM(Q63:Q64)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:17" ht="15" customHeight="1">
       <c r="A66" s="230"/>
@@ -74454,238 +74823,268 @@
       <c r="N66" s="148"/>
       <c r="O66" s="147"/>
       <c r="P66" s="112"/>
-      <c r="Q66" s="314"/>
-    </row>
-    <row r="67" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A67" s="332"/>
-      <c r="B67" s="333"/>
-      <c r="C67" s="334"/>
-      <c r="D67" s="335"/>
-      <c r="E67" s="336"/>
-      <c r="F67" s="337"/>
-      <c r="G67" s="338"/>
-      <c r="H67" s="339"/>
-      <c r="I67" s="340"/>
-      <c r="J67" s="341"/>
-      <c r="K67" s="342"/>
-      <c r="L67" s="339"/>
-      <c r="M67" s="343"/>
-      <c r="N67" s="344"/>
-      <c r="O67" s="342"/>
-      <c r="P67" s="339"/>
-      <c r="Q67" s="345"/>
-    </row>
-    <row r="68" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A68" s="346" t="s">
+      <c r="Q66" s="145"/>
+    </row>
+    <row r="67" spans="1:17" ht="15" customHeight="1">
+      <c r="A67" s="230"/>
+      <c r="B67" s="176"/>
+      <c r="C67" s="156"/>
+      <c r="D67" s="149"/>
+      <c r="E67" s="170"/>
+      <c r="F67" s="172"/>
+      <c r="G67" s="143"/>
+      <c r="H67" s="109"/>
+      <c r="I67" s="162"/>
+      <c r="J67" s="148"/>
+      <c r="K67" s="147"/>
+      <c r="L67" s="112"/>
+      <c r="M67" s="161"/>
+      <c r="N67" s="148"/>
+      <c r="O67" s="147"/>
+      <c r="P67" s="112"/>
+      <c r="Q67" s="145"/>
+    </row>
+    <row r="68" spans="1:17" ht="15" customHeight="1">
+      <c r="A68" s="230"/>
+      <c r="B68" s="176"/>
+      <c r="C68" s="156"/>
+      <c r="D68" s="149"/>
+      <c r="E68" s="170"/>
+      <c r="F68" s="169"/>
+      <c r="G68" s="143"/>
+      <c r="H68" s="112"/>
+      <c r="I68" s="161"/>
+      <c r="J68" s="148"/>
+      <c r="K68" s="147"/>
+      <c r="L68" s="112"/>
+      <c r="M68" s="161"/>
+      <c r="N68" s="148"/>
+      <c r="O68" s="147"/>
+      <c r="P68" s="112"/>
+      <c r="Q68" s="314"/>
+    </row>
+    <row r="69" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A69" s="332"/>
+      <c r="B69" s="333"/>
+      <c r="C69" s="334"/>
+      <c r="D69" s="335"/>
+      <c r="E69" s="336"/>
+      <c r="F69" s="337"/>
+      <c r="G69" s="338"/>
+      <c r="H69" s="339"/>
+      <c r="I69" s="340"/>
+      <c r="J69" s="341"/>
+      <c r="K69" s="342"/>
+      <c r="L69" s="339"/>
+      <c r="M69" s="343"/>
+      <c r="N69" s="344"/>
+      <c r="O69" s="342"/>
+      <c r="P69" s="339"/>
+      <c r="Q69" s="345"/>
+    </row>
+    <row r="70" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A70" s="346" t="s">
         <v>506</v>
       </c>
-      <c r="B68" s="347"/>
-      <c r="C68" s="348">
-        <f>SUM(C64:C67)</f>
+      <c r="B70" s="347"/>
+      <c r="C70" s="348">
+        <f>SUM(C66:C69)</f>
         <v>0</v>
       </c>
-      <c r="D68" s="415">
-        <f>SUM(D64:D67)</f>
+      <c r="D70" s="415">
+        <f>SUM(D66:D69)</f>
         <v>0</v>
       </c>
-      <c r="E68" s="416">
-        <f>SUM(E64:E67)</f>
+      <c r="E70" s="416">
+        <f>SUM(E66:E69)</f>
         <v>0</v>
       </c>
-      <c r="F68" s="349"/>
-      <c r="G68" s="350">
-        <f>SUM(G64:G67)</f>
+      <c r="F70" s="349"/>
+      <c r="G70" s="350">
+        <f>SUM(G66:G69)</f>
         <v>0</v>
       </c>
-      <c r="H68" s="417">
-        <f>SUM(H64:H67)</f>
+      <c r="H70" s="417">
+        <f>SUM(H66:H69)</f>
         <v>0</v>
       </c>
-      <c r="I68" s="417">
-        <f>SUM(I64:I67)</f>
+      <c r="I70" s="417">
+        <f>SUM(I66:I69)</f>
         <v>0</v>
       </c>
-      <c r="J68" s="351"/>
-      <c r="K68" s="350">
-        <f>SUM(K64:K67)</f>
+      <c r="J70" s="351"/>
+      <c r="K70" s="350">
+        <f>SUM(K66:K69)</f>
         <v>0</v>
       </c>
-      <c r="L68" s="350">
-        <f>SUM(L64:L67)</f>
+      <c r="L70" s="350">
+        <f>SUM(L66:L69)</f>
         <v>0</v>
       </c>
-      <c r="M68" s="417">
-        <f>SUM(M64:M67)</f>
+      <c r="M70" s="417">
+        <f>SUM(M66:M69)</f>
         <v>0</v>
       </c>
-      <c r="N68" s="351"/>
-      <c r="O68" s="350">
-        <f>SUM(O64:O67)</f>
+      <c r="N70" s="351"/>
+      <c r="O70" s="350">
+        <f>SUM(O66:O69)</f>
         <v>0</v>
       </c>
-      <c r="P68" s="417">
-        <f>SUM(P64:P67)</f>
+      <c r="P70" s="417">
+        <f>SUM(P66:P69)</f>
         <v>0</v>
       </c>
-      <c r="Q68" s="418">
-        <f>SUM(Q64:Q67)</f>
+      <c r="Q70" s="418">
+        <f>SUM(Q66:Q69)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A69" s="419" t="s">
+    <row r="71" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A71" s="419" t="s">
         <v>53</v>
       </c>
-      <c r="B69" s="179"/>
-      <c r="C69" s="211">
-        <f>C10+C14+C19+C26+C33+C39+C44+C48+C55+C60+C63+C68</f>
-        <v>5358</v>
-      </c>
-      <c r="D69" s="211">
-        <f>D10+D14+D19+D26+D33+D39+D44+D48+D55+D60+D63+D68</f>
-        <v>181690.3</v>
-      </c>
-      <c r="E69" s="213">
-        <f>E10+E14+E19+E26+E33+E39+E44+E48+E55+E60+E63+E68</f>
-        <v>727.24799999999993</v>
-      </c>
-      <c r="F69" s="212"/>
-      <c r="G69" s="211">
-        <f>G10+G14+G19+G26+G33+G39+G44+G48+G55+G60+G63+G68</f>
+      <c r="B71" s="179"/>
+      <c r="C71" s="211">
+        <f>C10+C14+C21+C28+C35+C41+C46+C50+C57+C62+C65+C70</f>
+        <v>6438</v>
+      </c>
+      <c r="D71" s="211">
+        <f>D10+D14+D21+D28+D35+D41+D46+D50+D57+D62+D65+D70</f>
+        <v>219224</v>
+      </c>
+      <c r="E71" s="213">
+        <f>E10+E14+E21+E28+E35+E41+E46+E50+E57+E62+E65+E70</f>
+        <v>877.37799999999993</v>
+      </c>
+      <c r="F71" s="212"/>
+      <c r="G71" s="211">
+        <f>G10+G14+G21+G28+G35+G41+G46+G50+G57+G62+G65+G70</f>
         <v>455</v>
       </c>
-      <c r="H69" s="213">
-        <f>H10+H14+H19+H26+H33+H39+H44+H48+H55+H60+H63+H68</f>
+      <c r="H71" s="213">
+        <f>H10+H14+H21+H28+H35+H41+H46+H50+H57+H62+H65+H70</f>
         <v>15212.8</v>
       </c>
-      <c r="I69" s="213">
-        <f>I10+I14+I19+I26+I33+I39+I44+I48+I55+I60+I63+I68</f>
+      <c r="I71" s="213">
+        <f>I10+I14+I21+I28+I35+I41+I46+I50+I57+I62+I65+I70</f>
         <v>60.85</v>
       </c>
-      <c r="J69" s="214"/>
-      <c r="K69" s="211">
-        <f>K10+K14+K19+K26+K33+K39+K44+K48+K55+K60+K63+K68</f>
+      <c r="J71" s="214"/>
+      <c r="K71" s="211">
+        <f>K10+K14+K21+K28+K35+K41+K46+K50+K57+K62+K65+K70</f>
         <v>1038</v>
       </c>
-      <c r="L69" s="213">
-        <f>L10+L14+L19+L26+L33+L39+L44+L48+L55+L60+L63+L68</f>
+      <c r="L71" s="213">
+        <f>L10+L14+L21+L28+L35+L41+L46+L50+L57+L62+L65+L70</f>
         <v>34585.699999999997</v>
       </c>
-      <c r="M69" s="213">
-        <f>M10+M14+M19+M26+M33+M39+M44+M48+M55+M60+M63+M68</f>
+      <c r="M71" s="213">
+        <f>M10+M14+M21+M28+M35+M41+M46+M50+M57+M62+M65+M70</f>
         <v>138.34280000000001</v>
       </c>
-      <c r="N69" s="328"/>
-      <c r="O69" s="329">
-        <f>O10+O14+O19+O26+O33+O39+O44+O48+O55+O60+O63+O68</f>
+      <c r="N71" s="328"/>
+      <c r="O71" s="329">
+        <f>O10+O14+O21+O28+O35+O41+O46+O50+O57+O62+O65+O70</f>
         <v>2146</v>
       </c>
-      <c r="P69" s="289">
-        <f>P10+P14+P19+P26+P33+P39+P44+P48+P55+P60+P63+P68</f>
+      <c r="P71" s="289">
+        <f>P10+P14+P21+P28+P35+P41+P46+P50+P57+P62+P65+P70</f>
         <v>70972.3</v>
       </c>
-      <c r="Q69" s="330">
-        <f>Q10+Q14+Q19+Q26+Q33+Q39+Q44+Q48+Q55+Q60+Q63+Q68</f>
+      <c r="Q71" s="330">
+        <f>Q10+Q14+Q21+Q28+Q35+Q41+Q46+Q50+Q57+Q62+Q65+Q70</f>
         <v>283.77999999999997</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
-      <c r="A70" s="183" t="s">
+    <row r="72" spans="1:17">
+      <c r="A72" s="183" t="s">
         <v>60</v>
       </c>
-      <c r="B70" s="181"/>
-      <c r="C70" s="215">
+      <c r="B72" s="181"/>
+      <c r="C72" s="215">
         <f>'VARGIN TEA AC-2020-21'!P1081</f>
-        <v>5358</v>
-      </c>
-      <c r="D70" s="207">
+        <v>6438</v>
+      </c>
+      <c r="D72" s="207">
         <f>'VARGIN TEA AC-2020-21'!G1081</f>
-        <v>181690.29999999973</v>
-      </c>
-      <c r="E70" s="216"/>
-      <c r="F70" s="217"/>
-      <c r="G70" s="215">
+        <v>219223.99999999951</v>
+      </c>
+      <c r="E72" s="216"/>
+      <c r="F72" s="217"/>
+      <c r="G72" s="215">
         <f>'VARGIN TEA AC-2020-21'!S1082</f>
         <v>455</v>
       </c>
-      <c r="H70" s="208">
+      <c r="H72" s="208">
         <f>'VARGIN TEA AC-2020-21'!G1082</f>
         <v>15212.799999999997</v>
       </c>
-      <c r="I70" s="218"/>
-      <c r="J70" s="219"/>
-      <c r="K70" s="215">
+      <c r="I72" s="218"/>
+      <c r="J72" s="219"/>
+      <c r="K72" s="215">
         <f>'VARGIN TEA AC-2020-21'!V1083</f>
         <v>1038</v>
       </c>
-      <c r="L70" s="208">
+      <c r="L72" s="208">
         <f>'VARGIN TEA AC-2020-21'!G1083</f>
         <v>34585.700000000004</v>
       </c>
-      <c r="M70" s="220"/>
-      <c r="N70" s="221"/>
-      <c r="O70" s="215">
+      <c r="M72" s="220"/>
+      <c r="N72" s="221"/>
+      <c r="O72" s="215">
         <f>'VARGIN TEA AC-2020-21'!M1080</f>
         <v>2146</v>
       </c>
-      <c r="P70" s="208">
+      <c r="P72" s="208">
         <f>'VARGIN TEA AC-2020-21'!G1080</f>
         <v>70972.300000000017</v>
       </c>
-      <c r="Q70" s="218"/>
-    </row>
-    <row r="71" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A71" s="184" t="s">
+      <c r="Q72" s="218"/>
+    </row>
+    <row r="73" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A73" s="184" t="s">
         <v>61</v>
       </c>
-      <c r="B71" s="182"/>
-      <c r="C71" s="210">
-        <f>C69-C70</f>
+      <c r="B73" s="182"/>
+      <c r="C73" s="210">
+        <f>C71-C72</f>
         <v>0</v>
       </c>
-      <c r="D71" s="180">
-        <f>D69-D70</f>
-        <v>2.6193447411060333E-10</v>
-      </c>
-      <c r="E71" s="185"/>
-      <c r="F71" s="222"/>
-      <c r="G71" s="210">
-        <f>G69-G70</f>
+      <c r="D73" s="180">
+        <f>D71-D72</f>
+        <v>4.9476511776447296E-10</v>
+      </c>
+      <c r="E73" s="185"/>
+      <c r="F73" s="222"/>
+      <c r="G73" s="210">
+        <f>G71-G72</f>
         <v>0</v>
       </c>
-      <c r="H71" s="223">
-        <f>H69-H70</f>
+      <c r="H73" s="223">
+        <f>H71-H72</f>
         <v>0</v>
       </c>
-      <c r="I71" s="224"/>
-      <c r="J71" s="225"/>
-      <c r="K71" s="210">
-        <f>K69-K70</f>
+      <c r="I73" s="224"/>
+      <c r="J73" s="225"/>
+      <c r="K73" s="210">
+        <f>K71-K72</f>
         <v>0</v>
       </c>
-      <c r="L71" s="223">
-        <f>L69-L70</f>
+      <c r="L73" s="223">
+        <f>L71-L72</f>
         <v>0</v>
       </c>
-      <c r="M71" s="226"/>
-      <c r="N71" s="227"/>
-      <c r="O71" s="210">
-        <f>O69-O70</f>
+      <c r="M73" s="226"/>
+      <c r="N73" s="227"/>
+      <c r="O73" s="210">
+        <f>O71-O72</f>
         <v>0</v>
       </c>
-      <c r="P71" s="223">
-        <f>P69-P70</f>
+      <c r="P73" s="223">
+        <f>P71-P72</f>
         <v>0</v>
       </c>
-      <c r="Q71" s="224"/>
-    </row>
-    <row r="72" spans="1:17">
-      <c r="D72" s="113"/>
-      <c r="E72" s="113"/>
-    </row>
-    <row r="73" spans="1:17">
-      <c r="D73" s="113"/>
-      <c r="E73" s="113"/>
+      <c r="Q73" s="224"/>
     </row>
     <row r="74" spans="1:17">
       <c r="D74" s="113"/>
@@ -74696,7 +75095,15 @@
       <c r="E75" s="113"/>
     </row>
     <row r="76" spans="1:17">
-      <c r="L76" s="331"/>
+      <c r="D76" s="113"/>
+      <c r="E76" s="113"/>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="D77" s="113"/>
+      <c r="E77" s="113"/>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="L78" s="331"/>
     </row>
   </sheetData>
   <mergeCells count="10">
